--- a/files/demographic/estado-civil.xlsx
+++ b/files/demographic/estado-civil.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arlindo Boa\Desktop\tactic\files\demographic\maritalStatus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arlindo Boa\Desktop\tactic\files\demographic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E187E17-CF00-4022-B20D-ADAF191D3C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16293B58-5CED-4092-890B-C96FF13EB5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="630">
   <si>
     <t>Sexo</t>
   </si>
@@ -1922,6 +1922,9 @@
   <si>
     <t>#</t>
   </si>
+  <si>
+    <t xml:space="preserve">        DISTRITO Cidade de Inhambane</t>
+  </si>
 </sst>
 </file>
 
@@ -2246,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V633"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="F466" workbookViewId="0">
+      <selection activeCell="A474" sqref="A474:V474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45065,10 +45068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI184"/>
+  <dimension ref="A1:AI185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L136" sqref="L136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60483,63 +60486,63 @@
         <v>9150</v>
       </c>
       <c r="U135" s="2">
-        <f t="shared" ref="U135:U184" si="30">C135/B135*100</f>
+        <f t="shared" ref="U135:U185" si="30">C135/B135*100</f>
         <v>39.176378905250424</v>
       </c>
       <c r="V135" s="2">
-        <f t="shared" ref="V135:V184" si="31">D135/B135*100</f>
+        <f t="shared" ref="V135:V185" si="31">D135/B135*100</f>
         <v>4.7188684951264337</v>
       </c>
       <c r="W135" s="2">
-        <f t="shared" ref="W135:W184" si="32">E135/B135*100</f>
+        <f t="shared" ref="W135:W137" si="32">E135/B135*100</f>
         <v>47.566706213506407</v>
       </c>
       <c r="X135" s="2">
-        <f t="shared" ref="X135:X184" si="33">F135/B135*100</f>
+        <f t="shared" ref="X135:X137" si="33">F135/B135*100</f>
         <v>2.448996208155954</v>
       </c>
       <c r="Y135" s="2">
-        <f t="shared" ref="Y135:Y184" si="34">G135/B135*100</f>
+        <f t="shared" ref="Y135:Y137" si="34">G135/B135*100</f>
         <v>6.0890501779607789</v>
       </c>
       <c r="Z135" s="2">
-        <f t="shared" ref="Z135:Z184" si="35">I135/H135*100</f>
+        <f t="shared" ref="Z135:Z137" si="35">I135/H135*100</f>
         <v>46.47693002698314</v>
       </c>
       <c r="AA135" s="2">
-        <f t="shared" ref="AA135:AA184" si="36">J135/H135*100</f>
+        <f t="shared" ref="AA135:AA137" si="36">J135/H135*100</f>
         <v>4.7348692966069619</v>
       </c>
       <c r="AB135" s="2">
-        <f t="shared" ref="AB135:AB184" si="37">K135/H135*100</f>
+        <f t="shared" ref="AB135:AB137" si="37">K135/H135*100</f>
         <v>45.798078214473222</v>
       </c>
       <c r="AC135" s="2">
-        <f t="shared" ref="AC135:AC184" si="38">L135/H135*100</f>
+        <f t="shared" ref="AC135:AC137" si="38">L135/H135*100</f>
         <v>1.3784598854742804</v>
       </c>
       <c r="AD135" s="2">
-        <f t="shared" ref="AD135:AD184" si="39">M135/H135*100</f>
+        <f t="shared" ref="AD135:AD137" si="39">M135/H135*100</f>
         <v>1.6116625764624006</v>
       </c>
       <c r="AE135" s="2">
-        <f t="shared" ref="AE135:AE184" si="40">O135/N135*100</f>
+        <f t="shared" ref="AE135:AE137" si="40">O135/N135*100</f>
         <v>32.535954245099674</v>
       </c>
       <c r="AF135" s="2">
-        <f t="shared" ref="AF135:AF184" si="41">P135/N135*100</f>
+        <f t="shared" ref="AF135:AF137" si="41">P135/N135*100</f>
         <v>4.7043145094119607</v>
       </c>
       <c r="AG135" s="2">
-        <f t="shared" ref="AG135:AG184" si="42">Q135/N135*100</f>
+        <f t="shared" ref="AG135:AG137" si="42">Q135/N135*100</f>
         <v>49.175412293853071</v>
       </c>
       <c r="AH135" s="2">
-        <f t="shared" ref="AH135:AH184" si="43">R135/N135*100</f>
+        <f t="shared" ref="AH135:AH137" si="43">R135/N135*100</f>
         <v>3.4227330779054919</v>
       </c>
       <c r="AI135" s="2">
-        <f t="shared" ref="AI135:AI184" si="44">S135/N135*100</f>
+        <f t="shared" ref="AI135:AI137" si="44">S135/N135*100</f>
         <v>10.161585873729802</v>
       </c>
     </row>
@@ -60747,5523 +60750,5591 @@
     </row>
     <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>629</v>
+      </c>
+      <c r="B138" s="1">
+        <v>56894</v>
+      </c>
+      <c r="C138" s="1">
+        <v>27963</v>
+      </c>
+      <c r="D138" s="1">
+        <v>5023</v>
+      </c>
+      <c r="E138" s="1">
+        <v>19900</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1865</v>
+      </c>
+      <c r="G138" s="1">
+        <v>2143</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+      <c r="I138" s="1">
+        <v>25664</v>
+      </c>
+      <c r="J138" s="1">
+        <v>12781</v>
+      </c>
+      <c r="K138" s="1">
+        <v>2458</v>
+      </c>
+      <c r="L138" s="1">
+        <v>9718</v>
+      </c>
+      <c r="M138" s="1">
+        <v>443</v>
+      </c>
+      <c r="N138" s="1">
+        <v>264</v>
+      </c>
+      <c r="O138" s="1">
+        <v>0</v>
+      </c>
+      <c r="P138" s="1">
+        <v>31230</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>15182</v>
+      </c>
+      <c r="R138" s="1">
+        <v>2565</v>
+      </c>
+      <c r="S138" s="1">
+        <v>10182</v>
+      </c>
+      <c r="T138" s="1">
+        <v>1422</v>
+      </c>
+      <c r="U138" s="1">
+        <v>1879</v>
+      </c>
+      <c r="V138" s="1">
+        <v>0</v>
+      </c>
+      <c r="W138" s="2">
+        <f>E139/B139*100</f>
+        <v>47.142908066873417</v>
+      </c>
+      <c r="X138" s="2">
+        <f>F139/B139*100</f>
+        <v>4.1778062952268922</v>
+      </c>
+      <c r="Y138" s="2">
+        <f>G139/B139*100</f>
+        <v>8.7691156026093466</v>
+      </c>
+      <c r="Z138" s="2">
+        <f>I139/H139*100</f>
+        <v>45.00163612565445</v>
+      </c>
+      <c r="AA138" s="2">
+        <f>J139/H139*100</f>
+        <v>2.0206151832460733</v>
+      </c>
+      <c r="AB138" s="2">
+        <f>K139/H139*100</f>
+        <v>47.840314136125656</v>
+      </c>
+      <c r="AC138" s="2">
+        <f>L139/H139*100</f>
+        <v>2.6914267015706805</v>
+      </c>
+      <c r="AD138" s="2">
+        <f>M139/H139*100</f>
+        <v>2.4460078534031413</v>
+      </c>
+      <c r="AE138" s="2">
+        <f>O139/N139*100</f>
+        <v>32.762650830753678</v>
+      </c>
+      <c r="AF138" s="2">
+        <f>P139/N139*100</f>
+        <v>1.6551898414302861</v>
+      </c>
+      <c r="AG138" s="2">
+        <f>Q139/N139*100</f>
+        <v>46.604333817676419</v>
+      </c>
+      <c r="AH138" s="2">
+        <f>R139/N139*100</f>
+        <v>5.3256680775791274</v>
+      </c>
+      <c r="AI138" s="2">
+        <f>S139/N139*100</f>
+        <v>13.652157432560491</v>
+      </c>
+    </row>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>471</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B139" s="1">
         <v>28053</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C139" s="1">
         <v>10687</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D139" s="1">
         <v>509</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E139" s="1">
         <v>13225</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F139" s="1">
         <v>1172</v>
       </c>
-      <c r="G138" s="1">
+      <c r="G139" s="1">
         <v>2460</v>
       </c>
-      <c r="H138" s="1">
+      <c r="H139" s="1">
         <v>12224</v>
       </c>
-      <c r="I138" s="1">
+      <c r="I139" s="1">
         <v>5501</v>
       </c>
-      <c r="J138" s="1">
+      <c r="J139" s="1">
         <v>247</v>
       </c>
-      <c r="K138" s="1">
+      <c r="K139" s="1">
         <v>5848</v>
       </c>
-      <c r="L138" s="1">
+      <c r="L139" s="1">
         <v>329</v>
       </c>
-      <c r="M138" s="1">
+      <c r="M139" s="1">
         <v>299</v>
       </c>
-      <c r="N138" s="1">
+      <c r="N139" s="1">
         <v>15829</v>
       </c>
-      <c r="O138" s="1">
+      <c r="O139" s="1">
         <v>5186</v>
       </c>
-      <c r="P138" s="1">
+      <c r="P139" s="1">
         <v>262</v>
       </c>
-      <c r="Q138" s="1">
+      <c r="Q139" s="1">
         <v>7377</v>
       </c>
-      <c r="R138" s="1">
+      <c r="R139" s="1">
         <v>843</v>
       </c>
-      <c r="S138" s="1">
+      <c r="S139" s="1">
         <v>2161</v>
       </c>
-      <c r="U138" s="2">
+      <c r="U139" s="2">
         <f t="shared" si="30"/>
         <v>38.095747335400851</v>
       </c>
-      <c r="V138" s="2">
+      <c r="V139" s="2">
         <f t="shared" si="31"/>
         <v>1.8144226998894948</v>
       </c>
-      <c r="W138" s="2">
-        <f t="shared" si="32"/>
-        <v>47.142908066873417</v>
-      </c>
-      <c r="X138" s="2">
-        <f t="shared" si="33"/>
-        <v>4.1778062952268922</v>
-      </c>
-      <c r="Y138" s="2">
-        <f t="shared" si="34"/>
-        <v>8.7691156026093466</v>
-      </c>
-      <c r="Z138" s="2">
-        <f t="shared" si="35"/>
-        <v>45.00163612565445</v>
-      </c>
-      <c r="AA138" s="2">
-        <f t="shared" si="36"/>
-        <v>2.0206151832460733</v>
-      </c>
-      <c r="AB138" s="2">
-        <f t="shared" si="37"/>
-        <v>47.840314136125656</v>
-      </c>
-      <c r="AC138" s="2">
-        <f t="shared" si="38"/>
-        <v>2.6914267015706805</v>
-      </c>
-      <c r="AD138" s="2">
-        <f t="shared" si="39"/>
-        <v>2.4460078534031413</v>
-      </c>
-      <c r="AE138" s="2">
-        <f t="shared" si="40"/>
-        <v>32.762650830753678</v>
-      </c>
-      <c r="AF138" s="2">
-        <f t="shared" si="41"/>
-        <v>1.6551898414302861</v>
-      </c>
-      <c r="AG138" s="2">
-        <f t="shared" si="42"/>
-        <v>46.604333817676419</v>
-      </c>
-      <c r="AH138" s="2">
-        <f t="shared" si="43"/>
-        <v>5.3256680775791274</v>
-      </c>
-      <c r="AI138" s="2">
-        <f t="shared" si="44"/>
-        <v>13.652157432560491</v>
-      </c>
-    </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="W139" s="2">
+        <f>E140/B140*100</f>
+        <v>42.633269664872373</v>
+      </c>
+      <c r="X139" s="2">
+        <f>F140/B140*100</f>
+        <v>4.1326619204723043</v>
+      </c>
+      <c r="Y139" s="2">
+        <f>G140/B140*100</f>
+        <v>8.1958673380795286</v>
+      </c>
+      <c r="Z139" s="2">
+        <f>I140/H140*100</f>
+        <v>48.649447949526817</v>
+      </c>
+      <c r="AA139" s="2">
+        <f>J140/H140*100</f>
+        <v>3.1742902208201889</v>
+      </c>
+      <c r="AB139" s="2">
+        <f>K140/H140*100</f>
+        <v>43.523264984227126</v>
+      </c>
+      <c r="AC139" s="2">
+        <f>L140/H140*100</f>
+        <v>2.1096214511041009</v>
+      </c>
+      <c r="AD139" s="2">
+        <f>M140/H140*100</f>
+        <v>2.5433753943217665</v>
+      </c>
+      <c r="AE139" s="2">
+        <f>O140/N140*100</f>
+        <v>37.038473471920568</v>
+      </c>
+      <c r="AF139" s="2">
+        <f>P140/N140*100</f>
+        <v>2.6605646912814147</v>
+      </c>
+      <c r="AG139" s="2">
+        <f>Q140/N140*100</f>
+        <v>41.932981694073845</v>
+      </c>
+      <c r="AH139" s="2">
+        <f>R140/N140*100</f>
+        <v>5.7244802978591371</v>
+      </c>
+      <c r="AI139" s="2">
+        <f>S140/N140*100</f>
+        <v>12.643499844865033</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>474</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B140" s="1">
         <v>23036</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C140" s="1">
         <v>9710</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D140" s="1">
         <v>665</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E140" s="1">
         <v>9821</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F140" s="1">
         <v>952</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G140" s="1">
         <v>1888</v>
       </c>
-      <c r="H139" s="1">
+      <c r="H140" s="1">
         <v>10144</v>
       </c>
-      <c r="I139" s="1">
+      <c r="I140" s="1">
         <v>4935</v>
       </c>
-      <c r="J139" s="1">
+      <c r="J140" s="1">
         <v>322</v>
       </c>
-      <c r="K139" s="1">
+      <c r="K140" s="1">
         <v>4415</v>
       </c>
-      <c r="L139" s="1">
+      <c r="L140" s="1">
         <v>214</v>
       </c>
-      <c r="M139" s="1">
+      <c r="M140" s="1">
         <v>258</v>
       </c>
-      <c r="N139" s="1">
+      <c r="N140" s="1">
         <v>12892</v>
       </c>
-      <c r="O139" s="1">
+      <c r="O140" s="1">
         <v>4775</v>
       </c>
-      <c r="P139" s="1">
+      <c r="P140" s="1">
         <v>343</v>
       </c>
-      <c r="Q139" s="1">
+      <c r="Q140" s="1">
         <v>5406</v>
       </c>
-      <c r="R139" s="1">
+      <c r="R140" s="1">
         <v>738</v>
       </c>
-      <c r="S139" s="1">
+      <c r="S140" s="1">
         <v>1630</v>
       </c>
-      <c r="U139" s="2">
+      <c r="U140" s="2">
         <f t="shared" si="30"/>
         <v>42.151415176245877</v>
       </c>
-      <c r="V139" s="2">
+      <c r="V140" s="2">
         <f t="shared" si="31"/>
         <v>2.8867859003299183</v>
       </c>
-      <c r="W139" s="2">
-        <f t="shared" si="32"/>
-        <v>42.633269664872373</v>
-      </c>
-      <c r="X139" s="2">
-        <f t="shared" si="33"/>
-        <v>4.1326619204723043</v>
-      </c>
-      <c r="Y139" s="2">
-        <f t="shared" si="34"/>
-        <v>8.1958673380795286</v>
-      </c>
-      <c r="Z139" s="2">
-        <f t="shared" si="35"/>
-        <v>48.649447949526817</v>
-      </c>
-      <c r="AA139" s="2">
-        <f t="shared" si="36"/>
-        <v>3.1742902208201889</v>
-      </c>
-      <c r="AB139" s="2">
-        <f t="shared" si="37"/>
-        <v>43.523264984227126</v>
-      </c>
-      <c r="AC139" s="2">
-        <f t="shared" si="38"/>
-        <v>2.1096214511041009</v>
-      </c>
-      <c r="AD139" s="2">
-        <f t="shared" si="39"/>
-        <v>2.5433753943217665</v>
-      </c>
-      <c r="AE139" s="2">
-        <f t="shared" si="40"/>
-        <v>37.038473471920568</v>
-      </c>
-      <c r="AF139" s="2">
-        <f t="shared" si="41"/>
-        <v>2.6605646912814147</v>
-      </c>
-      <c r="AG139" s="2">
-        <f t="shared" si="42"/>
-        <v>41.932981694073845</v>
-      </c>
-      <c r="AH139" s="2">
-        <f t="shared" si="43"/>
-        <v>5.7244802978591371</v>
-      </c>
-      <c r="AI139" s="2">
-        <f t="shared" si="44"/>
-        <v>12.643499844865033</v>
-      </c>
-    </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="W140" s="2">
+        <f>E141/B141*100</f>
+        <v>39.968150735343315</v>
+      </c>
+      <c r="X140" s="2">
+        <f>F141/B141*100</f>
+        <v>4.3933250364660701</v>
+      </c>
+      <c r="Y140" s="2">
+        <f>G141/B141*100</f>
+        <v>7.2129217016607114</v>
+      </c>
+      <c r="Z140" s="2">
+        <f>I141/H141*100</f>
+        <v>48.702242846094357</v>
+      </c>
+      <c r="AA140" s="2">
+        <f>J141/H141*100</f>
+        <v>6.2861562258314008</v>
+      </c>
+      <c r="AB140" s="2">
+        <f>K141/H141*100</f>
+        <v>40.699149265274556</v>
+      </c>
+      <c r="AC140" s="2">
+        <f>L141/H141*100</f>
+        <v>2.5893271461716938</v>
+      </c>
+      <c r="AD140" s="2">
+        <f>M141/H141*100</f>
+        <v>1.7231245166279967</v>
+      </c>
+      <c r="AE140" s="2">
+        <f>O141/N141*100</f>
+        <v>37.585491250412716</v>
+      </c>
+      <c r="AF140" s="2">
+        <f>P141/N141*100</f>
+        <v>5.8369888212820156</v>
+      </c>
+      <c r="AG140" s="2">
+        <f>Q141/N141*100</f>
+        <v>39.410876845431822</v>
+      </c>
+      <c r="AH140" s="2">
+        <f>R141/N141*100</f>
+        <v>5.768595820951842</v>
+      </c>
+      <c r="AI140" s="2">
+        <f>S141/N141*100</f>
+        <v>11.398047261921608</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>476</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B141" s="1">
         <v>74727</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C141" s="1">
         <v>31680</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D141" s="1">
         <v>4507</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E141" s="1">
         <v>29867</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F141" s="1">
         <v>3283</v>
       </c>
-      <c r="G140" s="1">
+      <c r="G141" s="1">
         <v>5390</v>
       </c>
-      <c r="H140" s="1">
+      <c r="H141" s="1">
         <v>32325</v>
       </c>
-      <c r="I140" s="1">
+      <c r="I141" s="1">
         <v>15743</v>
       </c>
-      <c r="J140" s="1">
+      <c r="J141" s="1">
         <v>2032</v>
       </c>
-      <c r="K140" s="1">
+      <c r="K141" s="1">
         <v>13156</v>
       </c>
-      <c r="L140" s="1">
+      <c r="L141" s="1">
         <v>837</v>
       </c>
-      <c r="M140" s="1">
+      <c r="M141" s="1">
         <v>557</v>
       </c>
-      <c r="N140" s="1">
+      <c r="N141" s="1">
         <v>42402</v>
       </c>
-      <c r="O140" s="1">
+      <c r="O141" s="1">
         <v>15937</v>
       </c>
-      <c r="P140" s="1">
+      <c r="P141" s="1">
         <v>2475</v>
       </c>
-      <c r="Q140" s="1">
+      <c r="Q141" s="1">
         <v>16711</v>
       </c>
-      <c r="R140" s="1">
+      <c r="R141" s="1">
         <v>2446</v>
       </c>
-      <c r="S140" s="1">
+      <c r="S141" s="1">
         <v>4833</v>
       </c>
-      <c r="U140" s="2">
+      <c r="U141" s="2">
         <f t="shared" si="30"/>
         <v>42.394315307720099</v>
       </c>
-      <c r="V140" s="2">
+      <c r="V141" s="2">
         <f t="shared" si="31"/>
         <v>6.0312872188098012</v>
       </c>
-      <c r="W140" s="2">
-        <f t="shared" si="32"/>
-        <v>39.968150735343315</v>
-      </c>
-      <c r="X140" s="2">
-        <f t="shared" si="33"/>
-        <v>4.3933250364660701</v>
-      </c>
-      <c r="Y140" s="2">
-        <f t="shared" si="34"/>
-        <v>7.2129217016607114</v>
-      </c>
-      <c r="Z140" s="2">
-        <f t="shared" si="35"/>
-        <v>48.702242846094357</v>
-      </c>
-      <c r="AA140" s="2">
-        <f t="shared" si="36"/>
-        <v>6.2861562258314008</v>
-      </c>
-      <c r="AB140" s="2">
-        <f t="shared" si="37"/>
-        <v>40.699149265274556</v>
-      </c>
-      <c r="AC140" s="2">
-        <f t="shared" si="38"/>
-        <v>2.5893271461716938</v>
-      </c>
-      <c r="AD140" s="2">
-        <f t="shared" si="39"/>
-        <v>1.7231245166279967</v>
-      </c>
-      <c r="AE140" s="2">
-        <f t="shared" si="40"/>
-        <v>37.585491250412716</v>
-      </c>
-      <c r="AF140" s="2">
-        <f t="shared" si="41"/>
-        <v>5.8369888212820156</v>
-      </c>
-      <c r="AG140" s="2">
-        <f t="shared" si="42"/>
-        <v>39.410876845431822</v>
-      </c>
-      <c r="AH140" s="2">
-        <f t="shared" si="43"/>
-        <v>5.768595820951842</v>
-      </c>
-      <c r="AI140" s="2">
-        <f t="shared" si="44"/>
-        <v>11.398047261921608</v>
-      </c>
-    </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="W141" s="2">
+        <f>E142/B142*100</f>
+        <v>40.705629397967165</v>
+      </c>
+      <c r="X141" s="2">
+        <f>F142/B142*100</f>
+        <v>4.1689936334189657</v>
+      </c>
+      <c r="Y141" s="2">
+        <f>G142/B142*100</f>
+        <v>6.2088126884843069</v>
+      </c>
+      <c r="Z141" s="2">
+        <f>I142/H142*100</f>
+        <v>50.290216933104183</v>
+      </c>
+      <c r="AA141" s="2">
+        <f>J142/H142*100</f>
+        <v>5.0617724310126793</v>
+      </c>
+      <c r="AB141" s="2">
+        <f>K142/H142*100</f>
+        <v>40.698466227828398</v>
+      </c>
+      <c r="AC141" s="2">
+        <f>L142/H142*100</f>
+        <v>2.3314634067252507</v>
+      </c>
+      <c r="AD141" s="2">
+        <f>M142/H142*100</f>
+        <v>1.6180810013294855</v>
+      </c>
+      <c r="AE141" s="2">
+        <f>O142/N142*100</f>
+        <v>39.426259654284664</v>
+      </c>
+      <c r="AF141" s="2">
+        <f>P142/N142*100</f>
+        <v>4.6242491111928405</v>
+      </c>
+      <c r="AG141" s="2">
+        <f>Q142/N142*100</f>
+        <v>40.711045727595931</v>
+      </c>
+      <c r="AH141" s="2">
+        <f>R142/N142*100</f>
+        <v>5.558416084344735</v>
+      </c>
+      <c r="AI141" s="2">
+        <f>S142/N142*100</f>
+        <v>9.680029422581832</v>
+      </c>
+    </row>
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>479</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B142" s="1">
         <v>71624</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C142" s="1">
         <v>31589</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D142" s="1">
         <v>3447</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E142" s="1">
         <v>29155</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F142" s="1">
         <v>2986</v>
       </c>
-      <c r="G141" s="1">
+      <c r="G142" s="1">
         <v>4447</v>
       </c>
-      <c r="H141" s="1">
+      <c r="H142" s="1">
         <v>30839</v>
       </c>
-      <c r="I141" s="1">
+      <c r="I142" s="1">
         <v>15509</v>
       </c>
-      <c r="J141" s="1">
+      <c r="J142" s="1">
         <v>1561</v>
       </c>
-      <c r="K141" s="1">
+      <c r="K142" s="1">
         <v>12551</v>
       </c>
-      <c r="L141" s="1">
+      <c r="L142" s="1">
         <v>719</v>
       </c>
-      <c r="M141" s="1">
+      <c r="M142" s="1">
         <v>499</v>
       </c>
-      <c r="N141" s="1">
+      <c r="N142" s="1">
         <v>40785</v>
       </c>
-      <c r="O141" s="1">
+      <c r="O142" s="1">
         <v>16080</v>
       </c>
-      <c r="P141" s="1">
+      <c r="P142" s="1">
         <v>1886</v>
       </c>
-      <c r="Q141" s="1">
+      <c r="Q142" s="1">
         <v>16604</v>
       </c>
-      <c r="R141" s="1">
+      <c r="R142" s="1">
         <v>2267</v>
       </c>
-      <c r="S141" s="1">
+      <c r="S142" s="1">
         <v>3948</v>
       </c>
-      <c r="U141" s="2">
+      <c r="U142" s="2">
         <f t="shared" si="30"/>
         <v>44.103931643024687</v>
       </c>
-      <c r="V141" s="2">
+      <c r="V142" s="2">
         <f t="shared" si="31"/>
         <v>4.8126326371048815</v>
       </c>
-      <c r="W141" s="2">
-        <f t="shared" si="32"/>
-        <v>40.705629397967165</v>
-      </c>
-      <c r="X141" s="2">
-        <f t="shared" si="33"/>
-        <v>4.1689936334189657</v>
-      </c>
-      <c r="Y141" s="2">
-        <f t="shared" si="34"/>
-        <v>6.2088126884843069</v>
-      </c>
-      <c r="Z141" s="2">
-        <f t="shared" si="35"/>
-        <v>50.290216933104183</v>
-      </c>
-      <c r="AA141" s="2">
-        <f t="shared" si="36"/>
-        <v>5.0617724310126793</v>
-      </c>
-      <c r="AB141" s="2">
-        <f t="shared" si="37"/>
-        <v>40.698466227828398</v>
-      </c>
-      <c r="AC141" s="2">
-        <f t="shared" si="38"/>
-        <v>2.3314634067252507</v>
-      </c>
-      <c r="AD141" s="2">
-        <f t="shared" si="39"/>
-        <v>1.6180810013294855</v>
-      </c>
-      <c r="AE141" s="2">
-        <f t="shared" si="40"/>
-        <v>39.426259654284664</v>
-      </c>
-      <c r="AF141" s="2">
-        <f t="shared" si="41"/>
-        <v>4.6242491111928405</v>
-      </c>
-      <c r="AG141" s="2">
-        <f t="shared" si="42"/>
-        <v>40.711045727595931</v>
-      </c>
-      <c r="AH141" s="2">
-        <f t="shared" si="43"/>
-        <v>5.558416084344735</v>
-      </c>
-      <c r="AI141" s="2">
-        <f t="shared" si="44"/>
-        <v>9.680029422581832</v>
-      </c>
-    </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="W142" s="2">
+        <f>E143/B143*100</f>
+        <v>42.467901067711857</v>
+      </c>
+      <c r="X142" s="2">
+        <f>F143/B143*100</f>
+        <v>3.5356129206649545</v>
+      </c>
+      <c r="Y142" s="2">
+        <f>G143/B143*100</f>
+        <v>6.719827003649141</v>
+      </c>
+      <c r="Z142" s="2">
+        <f>I143/H143*100</f>
+        <v>47.61330761812922</v>
+      </c>
+      <c r="AA142" s="2">
+        <f>J143/H143*100</f>
+        <v>4.2731436837029895</v>
+      </c>
+      <c r="AB142" s="2">
+        <f>K143/H143*100</f>
+        <v>44.081485053037611</v>
+      </c>
+      <c r="AC142" s="2">
+        <f>L143/H143*100</f>
+        <v>2.139585342333655</v>
+      </c>
+      <c r="AD142" s="2">
+        <f>M143/H143*100</f>
+        <v>1.8924783027965284</v>
+      </c>
+      <c r="AE142" s="2">
+        <f>O143/N143*100</f>
+        <v>39.494192030583733</v>
+      </c>
+      <c r="AF142" s="2">
+        <f>P143/N143*100</f>
+        <v>4.0337205312944171</v>
+      </c>
+      <c r="AG142" s="2">
+        <f>Q143/N143*100</f>
+        <v>41.155712395235994</v>
+      </c>
+      <c r="AH142" s="2">
+        <f>R143/N143*100</f>
+        <v>4.6708817330784687</v>
+      </c>
+      <c r="AI142" s="2">
+        <f>S143/N143*100</f>
+        <v>10.645493309807382</v>
+      </c>
+    </row>
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>482</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B143" s="1">
         <v>36995</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C143" s="1">
         <v>15958</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D143" s="1">
         <v>1532</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E143" s="1">
         <v>15711</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F143" s="1">
         <v>1308</v>
       </c>
-      <c r="G142" s="1">
+      <c r="G143" s="1">
         <v>2486</v>
       </c>
-      <c r="H142" s="1">
+      <c r="H143" s="1">
         <v>16592</v>
       </c>
-      <c r="I142" s="1">
+      <c r="I143" s="1">
         <v>7900</v>
       </c>
-      <c r="J142" s="1">
+      <c r="J143" s="1">
         <v>709</v>
       </c>
-      <c r="K142" s="1">
+      <c r="K143" s="1">
         <v>7314</v>
       </c>
-      <c r="L142" s="1">
+      <c r="L143" s="1">
         <v>355</v>
       </c>
-      <c r="M142" s="1">
+      <c r="M143" s="1">
         <v>314</v>
       </c>
-      <c r="N142" s="1">
+      <c r="N143" s="1">
         <v>20403</v>
       </c>
-      <c r="O142" s="1">
+      <c r="O143" s="1">
         <v>8058</v>
       </c>
-      <c r="P142" s="1">
+      <c r="P143" s="1">
         <v>823</v>
       </c>
-      <c r="Q142" s="1">
+      <c r="Q143" s="1">
         <v>8397</v>
       </c>
-      <c r="R142" s="1">
+      <c r="R143" s="1">
         <v>953</v>
       </c>
-      <c r="S142" s="1">
+      <c r="S143" s="1">
         <v>2172</v>
       </c>
-      <c r="U142" s="2">
+      <c r="U143" s="2">
         <f t="shared" si="30"/>
         <v>43.135558859305313</v>
       </c>
-      <c r="V142" s="2">
+      <c r="V143" s="2">
         <f t="shared" si="31"/>
         <v>4.1411001486687384</v>
       </c>
-      <c r="W142" s="2">
-        <f t="shared" si="32"/>
-        <v>42.467901067711857</v>
-      </c>
-      <c r="X142" s="2">
-        <f t="shared" si="33"/>
-        <v>3.5356129206649545</v>
-      </c>
-      <c r="Y142" s="2">
-        <f t="shared" si="34"/>
-        <v>6.719827003649141</v>
-      </c>
-      <c r="Z142" s="2">
-        <f t="shared" si="35"/>
-        <v>47.61330761812922</v>
-      </c>
-      <c r="AA142" s="2">
-        <f t="shared" si="36"/>
-        <v>4.2731436837029895</v>
-      </c>
-      <c r="AB142" s="2">
-        <f t="shared" si="37"/>
-        <v>44.081485053037611</v>
-      </c>
-      <c r="AC142" s="2">
-        <f t="shared" si="38"/>
-        <v>2.139585342333655</v>
-      </c>
-      <c r="AD142" s="2">
-        <f t="shared" si="39"/>
-        <v>1.8924783027965284</v>
-      </c>
-      <c r="AE142" s="2">
-        <f t="shared" si="40"/>
-        <v>39.494192030583733</v>
-      </c>
-      <c r="AF142" s="2">
-        <f t="shared" si="41"/>
-        <v>4.0337205312944171</v>
-      </c>
-      <c r="AG142" s="2">
-        <f t="shared" si="42"/>
-        <v>41.155712395235994</v>
-      </c>
-      <c r="AH142" s="2">
-        <f t="shared" si="43"/>
-        <v>4.6708817330784687</v>
-      </c>
-      <c r="AI142" s="2">
-        <f t="shared" si="44"/>
-        <v>10.645493309807382</v>
-      </c>
-    </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="W143" s="2">
+        <f>E144/B144*100</f>
+        <v>38.201778558979939</v>
+      </c>
+      <c r="X143" s="2">
+        <f>F144/B144*100</f>
+        <v>4.4732098967720795</v>
+      </c>
+      <c r="Y143" s="2">
+        <f>G144/B144*100</f>
+        <v>6.3202895744268837</v>
+      </c>
+      <c r="Z143" s="2">
+        <f>I144/H144*100</f>
+        <v>48.641932700603967</v>
+      </c>
+      <c r="AA143" s="2">
+        <f>J144/H144*100</f>
+        <v>8.6902502157031929</v>
+      </c>
+      <c r="AB143" s="2">
+        <f>K144/H144*100</f>
+        <v>38.767903364969804</v>
+      </c>
+      <c r="AC143" s="2">
+        <f>L144/H144*100</f>
+        <v>2.2847282139775671</v>
+      </c>
+      <c r="AD143" s="2">
+        <f>M144/H144*100</f>
+        <v>1.6151855047454704</v>
+      </c>
+      <c r="AE143" s="2">
+        <f>O144/N144*100</f>
+        <v>38.337963205618742</v>
+      </c>
+      <c r="AF143" s="2">
+        <f>P144/N144*100</f>
+        <v>7.8620472771109604</v>
+      </c>
+      <c r="AG143" s="2">
+        <f>Q144/N144*100</f>
+        <v>37.771895801666759</v>
+      </c>
+      <c r="AH143" s="2">
+        <f>R144/N144*100</f>
+        <v>6.135017558572252</v>
+      </c>
+      <c r="AI143" s="2">
+        <f>S144/N144*100</f>
+        <v>9.8930761570312917</v>
+      </c>
+    </row>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>485</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B144" s="1">
         <v>67133</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C144" s="1">
         <v>28723</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D144" s="1">
         <v>5518</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E144" s="1">
         <v>25646</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F144" s="1">
         <v>3003</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G144" s="1">
         <v>4243</v>
       </c>
-      <c r="H143" s="1">
+      <c r="H144" s="1">
         <v>28975</v>
       </c>
-      <c r="I143" s="1">
+      <c r="I144" s="1">
         <v>14094</v>
       </c>
-      <c r="J143" s="1">
+      <c r="J144" s="1">
         <v>2518</v>
       </c>
-      <c r="K143" s="1">
+      <c r="K144" s="1">
         <v>11233</v>
       </c>
-      <c r="L143" s="1">
+      <c r="L144" s="1">
         <v>662</v>
       </c>
-      <c r="M143" s="1">
+      <c r="M144" s="1">
         <v>468</v>
       </c>
-      <c r="N143" s="1">
+      <c r="N144" s="1">
         <v>38158</v>
       </c>
-      <c r="O143" s="1">
+      <c r="O144" s="1">
         <v>14629</v>
       </c>
-      <c r="P143" s="1">
+      <c r="P144" s="1">
         <v>3000</v>
       </c>
-      <c r="Q143" s="1">
+      <c r="Q144" s="1">
         <v>14413</v>
       </c>
-      <c r="R143" s="1">
+      <c r="R144" s="1">
         <v>2341</v>
       </c>
-      <c r="S143" s="1">
+      <c r="S144" s="1">
         <v>3775</v>
       </c>
-      <c r="U143" s="2">
+      <c r="U144" s="2">
         <f t="shared" si="30"/>
         <v>42.785217404257217</v>
       </c>
-      <c r="V143" s="2">
+      <c r="V144" s="2">
         <f t="shared" si="31"/>
         <v>8.2195045655638808</v>
       </c>
-      <c r="W143" s="2">
-        <f t="shared" si="32"/>
-        <v>38.201778558979939</v>
-      </c>
-      <c r="X143" s="2">
-        <f t="shared" si="33"/>
-        <v>4.4732098967720795</v>
-      </c>
-      <c r="Y143" s="2">
-        <f t="shared" si="34"/>
-        <v>6.3202895744268837</v>
-      </c>
-      <c r="Z143" s="2">
-        <f t="shared" si="35"/>
-        <v>48.641932700603967</v>
-      </c>
-      <c r="AA143" s="2">
-        <f t="shared" si="36"/>
-        <v>8.6902502157031929</v>
-      </c>
-      <c r="AB143" s="2">
-        <f t="shared" si="37"/>
-        <v>38.767903364969804</v>
-      </c>
-      <c r="AC143" s="2">
-        <f t="shared" si="38"/>
-        <v>2.2847282139775671</v>
-      </c>
-      <c r="AD143" s="2">
-        <f t="shared" si="39"/>
-        <v>1.6151855047454704</v>
-      </c>
-      <c r="AE143" s="2">
-        <f t="shared" si="40"/>
-        <v>38.337963205618742</v>
-      </c>
-      <c r="AF143" s="2">
-        <f t="shared" si="41"/>
-        <v>7.8620472771109604</v>
-      </c>
-      <c r="AG143" s="2">
-        <f t="shared" si="42"/>
-        <v>37.771895801666759</v>
-      </c>
-      <c r="AH143" s="2">
-        <f t="shared" si="43"/>
-        <v>6.135017558572252</v>
-      </c>
-      <c r="AI143" s="2">
-        <f t="shared" si="44"/>
-        <v>9.8930761570312917</v>
-      </c>
-    </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="W144" s="2">
+        <f>E145/B145*100</f>
+        <v>41.800563450047981</v>
+      </c>
+      <c r="X144" s="2">
+        <f>F145/B145*100</f>
+        <v>3.3342620971486951</v>
+      </c>
+      <c r="Y144" s="2">
+        <f>G145/B145*100</f>
+        <v>9.3340763443856218</v>
+      </c>
+      <c r="Z144" s="2">
+        <f>I145/H145*100</f>
+        <v>47.921435427896327</v>
+      </c>
+      <c r="AA144" s="2">
+        <f>J145/H145*100</f>
+        <v>6.4535184228014479</v>
+      </c>
+      <c r="AB144" s="2">
+        <f>K145/H145*100</f>
+        <v>41.859263087942111</v>
+      </c>
+      <c r="AC144" s="2">
+        <f>L145/H145*100</f>
+        <v>1.8607398656132319</v>
+      </c>
+      <c r="AD144" s="2">
+        <f>M145/H145*100</f>
+        <v>1.9050431957468801</v>
+      </c>
+      <c r="AE144" s="2">
+        <f>O145/N145*100</f>
+        <v>33.063226356754448</v>
+      </c>
+      <c r="AF144" s="2">
+        <f>P145/N145*100</f>
+        <v>6.0827380317731095</v>
+      </c>
+      <c r="AG144" s="2">
+        <f>Q145/N145*100</f>
+        <v>41.758183175178594</v>
+      </c>
+      <c r="AH144" s="2">
+        <f>R145/N145*100</f>
+        <v>4.3981234673206098</v>
+      </c>
+      <c r="AI144" s="2">
+        <f>S145/N145*100</f>
+        <v>14.697728968973239</v>
+      </c>
+    </row>
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>488</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B145" s="1">
         <v>32301</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C145" s="1">
         <v>12692</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D145" s="1">
         <v>2015</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E145" s="1">
         <v>13502</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F145" s="1">
         <v>1077</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G145" s="1">
         <v>3015</v>
       </c>
-      <c r="H144" s="1">
+      <c r="H145" s="1">
         <v>13543</v>
       </c>
-      <c r="I144" s="1">
+      <c r="I145" s="1">
         <v>6490</v>
       </c>
-      <c r="J144" s="1">
+      <c r="J145" s="1">
         <v>874</v>
       </c>
-      <c r="K144" s="1">
+      <c r="K145" s="1">
         <v>5669</v>
       </c>
-      <c r="L144" s="1">
+      <c r="L145" s="1">
         <v>252</v>
       </c>
-      <c r="M144" s="1">
+      <c r="M145" s="1">
         <v>258</v>
       </c>
-      <c r="N144" s="1">
+      <c r="N145" s="1">
         <v>18758</v>
       </c>
-      <c r="O144" s="1">
+      <c r="O145" s="1">
         <v>6202</v>
       </c>
-      <c r="P144" s="1">
+      <c r="P145" s="1">
         <v>1141</v>
       </c>
-      <c r="Q144" s="1">
+      <c r="Q145" s="1">
         <v>7833</v>
       </c>
-      <c r="R144" s="1">
+      <c r="R145" s="1">
         <v>825</v>
       </c>
-      <c r="S144" s="1">
+      <c r="S145" s="1">
         <v>2757</v>
       </c>
-      <c r="U144" s="2">
+      <c r="U145" s="2">
         <f t="shared" si="30"/>
         <v>39.292901148571254</v>
       </c>
-      <c r="V144" s="2">
+      <c r="V145" s="2">
         <f t="shared" si="31"/>
         <v>6.2381969598464444</v>
       </c>
-      <c r="W144" s="2">
-        <f t="shared" si="32"/>
-        <v>41.800563450047981</v>
-      </c>
-      <c r="X144" s="2">
-        <f t="shared" si="33"/>
-        <v>3.3342620971486951</v>
-      </c>
-      <c r="Y144" s="2">
-        <f t="shared" si="34"/>
-        <v>9.3340763443856218</v>
-      </c>
-      <c r="Z144" s="2">
-        <f t="shared" si="35"/>
-        <v>47.921435427896327</v>
-      </c>
-      <c r="AA144" s="2">
-        <f t="shared" si="36"/>
-        <v>6.4535184228014479</v>
-      </c>
-      <c r="AB144" s="2">
-        <f t="shared" si="37"/>
-        <v>41.859263087942111</v>
-      </c>
-      <c r="AC144" s="2">
-        <f t="shared" si="38"/>
-        <v>1.8607398656132319</v>
-      </c>
-      <c r="AD144" s="2">
-        <f t="shared" si="39"/>
-        <v>1.9050431957468801</v>
-      </c>
-      <c r="AE144" s="2">
-        <f t="shared" si="40"/>
-        <v>33.063226356754448</v>
-      </c>
-      <c r="AF144" s="2">
-        <f t="shared" si="41"/>
-        <v>6.0827380317731095</v>
-      </c>
-      <c r="AG144" s="2">
-        <f t="shared" si="42"/>
-        <v>41.758183175178594</v>
-      </c>
-      <c r="AH144" s="2">
-        <f t="shared" si="43"/>
-        <v>4.3981234673206098</v>
-      </c>
-      <c r="AI144" s="2">
-        <f t="shared" si="44"/>
-        <v>14.697728968973239</v>
-      </c>
-    </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="W145" s="2">
+        <f>E146/B146*100</f>
+        <v>42.985263825067342</v>
+      </c>
+      <c r="X145" s="2">
+        <f>F146/B146*100</f>
+        <v>3.3256219299635554</v>
+      </c>
+      <c r="Y145" s="2">
+        <f>G146/B146*100</f>
+        <v>6.8312470289969891</v>
+      </c>
+      <c r="Z145" s="2">
+        <f>I146/H146*100</f>
+        <v>46.947966768692609</v>
+      </c>
+      <c r="AA145" s="2">
+        <f>J146/H146*100</f>
+        <v>4.9861536219210034</v>
+      </c>
+      <c r="AB145" s="2">
+        <f>K146/H146*100</f>
+        <v>44.008162075499193</v>
+      </c>
+      <c r="AC145" s="2">
+        <f>L146/H146*100</f>
+        <v>2.0259437399795948</v>
+      </c>
+      <c r="AD145" s="2">
+        <f>M146/H146*100</f>
+        <v>2.0317737939075937</v>
+      </c>
+      <c r="AE145" s="2">
+        <f>O146/N146*100</f>
+        <v>38.55885156731901</v>
+      </c>
+      <c r="AF145" s="2">
+        <f>P146/N146*100</f>
+        <v>4.392979308024449</v>
+      </c>
+      <c r="AG145" s="2">
+        <f>Q146/N146*100</f>
+        <v>42.198171928447259</v>
+      </c>
+      <c r="AH145" s="2">
+        <f>R146/N146*100</f>
+        <v>4.3256883306230023</v>
+      </c>
+      <c r="AI145" s="2">
+        <f>S146/N146*100</f>
+        <v>10.524308865586272</v>
+      </c>
+    </row>
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>492</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B146" s="1">
         <v>157775</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C146" s="1">
         <v>66592</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D146" s="1">
         <v>7338</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E146" s="1">
         <v>67820</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F146" s="1">
         <v>5247</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G146" s="1">
         <v>10778</v>
       </c>
-      <c r="H145" s="1">
+      <c r="H146" s="1">
         <v>68610</v>
       </c>
-      <c r="I145" s="1">
+      <c r="I146" s="1">
         <v>32211</v>
       </c>
-      <c r="J145" s="1">
+      <c r="J146" s="1">
         <v>3421</v>
       </c>
-      <c r="K145" s="1">
+      <c r="K146" s="1">
         <v>30194</v>
       </c>
-      <c r="L145" s="1">
+      <c r="L146" s="1">
         <v>1390</v>
       </c>
-      <c r="M145" s="1">
+      <c r="M146" s="1">
         <v>1394</v>
       </c>
-      <c r="N145" s="1">
+      <c r="N146" s="1">
         <v>89165</v>
       </c>
-      <c r="O145" s="1">
+      <c r="O146" s="1">
         <v>34381</v>
       </c>
-      <c r="P145" s="1">
+      <c r="P146" s="1">
         <v>3917</v>
       </c>
-      <c r="Q145" s="1">
+      <c r="Q146" s="1">
         <v>37626</v>
       </c>
-      <c r="R145" s="1">
+      <c r="R146" s="1">
         <v>3857</v>
       </c>
-      <c r="S145" s="1">
+      <c r="S146" s="1">
         <v>9384</v>
       </c>
-      <c r="U145" s="2">
+      <c r="U146" s="2">
         <f t="shared" si="30"/>
         <v>42.206940263032799</v>
       </c>
-      <c r="V145" s="2">
+      <c r="V146" s="2">
         <f t="shared" si="31"/>
         <v>4.6509269529393125</v>
       </c>
-      <c r="W145" s="2">
-        <f t="shared" si="32"/>
-        <v>42.985263825067342</v>
-      </c>
-      <c r="X145" s="2">
-        <f t="shared" si="33"/>
-        <v>3.3256219299635554</v>
-      </c>
-      <c r="Y145" s="2">
-        <f t="shared" si="34"/>
-        <v>6.8312470289969891</v>
-      </c>
-      <c r="Z145" s="2">
-        <f t="shared" si="35"/>
-        <v>46.947966768692609</v>
-      </c>
-      <c r="AA145" s="2">
-        <f t="shared" si="36"/>
-        <v>4.9861536219210034</v>
-      </c>
-      <c r="AB145" s="2">
-        <f t="shared" si="37"/>
-        <v>44.008162075499193</v>
-      </c>
-      <c r="AC145" s="2">
-        <f t="shared" si="38"/>
-        <v>2.0259437399795948</v>
-      </c>
-      <c r="AD145" s="2">
-        <f t="shared" si="39"/>
-        <v>2.0317737939075937</v>
-      </c>
-      <c r="AE145" s="2">
-        <f t="shared" si="40"/>
-        <v>38.55885156731901</v>
-      </c>
-      <c r="AF145" s="2">
-        <f t="shared" si="41"/>
-        <v>4.392979308024449</v>
-      </c>
-      <c r="AG145" s="2">
-        <f t="shared" si="42"/>
-        <v>42.198171928447259</v>
-      </c>
-      <c r="AH145" s="2">
-        <f t="shared" si="43"/>
-        <v>4.3256883306230023</v>
-      </c>
-      <c r="AI145" s="2">
-        <f t="shared" si="44"/>
-        <v>10.524308865586272</v>
-      </c>
-    </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="W146" s="2">
+        <f>E147/B147*100</f>
+        <v>34.389109778286944</v>
+      </c>
+      <c r="X146" s="2">
+        <f>F147/B147*100</f>
+        <v>2.369881168991621</v>
+      </c>
+      <c r="Y146" s="2">
+        <f>G147/B147*100</f>
+        <v>4.4735718938832356</v>
+      </c>
+      <c r="Z146" s="2">
+        <f>I147/H147*100</f>
+        <v>52.650266294699463</v>
+      </c>
+      <c r="AA146" s="2">
+        <f>J147/H147*100</f>
+        <v>8.1283286837433426</v>
+      </c>
+      <c r="AB146" s="2">
+        <f>K147/H147*100</f>
+        <v>36.804463606391074</v>
+      </c>
+      <c r="AC146" s="2">
+        <f>L147/H147*100</f>
+        <v>1.2553892974892213</v>
+      </c>
+      <c r="AD146" s="2">
+        <f>M147/H147*100</f>
+        <v>1.1615521176768957</v>
+      </c>
+      <c r="AE146" s="2">
+        <f>O147/N147*100</f>
+        <v>50.042335295540688</v>
+      </c>
+      <c r="AF146" s="2">
+        <f>P147/N147*100</f>
+        <v>7.1264414160148375</v>
+      </c>
+      <c r="AG146" s="2">
+        <f>Q147/N147*100</f>
+        <v>32.469155713248931</v>
+      </c>
+      <c r="AH146" s="2">
+        <f>R147/N147*100</f>
+        <v>3.255785823723893</v>
+      </c>
+      <c r="AI146" s="2">
+        <f>S147/N147*100</f>
+        <v>7.1062817514716565</v>
+      </c>
+    </row>
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>495</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B147" s="1">
         <v>89034</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C147" s="1">
         <v>45583</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D147" s="1">
         <v>6740</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E147" s="1">
         <v>30618</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F147" s="1">
         <v>2110</v>
       </c>
-      <c r="G146" s="1">
+      <c r="G147" s="1">
         <v>3983</v>
       </c>
-      <c r="H146" s="1">
+      <c r="H147" s="1">
         <v>39430</v>
       </c>
-      <c r="I146" s="1">
+      <c r="I147" s="1">
         <v>20760</v>
       </c>
-      <c r="J146" s="1">
+      <c r="J147" s="1">
         <v>3205</v>
       </c>
-      <c r="K146" s="1">
+      <c r="K147" s="1">
         <v>14512</v>
       </c>
-      <c r="L146" s="1">
+      <c r="L147" s="1">
         <v>495</v>
       </c>
-      <c r="M146" s="1">
+      <c r="M147" s="1">
         <v>458</v>
       </c>
-      <c r="N146" s="1">
+      <c r="N147" s="1">
         <v>49604</v>
       </c>
-      <c r="O146" s="1">
+      <c r="O147" s="1">
         <v>24823</v>
       </c>
-      <c r="P146" s="1">
+      <c r="P147" s="1">
         <v>3535</v>
       </c>
-      <c r="Q146" s="1">
+      <c r="Q147" s="1">
         <v>16106</v>
       </c>
-      <c r="R146" s="1">
+      <c r="R147" s="1">
         <v>1615</v>
       </c>
-      <c r="S146" s="1">
+      <c r="S147" s="1">
         <v>3525</v>
       </c>
-      <c r="U146" s="2">
+      <c r="U147" s="2">
         <f t="shared" si="30"/>
         <v>51.197295415234635</v>
       </c>
-      <c r="V146" s="2">
+      <c r="V147" s="2">
         <f t="shared" si="31"/>
         <v>7.5701417436035676</v>
       </c>
-      <c r="W146" s="2">
-        <f t="shared" si="32"/>
-        <v>34.389109778286944</v>
-      </c>
-      <c r="X146" s="2">
-        <f t="shared" si="33"/>
-        <v>2.369881168991621</v>
-      </c>
-      <c r="Y146" s="2">
-        <f t="shared" si="34"/>
-        <v>4.4735718938832356</v>
-      </c>
-      <c r="Z146" s="2">
-        <f t="shared" si="35"/>
-        <v>52.650266294699463</v>
-      </c>
-      <c r="AA146" s="2">
-        <f t="shared" si="36"/>
-        <v>8.1283286837433426</v>
-      </c>
-      <c r="AB146" s="2">
-        <f t="shared" si="37"/>
-        <v>36.804463606391074</v>
-      </c>
-      <c r="AC146" s="2">
-        <f t="shared" si="38"/>
-        <v>1.2553892974892213</v>
-      </c>
-      <c r="AD146" s="2">
-        <f t="shared" si="39"/>
-        <v>1.1615521176768957</v>
-      </c>
-      <c r="AE146" s="2">
-        <f t="shared" si="40"/>
-        <v>50.042335295540688</v>
-      </c>
-      <c r="AF146" s="2">
-        <f t="shared" si="41"/>
-        <v>7.1264414160148375</v>
-      </c>
-      <c r="AG146" s="2">
-        <f t="shared" si="42"/>
-        <v>32.469155713248931</v>
-      </c>
-      <c r="AH146" s="2">
-        <f t="shared" si="43"/>
-        <v>3.255785823723893</v>
-      </c>
-      <c r="AI146" s="2">
-        <f t="shared" si="44"/>
-        <v>7.1062817514716565</v>
-      </c>
-    </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="W147" s="2">
+        <f>E148/B148*100</f>
+        <v>39.075302814392586</v>
+      </c>
+      <c r="X147" s="2">
+        <f>F148/B148*100</f>
+        <v>4.4353402208763804</v>
+      </c>
+      <c r="Y147" s="2">
+        <f>G148/B148*100</f>
+        <v>7.0426612041325258</v>
+      </c>
+      <c r="Z147" s="2">
+        <f>I148/H148*100</f>
+        <v>48.204072294669416</v>
+      </c>
+      <c r="AA147" s="2">
+        <f>J148/H148*100</f>
+        <v>6.4439868832456337</v>
+      </c>
+      <c r="AB147" s="2">
+        <f>K148/H148*100</f>
+        <v>40.817000940542464</v>
+      </c>
+      <c r="AC147" s="2">
+        <f>L148/H148*100</f>
+        <v>2.5191286001169324</v>
+      </c>
+      <c r="AD147" s="2">
+        <f>M148/H148*100</f>
+        <v>2.0158112814255573</v>
+      </c>
+      <c r="AE147" s="2">
+        <f>O148/N148*100</f>
+        <v>39.710805189660299</v>
+      </c>
+      <c r="AF147" s="2">
+        <f>P148/N148*100</f>
+        <v>5.6828761018124192</v>
+      </c>
+      <c r="AG147" s="2">
+        <f>Q148/N148*100</f>
+        <v>37.718134099237396</v>
+      </c>
+      <c r="AH147" s="2">
+        <f>R148/N148*100</f>
+        <v>5.9284936119639493</v>
+      </c>
+      <c r="AI147" s="2">
+        <f>S148/N148*100</f>
+        <v>10.959690997325938</v>
+      </c>
+    </row>
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>496</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B148" s="1">
         <v>89824</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C148" s="1">
         <v>39011</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D148" s="1">
         <v>5404</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E148" s="1">
         <v>35099</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F148" s="1">
         <v>3984</v>
       </c>
-      <c r="G147" s="1">
+      <c r="G148" s="1">
         <v>6326</v>
       </c>
-      <c r="H147" s="1">
+      <c r="H148" s="1">
         <v>39339</v>
       </c>
-      <c r="I147" s="1">
+      <c r="I148" s="1">
         <v>18963</v>
       </c>
-      <c r="J147" s="1">
+      <c r="J148" s="1">
         <v>2535</v>
       </c>
-      <c r="K147" s="1">
+      <c r="K148" s="1">
         <v>16057</v>
       </c>
-      <c r="L147" s="1">
+      <c r="L148" s="1">
         <v>991</v>
       </c>
-      <c r="M147" s="1">
+      <c r="M148" s="1">
         <v>793</v>
       </c>
-      <c r="N147" s="1">
+      <c r="N148" s="1">
         <v>50485</v>
       </c>
-      <c r="O147" s="1">
+      <c r="O148" s="1">
         <v>20048</v>
       </c>
-      <c r="P147" s="1">
+      <c r="P148" s="1">
         <v>2869</v>
       </c>
-      <c r="Q147" s="1">
+      <c r="Q148" s="1">
         <v>19042</v>
       </c>
-      <c r="R147" s="1">
+      <c r="R148" s="1">
         <v>2993</v>
       </c>
-      <c r="S147" s="1">
+      <c r="S148" s="1">
         <v>5533</v>
       </c>
-      <c r="U147" s="2">
+      <c r="U148" s="2">
         <f t="shared" si="30"/>
         <v>43.43048628428928</v>
       </c>
-      <c r="V147" s="2">
+      <c r="V148" s="2">
         <f t="shared" si="31"/>
         <v>6.0162094763092266</v>
       </c>
-      <c r="W147" s="2">
-        <f t="shared" si="32"/>
-        <v>39.075302814392586</v>
-      </c>
-      <c r="X147" s="2">
-        <f t="shared" si="33"/>
-        <v>4.4353402208763804</v>
-      </c>
-      <c r="Y147" s="2">
-        <f t="shared" si="34"/>
-        <v>7.0426612041325258</v>
-      </c>
-      <c r="Z147" s="2">
-        <f t="shared" si="35"/>
-        <v>48.204072294669416</v>
-      </c>
-      <c r="AA147" s="2">
-        <f t="shared" si="36"/>
-        <v>6.4439868832456337</v>
-      </c>
-      <c r="AB147" s="2">
-        <f t="shared" si="37"/>
-        <v>40.817000940542464</v>
-      </c>
-      <c r="AC147" s="2">
-        <f t="shared" si="38"/>
-        <v>2.5191286001169324</v>
-      </c>
-      <c r="AD147" s="2">
-        <f t="shared" si="39"/>
-        <v>2.0158112814255573</v>
-      </c>
-      <c r="AE147" s="2">
-        <f t="shared" si="40"/>
-        <v>39.710805189660299</v>
-      </c>
-      <c r="AF147" s="2">
-        <f t="shared" si="41"/>
-        <v>5.6828761018124192</v>
-      </c>
-      <c r="AG147" s="2">
-        <f t="shared" si="42"/>
-        <v>37.718134099237396</v>
-      </c>
-      <c r="AH147" s="2">
-        <f t="shared" si="43"/>
-        <v>5.9284936119639493</v>
-      </c>
-      <c r="AI147" s="2">
-        <f t="shared" si="44"/>
-        <v>10.959690997325938</v>
-      </c>
-    </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="W148" s="2">
+        <f>E149/B149*100</f>
+        <v>41.931746366125978</v>
+      </c>
+      <c r="X148" s="2">
+        <f>F149/B149*100</f>
+        <v>4.0973246260796294</v>
+      </c>
+      <c r="Y148" s="2">
+        <f>G149/B149*100</f>
+        <v>8.9354680148865953</v>
+      </c>
+      <c r="Z148" s="2">
+        <f>I149/H149*100</f>
+        <v>48.261725155788781</v>
+      </c>
+      <c r="AA148" s="2">
+        <f>J149/H149*100</f>
+        <v>3.7471302066251231</v>
+      </c>
+      <c r="AB148" s="2">
+        <f>K149/H149*100</f>
+        <v>43.317481141357824</v>
+      </c>
+      <c r="AC148" s="2">
+        <f>L149/H149*100</f>
+        <v>2.3532305673991472</v>
+      </c>
+      <c r="AD148" s="2">
+        <f>M149/H149*100</f>
+        <v>2.3204329288291246</v>
+      </c>
+      <c r="AE148" s="2">
+        <f>O149/N149*100</f>
+        <v>36.595849195628148</v>
+      </c>
+      <c r="AF148" s="2">
+        <f>P149/N149*100</f>
+        <v>3.2174874125015354</v>
+      </c>
+      <c r="AG148" s="2">
+        <f>Q149/N149*100</f>
+        <v>40.894019403168365</v>
+      </c>
+      <c r="AH148" s="2">
+        <f>R149/N149*100</f>
+        <v>5.403413975193418</v>
+      </c>
+      <c r="AI148" s="2">
+        <f>S149/N149*100</f>
+        <v>13.889230013508536</v>
+      </c>
+    </row>
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>499</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B149" s="1">
         <v>28482</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C149" s="1">
         <v>11846</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D149" s="1">
         <v>981</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E149" s="1">
         <v>11943</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F149" s="1">
         <v>1167</v>
       </c>
-      <c r="G148" s="1">
+      <c r="G149" s="1">
         <v>2545</v>
       </c>
-      <c r="H148" s="1">
+      <c r="H149" s="1">
         <v>12196</v>
       </c>
-      <c r="I148" s="1">
+      <c r="I149" s="1">
         <v>5886</v>
       </c>
-      <c r="J148" s="1">
+      <c r="J149" s="1">
         <v>457</v>
       </c>
-      <c r="K148" s="1">
+      <c r="K149" s="1">
         <v>5283</v>
       </c>
-      <c r="L148" s="1">
+      <c r="L149" s="1">
         <v>287</v>
       </c>
-      <c r="M148" s="1">
+      <c r="M149" s="1">
         <v>283</v>
       </c>
-      <c r="N148" s="1">
+      <c r="N149" s="1">
         <v>16286</v>
       </c>
-      <c r="O148" s="1">
+      <c r="O149" s="1">
         <v>5960</v>
       </c>
-      <c r="P148" s="1">
+      <c r="P149" s="1">
         <v>524</v>
       </c>
-      <c r="Q148" s="1">
+      <c r="Q149" s="1">
         <v>6660</v>
       </c>
-      <c r="R148" s="1">
+      <c r="R149" s="1">
         <v>880</v>
       </c>
-      <c r="S148" s="1">
+      <c r="S149" s="1">
         <v>2262</v>
       </c>
-      <c r="U148" s="2">
+      <c r="U149" s="2">
         <f t="shared" si="30"/>
         <v>41.591180394635209</v>
       </c>
-      <c r="V148" s="2">
+      <c r="V149" s="2">
         <f t="shared" si="31"/>
         <v>3.4442805982725937</v>
       </c>
-      <c r="W148" s="2">
-        <f t="shared" si="32"/>
-        <v>41.931746366125978</v>
-      </c>
-      <c r="X148" s="2">
-        <f t="shared" si="33"/>
-        <v>4.0973246260796294</v>
-      </c>
-      <c r="Y148" s="2">
-        <f t="shared" si="34"/>
-        <v>8.9354680148865953</v>
-      </c>
-      <c r="Z148" s="2">
-        <f t="shared" si="35"/>
-        <v>48.261725155788781</v>
-      </c>
-      <c r="AA148" s="2">
-        <f t="shared" si="36"/>
-        <v>3.7471302066251231</v>
-      </c>
-      <c r="AB148" s="2">
-        <f t="shared" si="37"/>
-        <v>43.317481141357824</v>
-      </c>
-      <c r="AC148" s="2">
-        <f t="shared" si="38"/>
-        <v>2.3532305673991472</v>
-      </c>
-      <c r="AD148" s="2">
-        <f t="shared" si="39"/>
-        <v>2.3204329288291246</v>
-      </c>
-      <c r="AE148" s="2">
-        <f t="shared" si="40"/>
-        <v>36.595849195628148</v>
-      </c>
-      <c r="AF148" s="2">
-        <f t="shared" si="41"/>
-        <v>3.2174874125015354</v>
-      </c>
-      <c r="AG148" s="2">
-        <f t="shared" si="42"/>
-        <v>40.894019403168365</v>
-      </c>
-      <c r="AH148" s="2">
-        <f t="shared" si="43"/>
-        <v>5.403413975193418</v>
-      </c>
-      <c r="AI148" s="2">
-        <f t="shared" si="44"/>
-        <v>13.889230013508536</v>
-      </c>
-    </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="W149" s="2">
+        <f>E150/B150*100</f>
+        <v>41.951103349738055</v>
+      </c>
+      <c r="X149" s="2">
+        <f>F150/B150*100</f>
+        <v>3.0689395142086044</v>
+      </c>
+      <c r="Y149" s="2">
+        <f>G150/B150*100</f>
+        <v>6.9931735196062865</v>
+      </c>
+      <c r="Z149" s="2">
+        <f>I150/H150*100</f>
+        <v>46.660716278031913</v>
+      </c>
+      <c r="AA149" s="2">
+        <f>J150/H150*100</f>
+        <v>6.3773290193015724</v>
+      </c>
+      <c r="AB149" s="2">
+        <f>K150/H150*100</f>
+        <v>43.00345866339395</v>
+      </c>
+      <c r="AC149" s="2">
+        <f>L150/H150*100</f>
+        <v>1.8431328796161999</v>
+      </c>
+      <c r="AD149" s="2">
+        <f>M150/H150*100</f>
+        <v>2.1153631596563653</v>
+      </c>
+      <c r="AE149" s="2">
+        <f>O150/N150*100</f>
+        <v>38.297986385320442</v>
+      </c>
+      <c r="AF149" s="2">
+        <f>P150/N150*100</f>
+        <v>5.6441958941556933</v>
+      </c>
+      <c r="AG149" s="2">
+        <f>Q150/N150*100</f>
+        <v>41.108470760599616</v>
+      </c>
+      <c r="AH149" s="2">
+        <f>R150/N150*100</f>
+        <v>4.0504565027068553</v>
+      </c>
+      <c r="AI149" s="2">
+        <f>S150/N150*100</f>
+        <v>10.898890457217387</v>
+      </c>
+    </row>
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>503</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B150" s="1">
         <v>100784</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C150" s="1">
         <v>42346</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D150" s="1">
         <v>6017</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E150" s="1">
         <v>42280</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F150" s="1">
         <v>3093</v>
       </c>
-      <c r="G149" s="1">
+      <c r="G150" s="1">
         <v>7048</v>
       </c>
-      <c r="H149" s="1">
+      <c r="H150" s="1">
         <v>44815</v>
       </c>
-      <c r="I149" s="1">
+      <c r="I150" s="1">
         <v>20911</v>
       </c>
-      <c r="J149" s="1">
+      <c r="J150" s="1">
         <v>2858</v>
       </c>
-      <c r="K149" s="1">
+      <c r="K150" s="1">
         <v>19272</v>
       </c>
-      <c r="L149" s="1">
+      <c r="L150" s="1">
         <v>826</v>
       </c>
-      <c r="M149" s="1">
+      <c r="M150" s="1">
         <v>948</v>
       </c>
-      <c r="N149" s="1">
+      <c r="N150" s="1">
         <v>55969</v>
       </c>
-      <c r="O149" s="1">
+      <c r="O150" s="1">
         <v>21435</v>
       </c>
-      <c r="P149" s="1">
+      <c r="P150" s="1">
         <v>3159</v>
       </c>
-      <c r="Q149" s="1">
+      <c r="Q150" s="1">
         <v>23008</v>
       </c>
-      <c r="R149" s="1">
+      <c r="R150" s="1">
         <v>2267</v>
       </c>
-      <c r="S149" s="1">
+      <c r="S150" s="1">
         <v>6100</v>
       </c>
-      <c r="U149" s="2">
+      <c r="U150" s="2">
         <f t="shared" si="30"/>
         <v>42.0165899349103</v>
       </c>
-      <c r="V149" s="2">
+      <c r="V150" s="2">
         <f t="shared" si="31"/>
         <v>5.9701936815367525</v>
       </c>
-      <c r="W149" s="2">
-        <f t="shared" si="32"/>
-        <v>41.951103349738055</v>
-      </c>
-      <c r="X149" s="2">
-        <f t="shared" si="33"/>
-        <v>3.0689395142086044</v>
-      </c>
-      <c r="Y149" s="2">
-        <f t="shared" si="34"/>
-        <v>6.9931735196062865</v>
-      </c>
-      <c r="Z149" s="2">
-        <f t="shared" si="35"/>
-        <v>46.660716278031913</v>
-      </c>
-      <c r="AA149" s="2">
-        <f t="shared" si="36"/>
-        <v>6.3773290193015724</v>
-      </c>
-      <c r="AB149" s="2">
-        <f t="shared" si="37"/>
-        <v>43.00345866339395</v>
-      </c>
-      <c r="AC149" s="2">
-        <f t="shared" si="38"/>
-        <v>1.8431328796161999</v>
-      </c>
-      <c r="AD149" s="2">
-        <f t="shared" si="39"/>
-        <v>2.1153631596563653</v>
-      </c>
-      <c r="AE149" s="2">
-        <f t="shared" si="40"/>
-        <v>38.297986385320442</v>
-      </c>
-      <c r="AF149" s="2">
-        <f t="shared" si="41"/>
-        <v>5.6441958941556933</v>
-      </c>
-      <c r="AG149" s="2">
-        <f t="shared" si="42"/>
-        <v>41.108470760599616</v>
-      </c>
-      <c r="AH149" s="2">
-        <f t="shared" si="43"/>
-        <v>4.0504565027068553</v>
-      </c>
-      <c r="AI149" s="2">
-        <f t="shared" si="44"/>
-        <v>10.898890457217387</v>
-      </c>
-    </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="W150" s="2">
+        <f>E151/B151*100</f>
+        <v>39.739810436242294</v>
+      </c>
+      <c r="X150" s="2">
+        <f>F151/B151*100</f>
+        <v>3.6878953509795491</v>
+      </c>
+      <c r="Y150" s="2">
+        <f>G151/B151*100</f>
+        <v>6.741182009867142</v>
+      </c>
+      <c r="Z150" s="2">
+        <f>I151/H151*100</f>
+        <v>51.02011699243829</v>
+      </c>
+      <c r="AA150" s="2">
+        <f>J151/H151*100</f>
+        <v>4.8128596566319493</v>
+      </c>
+      <c r="AB150" s="2">
+        <f>K151/H151*100</f>
+        <v>40.165025919056454</v>
+      </c>
+      <c r="AC150" s="2">
+        <f>L151/H151*100</f>
+        <v>2.175774004850906</v>
+      </c>
+      <c r="AD150" s="2">
+        <f>M151/H151*100</f>
+        <v>1.8262234270223998</v>
+      </c>
+      <c r="AE150" s="2">
+        <f>O151/N151*100</f>
+        <v>41.014305226080076</v>
+      </c>
+      <c r="AF150" s="2">
+        <f>P151/N151*100</f>
+        <v>4.2807849902954498</v>
+      </c>
+      <c r="AG150" s="2">
+        <f>Q151/N151*100</f>
+        <v>39.418445834231903</v>
+      </c>
+      <c r="AH150" s="2">
+        <f>R151/N151*100</f>
+        <v>4.8307095104593492</v>
+      </c>
+      <c r="AI150" s="2">
+        <f>S151/N151*100</f>
+        <v>10.455754438933218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>506</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B151" s="1">
         <v>97698</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C151" s="1">
         <v>44278</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D151" s="1">
         <v>4406</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E151" s="1">
         <v>38825</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F151" s="1">
         <v>3603</v>
       </c>
-      <c r="G150" s="1">
+      <c r="G151" s="1">
         <v>6586</v>
       </c>
-      <c r="H150" s="1">
+      <c r="H151" s="1">
         <v>42054</v>
       </c>
-      <c r="I150" s="1">
+      <c r="I151" s="1">
         <v>21456</v>
       </c>
-      <c r="J150" s="1">
+      <c r="J151" s="1">
         <v>2024</v>
       </c>
-      <c r="K150" s="1">
+      <c r="K151" s="1">
         <v>16891</v>
       </c>
-      <c r="L150" s="1">
+      <c r="L151" s="1">
         <v>915</v>
       </c>
-      <c r="M150" s="1">
+      <c r="M151" s="1">
         <v>768</v>
       </c>
-      <c r="N150" s="1">
+      <c r="N151" s="1">
         <v>55644</v>
       </c>
-      <c r="O150" s="1">
+      <c r="O151" s="1">
         <v>22822</v>
       </c>
-      <c r="P150" s="1">
+      <c r="P151" s="1">
         <v>2382</v>
       </c>
-      <c r="Q150" s="1">
+      <c r="Q151" s="1">
         <v>21934</v>
       </c>
-      <c r="R150" s="1">
+      <c r="R151" s="1">
         <v>2688</v>
       </c>
-      <c r="S150" s="1">
+      <c r="S151" s="1">
         <v>5818</v>
       </c>
-      <c r="U150" s="2">
+      <c r="U151" s="2">
         <f t="shared" si="30"/>
         <v>45.321296239431717</v>
       </c>
-      <c r="V150" s="2">
+      <c r="V151" s="2">
         <f t="shared" si="31"/>
         <v>4.5098159634792934</v>
       </c>
-      <c r="W150" s="2">
-        <f t="shared" si="32"/>
-        <v>39.739810436242294</v>
-      </c>
-      <c r="X150" s="2">
-        <f t="shared" si="33"/>
-        <v>3.6878953509795491</v>
-      </c>
-      <c r="Y150" s="2">
-        <f t="shared" si="34"/>
-        <v>6.741182009867142</v>
-      </c>
-      <c r="Z150" s="2">
-        <f t="shared" si="35"/>
-        <v>51.02011699243829</v>
-      </c>
-      <c r="AA150" s="2">
-        <f t="shared" si="36"/>
-        <v>4.8128596566319493</v>
-      </c>
-      <c r="AB150" s="2">
-        <f t="shared" si="37"/>
-        <v>40.165025919056454</v>
-      </c>
-      <c r="AC150" s="2">
-        <f t="shared" si="38"/>
-        <v>2.175774004850906</v>
-      </c>
-      <c r="AD150" s="2">
-        <f t="shared" si="39"/>
-        <v>1.8262234270223998</v>
-      </c>
-      <c r="AE150" s="2">
-        <f t="shared" si="40"/>
-        <v>41.014305226080076</v>
-      </c>
-      <c r="AF150" s="2">
-        <f t="shared" si="41"/>
-        <v>4.2807849902954498</v>
-      </c>
-      <c r="AG150" s="2">
-        <f t="shared" si="42"/>
-        <v>39.418445834231903</v>
-      </c>
-      <c r="AH150" s="2">
-        <f t="shared" si="43"/>
-        <v>4.8307095104593492</v>
-      </c>
-      <c r="AI150" s="2">
-        <f t="shared" si="44"/>
-        <v>10.455754438933218</v>
-      </c>
-    </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="W151" s="2" t="e">
+        <f>E152/B152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X151" s="2" t="e">
+        <f>F152/B152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y151" s="2" t="e">
+        <f>G152/B152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z151" s="2" t="e">
+        <f>I152/H152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA151" s="2" t="e">
+        <f>J152/H152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB151" s="2" t="e">
+        <f>K152/H152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC151" s="2" t="e">
+        <f>L152/H152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD151" s="2" t="e">
+        <f>M152/H152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE151" s="2" t="e">
+        <f>O152/N152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF151" s="2" t="e">
+        <f>P152/N152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG151" s="2" t="e">
+        <f>Q152/N152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH151" s="2" t="e">
+        <f>R152/N152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI151" s="2" t="e">
+        <f>S152/N152*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>628</v>
       </c>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
-      <c r="U151" s="2" t="e">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="U152" s="2" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V151" s="2" t="e">
+      <c r="V152" s="2" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W151" s="2" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X151" s="2" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y151" s="2" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z151" s="2" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA151" s="2" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB151" s="2" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC151" s="2" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD151" s="2" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE151" s="2" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF151" s="2" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG151" s="2" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH151" s="2" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI151" s="2" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="W152" s="2">
+        <f>E153/B153*100</f>
+        <v>38.852711581266824</v>
+      </c>
+      <c r="X152" s="2">
+        <f>F153/B153*100</f>
+        <v>2.8765064962401974</v>
+      </c>
+      <c r="Y152" s="2">
+        <f>G153/B153*100</f>
+        <v>8.4419772217320617</v>
+      </c>
+      <c r="Z152" s="2">
+        <f>I153/H153*100</f>
+        <v>52.728057215328896</v>
+      </c>
+      <c r="AA152" s="2">
+        <f>J153/H153*100</f>
+        <v>4.5032229384307616</v>
+      </c>
+      <c r="AB152" s="2">
+        <f>K153/H153*100</f>
+        <v>39.276179020174418</v>
+      </c>
+      <c r="AC152" s="2">
+        <f>L153/H153*100</f>
+        <v>1.7232587633853276</v>
+      </c>
+      <c r="AD152" s="2">
+        <f>M153/H153*100</f>
+        <v>1.7692820626805956</v>
+      </c>
+      <c r="AE152" s="2">
+        <f>O153/N153*100</f>
+        <v>40.263981813802943</v>
+      </c>
+      <c r="AF152" s="2">
+        <f>P153/N153*100</f>
+        <v>4.0219926103889243</v>
+      </c>
+      <c r="AG152" s="2">
+        <f>Q153/N153*100</f>
+        <v>38.53562736309933</v>
+      </c>
+      <c r="AH152" s="2">
+        <f>R153/N153*100</f>
+        <v>3.7400360669411823</v>
+      </c>
+      <c r="AI152" s="2">
+        <f>S153/N153*100</f>
+        <v>13.438362145767616</v>
+      </c>
+    </row>
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>509</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B153" s="1">
         <v>893132</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C153" s="1">
         <v>407275</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D153" s="1">
         <v>37762</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E153" s="1">
         <v>347006</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F153" s="1">
         <v>25691</v>
       </c>
-      <c r="G152" s="1">
+      <c r="G153" s="1">
         <v>75398</v>
       </c>
-      <c r="H152" s="1">
+      <c r="H153" s="1">
         <v>382415</v>
       </c>
-      <c r="I152" s="1">
+      <c r="I153" s="1">
         <v>201640</v>
       </c>
-      <c r="J152" s="1">
+      <c r="J153" s="1">
         <v>17221</v>
       </c>
-      <c r="K152" s="1">
+      <c r="K153" s="1">
         <v>150198</v>
       </c>
-      <c r="L152" s="1">
+      <c r="L153" s="1">
         <v>6590</v>
       </c>
-      <c r="M152" s="1">
+      <c r="M153" s="1">
         <v>6766</v>
       </c>
-      <c r="N152" s="1">
+      <c r="N153" s="1">
         <v>510717</v>
       </c>
-      <c r="O152" s="1">
+      <c r="O153" s="1">
         <v>205635</v>
       </c>
-      <c r="P152" s="1">
+      <c r="P153" s="1">
         <v>20541</v>
       </c>
-      <c r="Q152" s="1">
+      <c r="Q153" s="1">
         <v>196808</v>
       </c>
-      <c r="R152" s="1">
+      <c r="R153" s="1">
         <v>19101</v>
       </c>
-      <c r="S152" s="1">
+      <c r="S153" s="1">
         <v>68632</v>
       </c>
-      <c r="U152" s="2">
+      <c r="U153" s="2">
         <f t="shared" si="30"/>
         <v>45.600762261345466</v>
       </c>
-      <c r="V152" s="2">
+      <c r="V153" s="2">
         <f t="shared" si="31"/>
         <v>4.2280424394154501</v>
       </c>
-      <c r="W152" s="2">
-        <f t="shared" si="32"/>
-        <v>38.852711581266824</v>
-      </c>
-      <c r="X152" s="2">
-        <f t="shared" si="33"/>
-        <v>2.8765064962401974</v>
-      </c>
-      <c r="Y152" s="2">
-        <f t="shared" si="34"/>
-        <v>8.4419772217320617</v>
-      </c>
-      <c r="Z152" s="2">
-        <f t="shared" si="35"/>
-        <v>52.728057215328896</v>
-      </c>
-      <c r="AA152" s="2">
-        <f t="shared" si="36"/>
-        <v>4.5032229384307616</v>
-      </c>
-      <c r="AB152" s="2">
-        <f t="shared" si="37"/>
-        <v>39.276179020174418</v>
-      </c>
-      <c r="AC152" s="2">
-        <f t="shared" si="38"/>
-        <v>1.7232587633853276</v>
-      </c>
-      <c r="AD152" s="2">
-        <f t="shared" si="39"/>
-        <v>1.7692820626805956</v>
-      </c>
-      <c r="AE152" s="2">
-        <f t="shared" si="40"/>
-        <v>40.263981813802943</v>
-      </c>
-      <c r="AF152" s="2">
-        <f t="shared" si="41"/>
-        <v>4.0219926103889243</v>
-      </c>
-      <c r="AG152" s="2">
-        <f t="shared" si="42"/>
-        <v>38.53562736309933</v>
-      </c>
-      <c r="AH152" s="2">
-        <f t="shared" si="43"/>
-        <v>3.7400360669411823</v>
-      </c>
-      <c r="AI152" s="2">
-        <f t="shared" si="44"/>
-        <v>13.438362145767616</v>
-      </c>
-    </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="W153" s="2">
+        <f>E154/B154*100</f>
+        <v>30.864718712621496</v>
+      </c>
+      <c r="X153" s="2">
+        <f>F154/B154*100</f>
+        <v>1.7057162098322427</v>
+      </c>
+      <c r="Y153" s="2">
+        <f>G154/B154*100</f>
+        <v>5.6760043823940336</v>
+      </c>
+      <c r="Z153" s="2">
+        <f>I154/H154*100</f>
+        <v>58.211147007658766</v>
+      </c>
+      <c r="AA153" s="2">
+        <f>J154/H154*100</f>
+        <v>7.724284391026365</v>
+      </c>
+      <c r="AB153" s="2">
+        <f>K154/H154*100</f>
+        <v>32.03578609673994</v>
+      </c>
+      <c r="AC153" s="2">
+        <f>L154/H154*100</f>
+        <v>0.77265436143054012</v>
+      </c>
+      <c r="AD153" s="2">
+        <f>M154/H154*100</f>
+        <v>1.2561281431443869</v>
+      </c>
+      <c r="AE153" s="2">
+        <f>O154/N154*100</f>
+        <v>51.432296382138844</v>
+      </c>
+      <c r="AF153" s="2">
+        <f>P154/N154*100</f>
+        <v>6.9695433310397279</v>
+      </c>
+      <c r="AG153" s="2">
+        <f>Q154/N154*100</f>
+        <v>29.926121754246189</v>
+      </c>
+      <c r="AH153" s="2">
+        <f>R154/N154*100</f>
+        <v>2.4535544852062432</v>
+      </c>
+      <c r="AI153" s="2">
+        <f>S154/N154*100</f>
+        <v>9.2184840473689924</v>
+      </c>
+    </row>
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>510</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B154" s="1">
         <v>99489</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C154" s="1">
         <v>54170</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D154" s="1">
         <v>7268</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E154" s="1">
         <v>30707</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F154" s="1">
         <v>1697</v>
       </c>
-      <c r="G153" s="1">
+      <c r="G154" s="1">
         <v>5647</v>
       </c>
-      <c r="H153" s="1">
+      <c r="H154" s="1">
         <v>44263</v>
       </c>
-      <c r="I153" s="1">
+      <c r="I154" s="1">
         <v>25766</v>
       </c>
-      <c r="J153" s="1">
+      <c r="J154" s="1">
         <v>3419</v>
       </c>
-      <c r="K153" s="1">
+      <c r="K154" s="1">
         <v>14180</v>
       </c>
-      <c r="L153" s="1">
+      <c r="L154" s="1">
         <v>342</v>
       </c>
-      <c r="M153" s="1">
+      <c r="M154" s="1">
         <v>556</v>
       </c>
-      <c r="N153" s="1">
+      <c r="N154" s="1">
         <v>55226</v>
       </c>
-      <c r="O153" s="1">
+      <c r="O154" s="1">
         <v>28404</v>
       </c>
-      <c r="P153" s="1">
+      <c r="P154" s="1">
         <v>3849</v>
       </c>
-      <c r="Q153" s="1">
+      <c r="Q154" s="1">
         <v>16527</v>
       </c>
-      <c r="R153" s="1">
+      <c r="R154" s="1">
         <v>1355</v>
       </c>
-      <c r="S153" s="1">
+      <c r="S154" s="1">
         <v>5091</v>
       </c>
-      <c r="U153" s="2">
+      <c r="U154" s="2">
         <f t="shared" si="30"/>
         <v>54.448230457638537</v>
       </c>
-      <c r="V153" s="2">
+      <c r="V154" s="2">
         <f t="shared" si="31"/>
         <v>7.3053302375136946</v>
       </c>
-      <c r="W153" s="2">
-        <f t="shared" si="32"/>
-        <v>30.864718712621496</v>
-      </c>
-      <c r="X153" s="2">
-        <f t="shared" si="33"/>
-        <v>1.7057162098322427</v>
-      </c>
-      <c r="Y153" s="2">
-        <f t="shared" si="34"/>
-        <v>5.6760043823940336</v>
-      </c>
-      <c r="Z153" s="2">
-        <f t="shared" si="35"/>
-        <v>58.211147007658766</v>
-      </c>
-      <c r="AA153" s="2">
-        <f t="shared" si="36"/>
-        <v>7.724284391026365</v>
-      </c>
-      <c r="AB153" s="2">
-        <f t="shared" si="37"/>
-        <v>32.03578609673994</v>
-      </c>
-      <c r="AC153" s="2">
-        <f t="shared" si="38"/>
-        <v>0.77265436143054012</v>
-      </c>
-      <c r="AD153" s="2">
-        <f t="shared" si="39"/>
-        <v>1.2561281431443869</v>
-      </c>
-      <c r="AE153" s="2">
-        <f t="shared" si="40"/>
-        <v>51.432296382138844</v>
-      </c>
-      <c r="AF153" s="2">
-        <f t="shared" si="41"/>
-        <v>6.9695433310397279</v>
-      </c>
-      <c r="AG153" s="2">
-        <f t="shared" si="42"/>
-        <v>29.926121754246189</v>
-      </c>
-      <c r="AH153" s="2">
-        <f t="shared" si="43"/>
-        <v>2.4535544852062432</v>
-      </c>
-      <c r="AI153" s="2">
-        <f t="shared" si="44"/>
-        <v>9.2184840473689924</v>
-      </c>
-    </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="W154" s="2">
+        <f>E155/B155*100</f>
+        <v>37.729351509634682</v>
+      </c>
+      <c r="X154" s="2">
+        <f>F155/B155*100</f>
+        <v>3.2890624143187726</v>
+      </c>
+      <c r="Y154" s="2">
+        <f>G155/B155*100</f>
+        <v>8.1892060846009578</v>
+      </c>
+      <c r="Z154" s="2">
+        <f>I155/H155*100</f>
+        <v>52.390277016265898</v>
+      </c>
+      <c r="AA154" s="2">
+        <f>J155/H155*100</f>
+        <v>5.0938617790658203</v>
+      </c>
+      <c r="AB154" s="2">
+        <f>K155/H155*100</f>
+        <v>38.850160570220098</v>
+      </c>
+      <c r="AC154" s="2">
+        <f>L155/H155*100</f>
+        <v>2.104383697553589</v>
+      </c>
+      <c r="AD154" s="2">
+        <f>M155/H155*100</f>
+        <v>1.5613169368945981</v>
+      </c>
+      <c r="AE154" s="2">
+        <f>O155/N155*100</f>
+        <v>41.526096822995463</v>
+      </c>
+      <c r="AF154" s="2">
+        <f>P155/N155*100</f>
+        <v>4.4194402420574885</v>
+      </c>
+      <c r="AG154" s="2">
+        <f>Q155/N155*100</f>
+        <v>36.917549167927383</v>
+      </c>
+      <c r="AH154" s="2">
+        <f>R155/N155*100</f>
+        <v>4.1471255673222389</v>
+      </c>
+      <c r="AI154" s="2">
+        <f>S155/N155*100</f>
+        <v>12.989788199697427</v>
+      </c>
+    </row>
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>516</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B155" s="1">
         <v>91181</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C155" s="1">
         <v>42025</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D155" s="1">
         <v>4288</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E155" s="1">
         <v>34402</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F155" s="1">
         <v>2999</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G155" s="1">
         <v>7467</v>
       </c>
-      <c r="H154" s="1">
+      <c r="H155" s="1">
         <v>38301</v>
       </c>
-      <c r="I154" s="1">
+      <c r="I155" s="1">
         <v>20066</v>
       </c>
-      <c r="J154" s="1">
+      <c r="J155" s="1">
         <v>1951</v>
       </c>
-      <c r="K154" s="1">
+      <c r="K155" s="1">
         <v>14880</v>
       </c>
-      <c r="L154" s="1">
+      <c r="L155" s="1">
         <v>806</v>
       </c>
-      <c r="M154" s="1">
+      <c r="M155" s="1">
         <v>598</v>
       </c>
-      <c r="N154" s="1">
+      <c r="N155" s="1">
         <v>52880</v>
       </c>
-      <c r="O154" s="1">
+      <c r="O155" s="1">
         <v>21959</v>
       </c>
-      <c r="P154" s="1">
+      <c r="P155" s="1">
         <v>2337</v>
       </c>
-      <c r="Q154" s="1">
+      <c r="Q155" s="1">
         <v>19522</v>
       </c>
-      <c r="R154" s="1">
+      <c r="R155" s="1">
         <v>2193</v>
       </c>
-      <c r="S154" s="1">
+      <c r="S155" s="1">
         <v>6869</v>
       </c>
-      <c r="U154" s="2">
+      <c r="U155" s="2">
         <f t="shared" si="30"/>
         <v>46.089645869205206</v>
       </c>
-      <c r="V154" s="2">
+      <c r="V155" s="2">
         <f t="shared" si="31"/>
         <v>4.7027341222403791</v>
       </c>
-      <c r="W154" s="2">
-        <f t="shared" si="32"/>
-        <v>37.729351509634682</v>
-      </c>
-      <c r="X154" s="2">
-        <f t="shared" si="33"/>
-        <v>3.2890624143187726</v>
-      </c>
-      <c r="Y154" s="2">
-        <f t="shared" si="34"/>
-        <v>8.1892060846009578</v>
-      </c>
-      <c r="Z154" s="2">
-        <f t="shared" si="35"/>
-        <v>52.390277016265898</v>
-      </c>
-      <c r="AA154" s="2">
-        <f t="shared" si="36"/>
-        <v>5.0938617790658203</v>
-      </c>
-      <c r="AB154" s="2">
-        <f t="shared" si="37"/>
-        <v>38.850160570220098</v>
-      </c>
-      <c r="AC154" s="2">
-        <f t="shared" si="38"/>
-        <v>2.104383697553589</v>
-      </c>
-      <c r="AD154" s="2">
-        <f t="shared" si="39"/>
-        <v>1.5613169368945981</v>
-      </c>
-      <c r="AE154" s="2">
-        <f t="shared" si="40"/>
-        <v>41.526096822995463</v>
-      </c>
-      <c r="AF154" s="2">
-        <f t="shared" si="41"/>
-        <v>4.4194402420574885</v>
-      </c>
-      <c r="AG154" s="2">
-        <f t="shared" si="42"/>
-        <v>36.917549167927383</v>
-      </c>
-      <c r="AH154" s="2">
-        <f t="shared" si="43"/>
-        <v>4.1471255673222389</v>
-      </c>
-      <c r="AI154" s="2">
-        <f t="shared" si="44"/>
-        <v>12.989788199697427</v>
-      </c>
-    </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="W155" s="2">
+        <f>E156/B156*100</f>
+        <v>38.811992074203836</v>
+      </c>
+      <c r="X155" s="2">
+        <f>F156/B156*100</f>
+        <v>2.7022370272521035</v>
+      </c>
+      <c r="Y155" s="2">
+        <f>G156/B156*100</f>
+        <v>9.3106567498492367</v>
+      </c>
+      <c r="Z155" s="2">
+        <f>I156/H156*100</f>
+        <v>53.28303288096685</v>
+      </c>
+      <c r="AA155" s="2">
+        <f>J156/H156*100</f>
+        <v>3.9328877185875362</v>
+      </c>
+      <c r="AB155" s="2">
+        <f>K156/H156*100</f>
+        <v>39.234352845857806</v>
+      </c>
+      <c r="AC155" s="2">
+        <f>L156/H156*100</f>
+        <v>1.6693673620957397</v>
+      </c>
+      <c r="AD155" s="2">
+        <f>M156/H156*100</f>
+        <v>1.8803591924920666</v>
+      </c>
+      <c r="AE155" s="2">
+        <f>O156/N156*100</f>
+        <v>39.674945032980212</v>
+      </c>
+      <c r="AF155" s="2">
+        <f>P156/N156*100</f>
+        <v>3.5491205276833901</v>
+      </c>
+      <c r="AG155" s="2">
+        <f>Q156/N156*100</f>
+        <v>38.499400359784133</v>
+      </c>
+      <c r="AH155" s="2">
+        <f>R156/N156*100</f>
+        <v>3.466669998001199</v>
+      </c>
+      <c r="AI155" s="2">
+        <f>S156/N156*100</f>
+        <v>14.809864081551069</v>
+      </c>
+    </row>
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>523</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B156" s="1">
         <v>139292</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C156" s="1">
         <v>63326</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D156" s="1">
         <v>5171</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E156" s="1">
         <v>54062</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F156" s="1">
         <v>3764</v>
       </c>
-      <c r="G155" s="1">
+      <c r="G156" s="1">
         <v>12969</v>
       </c>
-      <c r="H155" s="1">
+      <c r="H156" s="1">
         <v>59244</v>
       </c>
-      <c r="I155" s="1">
+      <c r="I156" s="1">
         <v>31567</v>
       </c>
-      <c r="J155" s="1">
+      <c r="J156" s="1">
         <v>2330</v>
       </c>
-      <c r="K155" s="1">
+      <c r="K156" s="1">
         <v>23244</v>
       </c>
-      <c r="L155" s="1">
+      <c r="L156" s="1">
         <v>989</v>
       </c>
-      <c r="M155" s="1">
+      <c r="M156" s="1">
         <v>1114</v>
       </c>
-      <c r="N155" s="1">
+      <c r="N156" s="1">
         <v>80048</v>
       </c>
-      <c r="O155" s="1">
+      <c r="O156" s="1">
         <v>31759</v>
       </c>
-      <c r="P155" s="1">
+      <c r="P156" s="1">
         <v>2841</v>
       </c>
-      <c r="Q155" s="1">
+      <c r="Q156" s="1">
         <v>30818</v>
       </c>
-      <c r="R155" s="1">
+      <c r="R156" s="1">
         <v>2775</v>
       </c>
-      <c r="S155" s="1">
+      <c r="S156" s="1">
         <v>11855</v>
       </c>
-      <c r="U155" s="2">
+      <c r="U156" s="2">
         <f t="shared" si="30"/>
         <v>45.462768859661715</v>
       </c>
-      <c r="V155" s="2">
+      <c r="V156" s="2">
         <f t="shared" si="31"/>
         <v>3.7123452890331103</v>
       </c>
-      <c r="W155" s="2">
-        <f t="shared" si="32"/>
-        <v>38.811992074203836</v>
-      </c>
-      <c r="X155" s="2">
-        <f t="shared" si="33"/>
-        <v>2.7022370272521035</v>
-      </c>
-      <c r="Y155" s="2">
-        <f t="shared" si="34"/>
-        <v>9.3106567498492367</v>
-      </c>
-      <c r="Z155" s="2">
-        <f t="shared" si="35"/>
-        <v>53.28303288096685</v>
-      </c>
-      <c r="AA155" s="2">
-        <f t="shared" si="36"/>
-        <v>3.9328877185875362</v>
-      </c>
-      <c r="AB155" s="2">
-        <f t="shared" si="37"/>
-        <v>39.234352845857806</v>
-      </c>
-      <c r="AC155" s="2">
-        <f t="shared" si="38"/>
-        <v>1.6693673620957397</v>
-      </c>
-      <c r="AD155" s="2">
-        <f t="shared" si="39"/>
-        <v>1.8803591924920666</v>
-      </c>
-      <c r="AE155" s="2">
-        <f t="shared" si="40"/>
-        <v>39.674945032980212</v>
-      </c>
-      <c r="AF155" s="2">
-        <f t="shared" si="41"/>
-        <v>3.5491205276833901</v>
-      </c>
-      <c r="AG155" s="2">
-        <f t="shared" si="42"/>
-        <v>38.499400359784133</v>
-      </c>
-      <c r="AH155" s="2">
-        <f t="shared" si="43"/>
-        <v>3.466669998001199</v>
-      </c>
-      <c r="AI155" s="2">
-        <f t="shared" si="44"/>
-        <v>14.809864081551069</v>
-      </c>
-    </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="W156" s="2">
+        <f>E157/B157*100</f>
+        <v>45.595670017248558</v>
+      </c>
+      <c r="X156" s="2">
+        <f>F157/B157*100</f>
+        <v>1.9865580205793136</v>
+      </c>
+      <c r="Y156" s="2">
+        <f>G157/B157*100</f>
+        <v>6.5960863617438887</v>
+      </c>
+      <c r="Z156" s="2">
+        <f>I157/H157*100</f>
+        <v>49.846768820786139</v>
+      </c>
+      <c r="AA156" s="2">
+        <f>J157/H157*100</f>
+        <v>2.1185876082611594</v>
+      </c>
+      <c r="AB156" s="2">
+        <f>K157/H157*100</f>
+        <v>45.263157894736842</v>
+      </c>
+      <c r="AC156" s="2">
+        <f>L157/H157*100</f>
+        <v>1.1192538307794804</v>
+      </c>
+      <c r="AD156" s="2">
+        <f>M157/H157*100</f>
+        <v>1.6522318454363756</v>
+      </c>
+      <c r="AE156" s="2">
+        <f>O157/N157*100</f>
+        <v>39.213579716373012</v>
+      </c>
+      <c r="AF156" s="2">
+        <f>P157/N157*100</f>
+        <v>1.654490760636012</v>
+      </c>
+      <c r="AG156" s="2">
+        <f>Q157/N157*100</f>
+        <v>45.863773098409972</v>
+      </c>
+      <c r="AH156" s="2">
+        <f>R157/N157*100</f>
+        <v>2.6858616244091102</v>
+      </c>
+      <c r="AI156" s="2">
+        <f>S157/N157*100</f>
+        <v>10.582294800171896</v>
+      </c>
+    </row>
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>530</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B157" s="1">
         <v>16813</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C157" s="1">
         <v>7391</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D157" s="1">
         <v>313</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E157" s="1">
         <v>7666</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F157" s="1">
         <v>334</v>
       </c>
-      <c r="G156" s="1">
+      <c r="G157" s="1">
         <v>1109</v>
       </c>
-      <c r="H156" s="1">
+      <c r="H157" s="1">
         <v>7505</v>
       </c>
-      <c r="I156" s="1">
+      <c r="I157" s="1">
         <v>3741</v>
       </c>
-      <c r="J156" s="1">
+      <c r="J157" s="1">
         <v>159</v>
       </c>
-      <c r="K156" s="1">
+      <c r="K157" s="1">
         <v>3397</v>
       </c>
-      <c r="L156" s="1">
+      <c r="L157" s="1">
         <v>84</v>
       </c>
-      <c r="M156" s="1">
+      <c r="M157" s="1">
         <v>124</v>
       </c>
-      <c r="N156" s="1">
+      <c r="N157" s="1">
         <v>9308</v>
       </c>
-      <c r="O156" s="1">
+      <c r="O157" s="1">
         <v>3650</v>
       </c>
-      <c r="P156" s="1">
+      <c r="P157" s="1">
         <v>154</v>
       </c>
-      <c r="Q156" s="1">
+      <c r="Q157" s="1">
         <v>4269</v>
       </c>
-      <c r="R156" s="1">
+      <c r="R157" s="1">
         <v>250</v>
       </c>
-      <c r="S156" s="1">
+      <c r="S157" s="1">
         <v>985</v>
       </c>
-      <c r="U156" s="2">
+      <c r="U157" s="2">
         <f t="shared" si="30"/>
         <v>43.960030928448226</v>
       </c>
-      <c r="V156" s="2">
+      <c r="V157" s="2">
         <f t="shared" si="31"/>
         <v>1.8616546719800156</v>
       </c>
-      <c r="W156" s="2">
-        <f t="shared" si="32"/>
-        <v>45.595670017248558</v>
-      </c>
-      <c r="X156" s="2">
-        <f t="shared" si="33"/>
-        <v>1.9865580205793136</v>
-      </c>
-      <c r="Y156" s="2">
-        <f t="shared" si="34"/>
-        <v>6.5960863617438887</v>
-      </c>
-      <c r="Z156" s="2">
-        <f t="shared" si="35"/>
-        <v>49.846768820786139</v>
-      </c>
-      <c r="AA156" s="2">
-        <f t="shared" si="36"/>
-        <v>2.1185876082611594</v>
-      </c>
-      <c r="AB156" s="2">
-        <f t="shared" si="37"/>
-        <v>45.263157894736842</v>
-      </c>
-      <c r="AC156" s="2">
-        <f t="shared" si="38"/>
-        <v>1.1192538307794804</v>
-      </c>
-      <c r="AD156" s="2">
-        <f t="shared" si="39"/>
-        <v>1.6522318454363756</v>
-      </c>
-      <c r="AE156" s="2">
-        <f t="shared" si="40"/>
-        <v>39.213579716373012</v>
-      </c>
-      <c r="AF156" s="2">
-        <f t="shared" si="41"/>
-        <v>1.654490760636012</v>
-      </c>
-      <c r="AG156" s="2">
-        <f t="shared" si="42"/>
-        <v>45.863773098409972</v>
-      </c>
-      <c r="AH156" s="2">
-        <f t="shared" si="43"/>
-        <v>2.6858616244091102</v>
-      </c>
-      <c r="AI156" s="2">
-        <f t="shared" si="44"/>
-        <v>10.582294800171896</v>
-      </c>
-    </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="W157" s="2">
+        <f>E158/B158*100</f>
+        <v>48.774804570054123</v>
+      </c>
+      <c r="X157" s="2">
+        <f>F158/B158*100</f>
+        <v>3.0517137702946484</v>
+      </c>
+      <c r="Y157" s="2">
+        <f>G158/B158*100</f>
+        <v>9.0123271196632597</v>
+      </c>
+      <c r="Z157" s="2">
+        <f>I158/H158*100</f>
+        <v>47.966666666666669</v>
+      </c>
+      <c r="AA157" s="2">
+        <f>J158/H158*100</f>
+        <v>1.3166666666666667</v>
+      </c>
+      <c r="AB157" s="2">
+        <f>K158/H158*100</f>
+        <v>47.383333333333333</v>
+      </c>
+      <c r="AC157" s="2">
+        <f>L158/H158*100</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AD157" s="2">
+        <f>M158/H158*100</f>
+        <v>1.6333333333333331</v>
+      </c>
+      <c r="AE157" s="2">
+        <f>O158/N158*100</f>
+        <v>29.545454545454547</v>
+      </c>
+      <c r="AF157" s="2">
+        <f>P158/N158*100</f>
+        <v>1.3006571741511501</v>
+      </c>
+      <c r="AG157" s="2">
+        <f>Q158/N158*100</f>
+        <v>49.917853231106243</v>
+      </c>
+      <c r="AH157" s="2">
+        <f>R158/N158*100</f>
+        <v>4.1621029572836798</v>
+      </c>
+      <c r="AI157" s="2">
+        <f>S158/N158*100</f>
+        <v>15.07393209200438</v>
+      </c>
+    </row>
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>533</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B158" s="1">
         <v>13304</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C158" s="1">
         <v>5036</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D158" s="1">
         <v>174</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E158" s="1">
         <v>6489</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F158" s="1">
         <v>406</v>
       </c>
-      <c r="G157" s="1">
+      <c r="G158" s="1">
         <v>1199</v>
       </c>
-      <c r="H157" s="1">
+      <c r="H158" s="1">
         <v>6000</v>
       </c>
-      <c r="I157" s="1">
+      <c r="I158" s="1">
         <v>2878</v>
       </c>
-      <c r="J157" s="1">
+      <c r="J158" s="1">
         <v>79</v>
       </c>
-      <c r="K157" s="1">
+      <c r="K158" s="1">
         <v>2843</v>
       </c>
-      <c r="L157" s="1">
+      <c r="L158" s="1">
         <v>102</v>
       </c>
-      <c r="M157" s="1">
+      <c r="M158" s="1">
         <v>98</v>
       </c>
-      <c r="N157" s="1">
+      <c r="N158" s="1">
         <v>7304</v>
       </c>
-      <c r="O157" s="1">
+      <c r="O158" s="1">
         <v>2158</v>
       </c>
-      <c r="P157" s="1">
+      <c r="P158" s="1">
         <v>95</v>
       </c>
-      <c r="Q157" s="1">
+      <c r="Q158" s="1">
         <v>3646</v>
       </c>
-      <c r="R157" s="1">
+      <c r="R158" s="1">
         <v>304</v>
       </c>
-      <c r="S157" s="1">
+      <c r="S158" s="1">
         <v>1101</v>
       </c>
-      <c r="U157" s="2">
+      <c r="U158" s="2">
         <f t="shared" si="30"/>
         <v>37.853277209861695</v>
       </c>
-      <c r="V157" s="2">
+      <c r="V158" s="2">
         <f t="shared" si="31"/>
         <v>1.3078773301262778</v>
       </c>
-      <c r="W157" s="2">
-        <f t="shared" si="32"/>
-        <v>48.774804570054123</v>
-      </c>
-      <c r="X157" s="2">
-        <f t="shared" si="33"/>
-        <v>3.0517137702946484</v>
-      </c>
-      <c r="Y157" s="2">
-        <f t="shared" si="34"/>
-        <v>9.0123271196632597</v>
-      </c>
-      <c r="Z157" s="2">
-        <f t="shared" si="35"/>
-        <v>47.966666666666669</v>
-      </c>
-      <c r="AA157" s="2">
-        <f t="shared" si="36"/>
-        <v>1.3166666666666667</v>
-      </c>
-      <c r="AB157" s="2">
-        <f t="shared" si="37"/>
-        <v>47.383333333333333</v>
-      </c>
-      <c r="AC157" s="2">
-        <f t="shared" si="38"/>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AD157" s="2">
-        <f t="shared" si="39"/>
-        <v>1.6333333333333331</v>
-      </c>
-      <c r="AE157" s="2">
-        <f t="shared" si="40"/>
-        <v>29.545454545454547</v>
-      </c>
-      <c r="AF157" s="2">
-        <f t="shared" si="41"/>
-        <v>1.3006571741511501</v>
-      </c>
-      <c r="AG157" s="2">
-        <f t="shared" si="42"/>
-        <v>49.917853231106243</v>
-      </c>
-      <c r="AH157" s="2">
-        <f t="shared" si="43"/>
-        <v>4.1621029572836798</v>
-      </c>
-      <c r="AI157" s="2">
-        <f t="shared" si="44"/>
-        <v>15.07393209200438</v>
-      </c>
-    </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="W158" s="2">
+        <f>E159/B159*100</f>
+        <v>38.924430084365461</v>
+      </c>
+      <c r="X158" s="2">
+        <f>F159/B159*100</f>
+        <v>3.2001436007898043</v>
+      </c>
+      <c r="Y158" s="2">
+        <f>G159/B159*100</f>
+        <v>8.3841321127266202</v>
+      </c>
+      <c r="Z158" s="2">
+        <f>I159/H159*100</f>
+        <v>52.840057244105218</v>
+      </c>
+      <c r="AA158" s="2">
+        <f>J159/H159*100</f>
+        <v>4.1655308709281726</v>
+      </c>
+      <c r="AB158" s="2">
+        <f>K159/H159*100</f>
+        <v>39.409840534278317</v>
+      </c>
+      <c r="AC158" s="2">
+        <f>L159/H159*100</f>
+        <v>1.7905819817364044</v>
+      </c>
+      <c r="AD158" s="2">
+        <f>M159/H159*100</f>
+        <v>1.7939893689518878</v>
+      </c>
+      <c r="AE158" s="2">
+        <f>O159/N159*100</f>
+        <v>40.359150647190958</v>
+      </c>
+      <c r="AF158" s="2">
+        <f>P159/N159*100</f>
+        <v>3.658521450998399</v>
+      </c>
+      <c r="AG158" s="2">
+        <f>Q159/N159*100</f>
+        <v>38.570843520023828</v>
+      </c>
+      <c r="AH158" s="2">
+        <f>R159/N159*100</f>
+        <v>4.2269077551223022</v>
+      </c>
+      <c r="AI158" s="2">
+        <f>S159/N159*100</f>
+        <v>13.184576626664516</v>
+      </c>
+    </row>
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>536</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B159" s="1">
         <v>139275</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C159" s="1">
         <v>63536</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D159" s="1">
         <v>5393</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E159" s="1">
         <v>54212</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F159" s="1">
         <v>4457</v>
       </c>
-      <c r="G158" s="1">
+      <c r="G159" s="1">
         <v>11677</v>
       </c>
-      <c r="H158" s="1">
+      <c r="H159" s="1">
         <v>58696</v>
       </c>
-      <c r="I158" s="1">
+      <c r="I159" s="1">
         <v>31015</v>
       </c>
-      <c r="J158" s="1">
+      <c r="J159" s="1">
         <v>2445</v>
       </c>
-      <c r="K158" s="1">
+      <c r="K159" s="1">
         <v>23132</v>
       </c>
-      <c r="L158" s="1">
+      <c r="L159" s="1">
         <v>1051</v>
       </c>
-      <c r="M158" s="1">
+      <c r="M159" s="1">
         <v>1053</v>
       </c>
-      <c r="N158" s="1">
+      <c r="N159" s="1">
         <v>80579</v>
       </c>
-      <c r="O158" s="1">
+      <c r="O159" s="1">
         <v>32521</v>
       </c>
-      <c r="P158" s="1">
+      <c r="P159" s="1">
         <v>2948</v>
       </c>
-      <c r="Q158" s="1">
+      <c r="Q159" s="1">
         <v>31080</v>
       </c>
-      <c r="R158" s="1">
+      <c r="R159" s="1">
         <v>3406</v>
       </c>
-      <c r="S158" s="1">
+      <c r="S159" s="1">
         <v>10624</v>
       </c>
-      <c r="U158" s="2">
+      <c r="U159" s="2">
         <f t="shared" si="30"/>
         <v>45.619098905043977</v>
       </c>
-      <c r="V158" s="2">
+      <c r="V159" s="2">
         <f t="shared" si="31"/>
         <v>3.8721952970741338</v>
       </c>
-      <c r="W158" s="2">
-        <f t="shared" si="32"/>
-        <v>38.924430084365461</v>
-      </c>
-      <c r="X158" s="2">
-        <f t="shared" si="33"/>
-        <v>3.2001436007898043</v>
-      </c>
-      <c r="Y158" s="2">
-        <f t="shared" si="34"/>
-        <v>8.3841321127266202</v>
-      </c>
-      <c r="Z158" s="2">
-        <f t="shared" si="35"/>
-        <v>52.840057244105218</v>
-      </c>
-      <c r="AA158" s="2">
-        <f t="shared" si="36"/>
-        <v>4.1655308709281726</v>
-      </c>
-      <c r="AB158" s="2">
-        <f t="shared" si="37"/>
-        <v>39.409840534278317</v>
-      </c>
-      <c r="AC158" s="2">
-        <f t="shared" si="38"/>
-        <v>1.7905819817364044</v>
-      </c>
-      <c r="AD158" s="2">
-        <f t="shared" si="39"/>
-        <v>1.7939893689518878</v>
-      </c>
-      <c r="AE158" s="2">
-        <f t="shared" si="40"/>
-        <v>40.359150647190958</v>
-      </c>
-      <c r="AF158" s="2">
-        <f t="shared" si="41"/>
-        <v>3.658521450998399</v>
-      </c>
-      <c r="AG158" s="2">
-        <f t="shared" si="42"/>
-        <v>38.570843520023828</v>
-      </c>
-      <c r="AH158" s="2">
-        <f t="shared" si="43"/>
-        <v>4.2269077551223022</v>
-      </c>
-      <c r="AI158" s="2">
-        <f t="shared" si="44"/>
-        <v>13.184576626664516</v>
-      </c>
-    </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="W159" s="2">
+        <f>E160/B160*100</f>
+        <v>44.414208748059536</v>
+      </c>
+      <c r="X159" s="2">
+        <f>F160/B160*100</f>
+        <v>3.5430554287279703</v>
+      </c>
+      <c r="Y159" s="2">
+        <f>G160/B160*100</f>
+        <v>9.7689708702401603</v>
+      </c>
+      <c r="Z159" s="2">
+        <f>I160/H160*100</f>
+        <v>50.465968817631733</v>
+      </c>
+      <c r="AA159" s="2">
+        <f>J160/H160*100</f>
+        <v>2.4557219204098759</v>
+      </c>
+      <c r="AB159" s="2">
+        <f>K160/H160*100</f>
+        <v>42.970716841128926</v>
+      </c>
+      <c r="AC159" s="2">
+        <f>L160/H160*100</f>
+        <v>2.0979638708537607</v>
+      </c>
+      <c r="AD159" s="2">
+        <f>M160/H160*100</f>
+        <v>2.0096285499757078</v>
+      </c>
+      <c r="AE159" s="2">
+        <f>O160/N160*100</f>
+        <v>32.658653546739743</v>
+      </c>
+      <c r="AF159" s="2">
+        <f>P160/N160*100</f>
+        <v>2.1081148408793675</v>
+      </c>
+      <c r="AG159" s="2">
+        <f>Q160/N160*100</f>
+        <v>45.431898860310142</v>
+      </c>
+      <c r="AH159" s="2">
+        <f>R160/N160*100</f>
+        <v>4.561873326275145</v>
+      </c>
+      <c r="AI159" s="2">
+        <f>S160/N160*100</f>
+        <v>15.239459425795603</v>
+      </c>
+    </row>
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>541</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B160" s="1">
         <v>54755</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C160" s="1">
         <v>21914</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D160" s="1">
         <v>1233</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E160" s="1">
         <v>24319</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F160" s="1">
         <v>1940</v>
       </c>
-      <c r="G159" s="1">
+      <c r="G160" s="1">
         <v>5349</v>
       </c>
-      <c r="H159" s="1">
+      <c r="H160" s="1">
         <v>22641</v>
       </c>
-      <c r="I159" s="1">
+      <c r="I160" s="1">
         <v>11426</v>
       </c>
-      <c r="J159" s="1">
+      <c r="J160" s="1">
         <v>556</v>
       </c>
-      <c r="K159" s="1">
+      <c r="K160" s="1">
         <v>9729</v>
       </c>
-      <c r="L159" s="1">
+      <c r="L160" s="1">
         <v>475</v>
       </c>
-      <c r="M159" s="1">
+      <c r="M160" s="1">
         <v>455</v>
       </c>
-      <c r="N159" s="1">
+      <c r="N160" s="1">
         <v>32114</v>
       </c>
-      <c r="O159" s="1">
+      <c r="O160" s="1">
         <v>10488</v>
       </c>
-      <c r="P159" s="1">
+      <c r="P160" s="1">
         <v>677</v>
       </c>
-      <c r="Q159" s="1">
+      <c r="Q160" s="1">
         <v>14590</v>
       </c>
-      <c r="R159" s="1">
+      <c r="R160" s="1">
         <v>1465</v>
       </c>
-      <c r="S159" s="1">
+      <c r="S160" s="1">
         <v>4894</v>
       </c>
-      <c r="U159" s="2">
+      <c r="U160" s="2">
         <f t="shared" si="30"/>
         <v>40.021915806775638</v>
       </c>
-      <c r="V159" s="2">
+      <c r="V160" s="2">
         <f t="shared" si="31"/>
         <v>2.2518491461966943</v>
       </c>
-      <c r="W159" s="2">
-        <f t="shared" si="32"/>
-        <v>44.414208748059536</v>
-      </c>
-      <c r="X159" s="2">
-        <f t="shared" si="33"/>
-        <v>3.5430554287279703</v>
-      </c>
-      <c r="Y159" s="2">
-        <f t="shared" si="34"/>
-        <v>9.7689708702401603</v>
-      </c>
-      <c r="Z159" s="2">
-        <f t="shared" si="35"/>
-        <v>50.465968817631733</v>
-      </c>
-      <c r="AA159" s="2">
-        <f t="shared" si="36"/>
-        <v>2.4557219204098759</v>
-      </c>
-      <c r="AB159" s="2">
-        <f t="shared" si="37"/>
-        <v>42.970716841128926</v>
-      </c>
-      <c r="AC159" s="2">
-        <f t="shared" si="38"/>
-        <v>2.0979638708537607</v>
-      </c>
-      <c r="AD159" s="2">
-        <f t="shared" si="39"/>
-        <v>2.0096285499757078</v>
-      </c>
-      <c r="AE159" s="2">
-        <f t="shared" si="40"/>
-        <v>32.658653546739743</v>
-      </c>
-      <c r="AF159" s="2">
-        <f t="shared" si="41"/>
-        <v>2.1081148408793675</v>
-      </c>
-      <c r="AG159" s="2">
-        <f t="shared" si="42"/>
-        <v>45.431898860310142</v>
-      </c>
-      <c r="AH159" s="2">
-        <f t="shared" si="43"/>
-        <v>4.561873326275145</v>
-      </c>
-      <c r="AI159" s="2">
-        <f t="shared" si="44"/>
-        <v>15.239459425795603</v>
-      </c>
-    </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="W160" s="2">
+        <f>E161/B161*100</f>
+        <v>48.37159407852392</v>
+      </c>
+      <c r="X160" s="2">
+        <f>F161/B161*100</f>
+        <v>4.2608882214117143</v>
+      </c>
+      <c r="Y160" s="2">
+        <f>G161/B161*100</f>
+        <v>8.577558463848959</v>
+      </c>
+      <c r="Z160" s="2">
+        <f>I161/H161*100</f>
+        <v>46.489799827602717</v>
+      </c>
+      <c r="AA160" s="2">
+        <f>J161/H161*100</f>
+        <v>1.8867924528301887</v>
+      </c>
+      <c r="AB160" s="2">
+        <f>K161/H161*100</f>
+        <v>45.934297481084187</v>
+      </c>
+      <c r="AC160" s="2">
+        <f>L161/H161*100</f>
+        <v>3.5532994923857872</v>
+      </c>
+      <c r="AD160" s="2">
+        <f>M161/H161*100</f>
+        <v>2.1358107460971172</v>
+      </c>
+      <c r="AE160" s="2">
+        <f>O161/N161*100</f>
+        <v>29.407649253731343</v>
+      </c>
+      <c r="AF160" s="2">
+        <f>P161/N161*100</f>
+        <v>1.6013681592039801</v>
+      </c>
+      <c r="AG160" s="2">
+        <f>Q161/N161*100</f>
+        <v>50.349813432835823</v>
+      </c>
+      <c r="AH160" s="2">
+        <f>R161/N161*100</f>
+        <v>4.8351990049751246</v>
+      </c>
+      <c r="AI160" s="2">
+        <f>S161/N161*100</f>
+        <v>13.805970149253731</v>
+      </c>
+    </row>
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>546</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B161" s="1">
         <v>23305</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C161" s="1">
         <v>8637</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D161" s="1">
         <v>403</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E161" s="1">
         <v>11273</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F161" s="1">
         <v>993</v>
       </c>
-      <c r="G160" s="1">
+      <c r="G161" s="1">
         <v>1999</v>
       </c>
-      <c r="H160" s="1">
+      <c r="H161" s="1">
         <v>10441</v>
       </c>
-      <c r="I160" s="1">
+      <c r="I161" s="1">
         <v>4854</v>
       </c>
-      <c r="J160" s="1">
+      <c r="J161" s="1">
         <v>197</v>
       </c>
-      <c r="K160" s="1">
+      <c r="K161" s="1">
         <v>4796</v>
       </c>
-      <c r="L160" s="1">
+      <c r="L161" s="1">
         <v>371</v>
       </c>
-      <c r="M160" s="1">
+      <c r="M161" s="1">
         <v>223</v>
       </c>
-      <c r="N160" s="1">
+      <c r="N161" s="1">
         <v>12864</v>
       </c>
-      <c r="O160" s="1">
+      <c r="O161" s="1">
         <v>3783</v>
       </c>
-      <c r="P160" s="1">
+      <c r="P161" s="1">
         <v>206</v>
       </c>
-      <c r="Q160" s="1">
+      <c r="Q161" s="1">
         <v>6477</v>
       </c>
-      <c r="R160" s="1">
+      <c r="R161" s="1">
         <v>622</v>
       </c>
-      <c r="S160" s="1">
+      <c r="S161" s="1">
         <v>1776</v>
       </c>
-      <c r="U160" s="2">
+      <c r="U161" s="2">
         <f t="shared" si="30"/>
         <v>37.060716584423943</v>
       </c>
-      <c r="V160" s="2">
+      <c r="V161" s="2">
         <f t="shared" si="31"/>
         <v>1.729242651791461</v>
       </c>
-      <c r="W160" s="2">
-        <f t="shared" si="32"/>
-        <v>48.37159407852392</v>
-      </c>
-      <c r="X160" s="2">
-        <f t="shared" si="33"/>
-        <v>4.2608882214117143</v>
-      </c>
-      <c r="Y160" s="2">
-        <f t="shared" si="34"/>
-        <v>8.577558463848959</v>
-      </c>
-      <c r="Z160" s="2">
-        <f t="shared" si="35"/>
-        <v>46.489799827602717</v>
-      </c>
-      <c r="AA160" s="2">
-        <f t="shared" si="36"/>
-        <v>1.8867924528301887</v>
-      </c>
-      <c r="AB160" s="2">
-        <f t="shared" si="37"/>
-        <v>45.934297481084187</v>
-      </c>
-      <c r="AC160" s="2">
-        <f t="shared" si="38"/>
-        <v>3.5532994923857872</v>
-      </c>
-      <c r="AD160" s="2">
-        <f t="shared" si="39"/>
-        <v>2.1358107460971172</v>
-      </c>
-      <c r="AE160" s="2">
-        <f t="shared" si="40"/>
-        <v>29.407649253731343</v>
-      </c>
-      <c r="AF160" s="2">
-        <f t="shared" si="41"/>
-        <v>1.6013681592039801</v>
-      </c>
-      <c r="AG160" s="2">
-        <f t="shared" si="42"/>
-        <v>50.349813432835823</v>
-      </c>
-      <c r="AH160" s="2">
-        <f t="shared" si="43"/>
-        <v>4.8351990049751246</v>
-      </c>
-      <c r="AI160" s="2">
-        <f t="shared" si="44"/>
-        <v>13.805970149253731</v>
-      </c>
-    </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="W161" s="2">
+        <f>E162/B162*100</f>
+        <v>37.322451188167918</v>
+      </c>
+      <c r="X161" s="2">
+        <f>F162/B162*100</f>
+        <v>3.281552960274158</v>
+      </c>
+      <c r="Y161" s="2">
+        <f>G162/B162*100</f>
+        <v>9.5188709022861531</v>
+      </c>
+      <c r="Z161" s="2">
+        <f>I162/H162*100</f>
+        <v>52.450980392156865</v>
+      </c>
+      <c r="AA161" s="2">
+        <f>J162/H162*100</f>
+        <v>5.4501370440649382</v>
+      </c>
+      <c r="AB161" s="2">
+        <f>K162/H162*100</f>
+        <v>37.808349146110061</v>
+      </c>
+      <c r="AC161" s="2">
+        <f>L162/H162*100</f>
+        <v>2.1057347670250897</v>
+      </c>
+      <c r="AD161" s="2">
+        <f>M162/H162*100</f>
+        <v>2.184798650643053</v>
+      </c>
+      <c r="AE161" s="2">
+        <f>O162/N162*100</f>
+        <v>38.927192498621075</v>
+      </c>
+      <c r="AF161" s="2">
+        <f>P162/N162*100</f>
+        <v>4.9523284217161772</v>
+      </c>
+      <c r="AG161" s="2">
+        <f>Q162/N162*100</f>
+        <v>36.959262469466552</v>
+      </c>
+      <c r="AH161" s="2">
+        <f>R162/N162*100</f>
+        <v>4.1604286502245689</v>
+      </c>
+      <c r="AI161" s="2">
+        <f>S162/N162*100</f>
+        <v>15.000787959971634</v>
+      </c>
+    </row>
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>550</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B162" s="1">
         <v>88708</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C162" s="1">
         <v>39663</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D162" s="1">
         <v>4582</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E162" s="1">
         <v>33108</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F162" s="1">
         <v>2911</v>
       </c>
-      <c r="G161" s="1">
+      <c r="G162" s="1">
         <v>8444</v>
       </c>
-      <c r="H161" s="1">
+      <c r="H162" s="1">
         <v>37944</v>
       </c>
-      <c r="I161" s="1">
+      <c r="I162" s="1">
         <v>19902</v>
       </c>
-      <c r="J161" s="1">
+      <c r="J162" s="1">
         <v>2068</v>
       </c>
-      <c r="K161" s="1">
+      <c r="K162" s="1">
         <v>14346</v>
       </c>
-      <c r="L161" s="1">
+      <c r="L162" s="1">
         <v>799</v>
       </c>
-      <c r="M161" s="1">
+      <c r="M162" s="1">
         <v>829</v>
       </c>
-      <c r="N161" s="1">
+      <c r="N162" s="1">
         <v>50764</v>
       </c>
-      <c r="O161" s="1">
+      <c r="O162" s="1">
         <v>19761</v>
       </c>
-      <c r="P161" s="1">
+      <c r="P162" s="1">
         <v>2514</v>
       </c>
-      <c r="Q161" s="1">
+      <c r="Q162" s="1">
         <v>18762</v>
       </c>
-      <c r="R161" s="1">
+      <c r="R162" s="1">
         <v>2112</v>
       </c>
-      <c r="S161" s="1">
+      <c r="S162" s="1">
         <v>7615</v>
       </c>
-      <c r="U161" s="2">
+      <c r="U162" s="2">
         <f t="shared" si="30"/>
         <v>44.711863642512512</v>
       </c>
-      <c r="V161" s="2">
+      <c r="V162" s="2">
         <f t="shared" si="31"/>
         <v>5.1652613067592545</v>
       </c>
-      <c r="W161" s="2">
-        <f t="shared" si="32"/>
-        <v>37.322451188167918</v>
-      </c>
-      <c r="X161" s="2">
-        <f t="shared" si="33"/>
-        <v>3.281552960274158</v>
-      </c>
-      <c r="Y161" s="2">
-        <f t="shared" si="34"/>
-        <v>9.5188709022861531</v>
-      </c>
-      <c r="Z161" s="2">
-        <f t="shared" si="35"/>
-        <v>52.450980392156865</v>
-      </c>
-      <c r="AA161" s="2">
-        <f t="shared" si="36"/>
-        <v>5.4501370440649382</v>
-      </c>
-      <c r="AB161" s="2">
-        <f t="shared" si="37"/>
-        <v>37.808349146110061</v>
-      </c>
-      <c r="AC161" s="2">
-        <f t="shared" si="38"/>
-        <v>2.1057347670250897</v>
-      </c>
-      <c r="AD161" s="2">
-        <f t="shared" si="39"/>
-        <v>2.184798650643053</v>
-      </c>
-      <c r="AE161" s="2">
-        <f t="shared" si="40"/>
-        <v>38.927192498621075</v>
-      </c>
-      <c r="AF161" s="2">
-        <f t="shared" si="41"/>
-        <v>4.9523284217161772</v>
-      </c>
-      <c r="AG161" s="2">
-        <f t="shared" si="42"/>
-        <v>36.959262469466552</v>
-      </c>
-      <c r="AH161" s="2">
-        <f t="shared" si="43"/>
-        <v>4.1604286502245689</v>
-      </c>
-      <c r="AI161" s="2">
-        <f t="shared" si="44"/>
-        <v>15.000787959971634</v>
-      </c>
-    </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="W162" s="2">
+        <f>E163/B163*100</f>
+        <v>43.212250712250707</v>
+      </c>
+      <c r="X162" s="2">
+        <f>F163/B163*100</f>
+        <v>3.3190883190883187</v>
+      </c>
+      <c r="Y162" s="2">
+        <f>G163/B163*100</f>
+        <v>10.263532763532764</v>
+      </c>
+      <c r="Z162" s="2">
+        <f>I163/H163*100</f>
+        <v>51.048185231539421</v>
+      </c>
+      <c r="AA162" s="2">
+        <f>J163/H163*100</f>
+        <v>0.9856070087609512</v>
+      </c>
+      <c r="AB162" s="2">
+        <f>K163/H163*100</f>
+        <v>44.227158948685855</v>
+      </c>
+      <c r="AC162" s="2">
+        <f>L163/H163*100</f>
+        <v>1.8929912390488111</v>
+      </c>
+      <c r="AD162" s="2">
+        <f>M163/H163*100</f>
+        <v>1.8460575719649561</v>
+      </c>
+      <c r="AE162" s="2">
+        <f>O163/N163*100</f>
+        <v>35.081066945606693</v>
+      </c>
+      <c r="AF162" s="2">
+        <f>P163/N163*100</f>
+        <v>0.74529288702928875</v>
+      </c>
+      <c r="AG162" s="2">
+        <f>Q163/N163*100</f>
+        <v>42.364016736401673</v>
+      </c>
+      <c r="AH162" s="2">
+        <f>R163/N163*100</f>
+        <v>4.5109832635983258</v>
+      </c>
+      <c r="AI162" s="2">
+        <f>S163/N163*100</f>
+        <v>17.298640167364017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>556</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B163" s="1">
         <v>14040</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C163" s="1">
         <v>5946</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D163" s="1">
         <v>120</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E163" s="1">
         <v>6067</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F163" s="1">
         <v>466</v>
       </c>
-      <c r="G162" s="1">
+      <c r="G163" s="1">
         <v>1441</v>
       </c>
-      <c r="H162" s="1">
+      <c r="H163" s="1">
         <v>6392</v>
       </c>
-      <c r="I162" s="1">
+      <c r="I163" s="1">
         <v>3263</v>
       </c>
-      <c r="J162" s="1">
+      <c r="J163" s="1">
         <v>63</v>
       </c>
-      <c r="K162" s="1">
+      <c r="K163" s="1">
         <v>2827</v>
       </c>
-      <c r="L162" s="1">
+      <c r="L163" s="1">
         <v>121</v>
       </c>
-      <c r="M162" s="1">
+      <c r="M163" s="1">
         <v>118</v>
       </c>
-      <c r="N162" s="1">
+      <c r="N163" s="1">
         <v>7648</v>
       </c>
-      <c r="O162" s="1">
+      <c r="O163" s="1">
         <v>2683</v>
       </c>
-      <c r="P162" s="1">
+      <c r="P163" s="1">
         <v>57</v>
       </c>
-      <c r="Q162" s="1">
+      <c r="Q163" s="1">
         <v>3240</v>
       </c>
-      <c r="R162" s="1">
+      <c r="R163" s="1">
         <v>345</v>
       </c>
-      <c r="S162" s="1">
+      <c r="S163" s="1">
         <v>1323</v>
       </c>
-      <c r="U162" s="2">
+      <c r="U163" s="2">
         <f t="shared" si="30"/>
         <v>42.350427350427353</v>
       </c>
-      <c r="V162" s="2">
+      <c r="V163" s="2">
         <f t="shared" si="31"/>
         <v>0.85470085470085477</v>
       </c>
-      <c r="W162" s="2">
-        <f t="shared" si="32"/>
-        <v>43.212250712250707</v>
-      </c>
-      <c r="X162" s="2">
-        <f t="shared" si="33"/>
-        <v>3.3190883190883187</v>
-      </c>
-      <c r="Y162" s="2">
-        <f t="shared" si="34"/>
-        <v>10.263532763532764</v>
-      </c>
-      <c r="Z162" s="2">
-        <f t="shared" si="35"/>
-        <v>51.048185231539421</v>
-      </c>
-      <c r="AA162" s="2">
-        <f t="shared" si="36"/>
-        <v>0.9856070087609512</v>
-      </c>
-      <c r="AB162" s="2">
-        <f t="shared" si="37"/>
-        <v>44.227158948685855</v>
-      </c>
-      <c r="AC162" s="2">
-        <f t="shared" si="38"/>
-        <v>1.8929912390488111</v>
-      </c>
-      <c r="AD162" s="2">
-        <f t="shared" si="39"/>
-        <v>1.8460575719649561</v>
-      </c>
-      <c r="AE162" s="2">
-        <f t="shared" si="40"/>
-        <v>35.081066945606693</v>
-      </c>
-      <c r="AF162" s="2">
-        <f t="shared" si="41"/>
-        <v>0.74529288702928875</v>
-      </c>
-      <c r="AG162" s="2">
-        <f t="shared" si="42"/>
-        <v>42.364016736401673</v>
-      </c>
-      <c r="AH162" s="2">
-        <f t="shared" si="43"/>
-        <v>4.5109832635983258</v>
-      </c>
-      <c r="AI162" s="2">
-        <f t="shared" si="44"/>
-        <v>17.298640167364017</v>
-      </c>
-    </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="W163" s="2">
+        <f>E164/B164*100</f>
+        <v>49.035812672176313</v>
+      </c>
+      <c r="X163" s="2">
+        <f>F164/B164*100</f>
+        <v>2.7548209366391188</v>
+      </c>
+      <c r="Y163" s="2">
+        <f>G164/B164*100</f>
+        <v>7.5238224269520844</v>
+      </c>
+      <c r="Z163" s="2">
+        <f>I164/H164*100</f>
+        <v>46.399920768545108</v>
+      </c>
+      <c r="AA163" s="2">
+        <f>J164/H164*100</f>
+        <v>2.5453104882638407</v>
+      </c>
+      <c r="AB163" s="2">
+        <f>K164/H164*100</f>
+        <v>47.855798752104583</v>
+      </c>
+      <c r="AC163" s="2">
+        <f>L164/H164*100</f>
+        <v>1.7628998712488859</v>
+      </c>
+      <c r="AD163" s="2">
+        <f>M164/H164*100</f>
+        <v>1.4360701198375756</v>
+      </c>
+      <c r="AE163" s="2">
+        <f>O164/N164*100</f>
+        <v>31.778183629420553</v>
+      </c>
+      <c r="AF163" s="2">
+        <f>P164/N164*100</f>
+        <v>1.9840610991200398</v>
+      </c>
+      <c r="AG163" s="2">
+        <f>Q164/N164*100</f>
+        <v>50.024904532624937</v>
+      </c>
+      <c r="AH163" s="2">
+        <f>R164/N164*100</f>
+        <v>3.5862526979910347</v>
+      </c>
+      <c r="AI163" s="2">
+        <f>S164/N164*100</f>
+        <v>12.626598040843435</v>
+      </c>
+    </row>
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>559</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B164" s="1">
         <v>22143</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C164" s="1">
         <v>8513</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D164" s="1">
         <v>496</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E164" s="1">
         <v>10858</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F164" s="1">
         <v>610</v>
       </c>
-      <c r="G163" s="1">
+      <c r="G164" s="1">
         <v>1666</v>
       </c>
-      <c r="H163" s="1">
+      <c r="H164" s="1">
         <v>10097</v>
       </c>
-      <c r="I163" s="1">
+      <c r="I164" s="1">
         <v>4685</v>
       </c>
-      <c r="J163" s="1">
+      <c r="J164" s="1">
         <v>257</v>
       </c>
-      <c r="K163" s="1">
+      <c r="K164" s="1">
         <v>4832</v>
       </c>
-      <c r="L163" s="1">
+      <c r="L164" s="1">
         <v>178</v>
       </c>
-      <c r="M163" s="1">
+      <c r="M164" s="1">
         <v>145</v>
       </c>
-      <c r="N163" s="1">
+      <c r="N164" s="1">
         <v>12046</v>
       </c>
-      <c r="O163" s="1">
+      <c r="O164" s="1">
         <v>3828</v>
       </c>
-      <c r="P163" s="1">
+      <c r="P164" s="1">
         <v>239</v>
       </c>
-      <c r="Q163" s="1">
+      <c r="Q164" s="1">
         <v>6026</v>
       </c>
-      <c r="R163" s="1">
+      <c r="R164" s="1">
         <v>432</v>
       </c>
-      <c r="S163" s="1">
+      <c r="S164" s="1">
         <v>1521</v>
       </c>
-      <c r="U163" s="2">
+      <c r="U164" s="2">
         <f t="shared" si="30"/>
         <v>38.44555841575216</v>
       </c>
-      <c r="V163" s="2">
+      <c r="V164" s="2">
         <f t="shared" si="31"/>
         <v>2.2399855484803322</v>
       </c>
-      <c r="W163" s="2">
-        <f t="shared" si="32"/>
-        <v>49.035812672176313</v>
-      </c>
-      <c r="X163" s="2">
-        <f t="shared" si="33"/>
-        <v>2.7548209366391188</v>
-      </c>
-      <c r="Y163" s="2">
-        <f t="shared" si="34"/>
-        <v>7.5238224269520844</v>
-      </c>
-      <c r="Z163" s="2">
-        <f t="shared" si="35"/>
-        <v>46.399920768545108</v>
-      </c>
-      <c r="AA163" s="2">
-        <f t="shared" si="36"/>
-        <v>2.5453104882638407</v>
-      </c>
-      <c r="AB163" s="2">
-        <f t="shared" si="37"/>
-        <v>47.855798752104583</v>
-      </c>
-      <c r="AC163" s="2">
-        <f t="shared" si="38"/>
-        <v>1.7628998712488859</v>
-      </c>
-      <c r="AD163" s="2">
-        <f t="shared" si="39"/>
-        <v>1.4360701198375756</v>
-      </c>
-      <c r="AE163" s="2">
-        <f t="shared" si="40"/>
-        <v>31.778183629420553</v>
-      </c>
-      <c r="AF163" s="2">
-        <f t="shared" si="41"/>
-        <v>1.9840610991200398</v>
-      </c>
-      <c r="AG163" s="2">
-        <f t="shared" si="42"/>
-        <v>50.024904532624937</v>
-      </c>
-      <c r="AH163" s="2">
-        <f t="shared" si="43"/>
-        <v>3.5862526979910347</v>
-      </c>
-      <c r="AI163" s="2">
-        <f t="shared" si="44"/>
-        <v>12.626598040843435</v>
-      </c>
-    </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="W164" s="2">
+        <f>E165/B165*100</f>
+        <v>40.359173153469619</v>
+      </c>
+      <c r="X164" s="2">
+        <f>F165/B165*100</f>
+        <v>2.587792685588385</v>
+      </c>
+      <c r="Y164" s="2">
+        <f>G165/B165*100</f>
+        <v>8.3183504640359178</v>
+      </c>
+      <c r="Z164" s="2">
+        <f>I165/H165*100</f>
+        <v>51.827978152831768</v>
+      </c>
+      <c r="AA164" s="2">
+        <f>J165/H165*100</f>
+        <v>3.9339664419623088</v>
+      </c>
+      <c r="AB164" s="2">
+        <f>K165/H165*100</f>
+        <v>41.103675638439206</v>
+      </c>
+      <c r="AC164" s="2">
+        <f>L165/H165*100</f>
+        <v>1.5647296166904492</v>
+      </c>
+      <c r="AD164" s="2">
+        <f>M165/H165*100</f>
+        <v>1.5696501500762683</v>
+      </c>
+      <c r="AE164" s="2">
+        <f>O165/N165*100</f>
+        <v>39.960413855150698</v>
+      </c>
+      <c r="AF164" s="2">
+        <f>P165/N165*100</f>
+        <v>3.6347278452541611</v>
+      </c>
+      <c r="AG164" s="2">
+        <f>Q165/N165*100</f>
+        <v>39.814664867296443</v>
+      </c>
+      <c r="AH164" s="2">
+        <f>R165/N165*100</f>
+        <v>3.3360323886639676</v>
+      </c>
+      <c r="AI164" s="2">
+        <f>S165/N165*100</f>
+        <v>13.254161043634728</v>
+      </c>
+    </row>
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>563</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B165" s="1">
         <v>96221</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C165" s="1">
         <v>43274</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D165" s="1">
         <v>3619</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E165" s="1">
         <v>38834</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F165" s="1">
         <v>2490</v>
       </c>
-      <c r="G164" s="1">
+      <c r="G165" s="1">
         <v>8004</v>
       </c>
-      <c r="H164" s="1">
+      <c r="H165" s="1">
         <v>40646</v>
       </c>
-      <c r="I164" s="1">
+      <c r="I165" s="1">
         <v>21066</v>
       </c>
-      <c r="J164" s="1">
+      <c r="J165" s="1">
         <v>1599</v>
       </c>
-      <c r="K164" s="1">
+      <c r="K165" s="1">
         <v>16707</v>
       </c>
-      <c r="L164" s="1">
+      <c r="L165" s="1">
         <v>636</v>
       </c>
-      <c r="M164" s="1">
+      <c r="M165" s="1">
         <v>638</v>
       </c>
-      <c r="N164" s="1">
+      <c r="N165" s="1">
         <v>55575</v>
       </c>
-      <c r="O164" s="1">
+      <c r="O165" s="1">
         <v>22208</v>
       </c>
-      <c r="P164" s="1">
+      <c r="P165" s="1">
         <v>2020</v>
       </c>
-      <c r="Q164" s="1">
+      <c r="Q165" s="1">
         <v>22127</v>
       </c>
-      <c r="R164" s="1">
+      <c r="R165" s="1">
         <v>1854</v>
       </c>
-      <c r="S164" s="1">
+      <c r="S165" s="1">
         <v>7366</v>
       </c>
-      <c r="U164" s="2">
+      <c r="U165" s="2">
         <f t="shared" si="30"/>
         <v>44.973550472350112</v>
       </c>
-      <c r="V164" s="2">
+      <c r="V165" s="2">
         <f t="shared" si="31"/>
         <v>3.7611332245559703</v>
       </c>
-      <c r="W164" s="2">
-        <f t="shared" si="32"/>
-        <v>40.359173153469619</v>
-      </c>
-      <c r="X164" s="2">
-        <f t="shared" si="33"/>
-        <v>2.587792685588385</v>
-      </c>
-      <c r="Y164" s="2">
-        <f t="shared" si="34"/>
-        <v>8.3183504640359178</v>
-      </c>
-      <c r="Z164" s="2">
-        <f t="shared" si="35"/>
-        <v>51.827978152831768</v>
-      </c>
-      <c r="AA164" s="2">
-        <f t="shared" si="36"/>
-        <v>3.9339664419623088</v>
-      </c>
-      <c r="AB164" s="2">
-        <f t="shared" si="37"/>
-        <v>41.103675638439206</v>
-      </c>
-      <c r="AC164" s="2">
-        <f t="shared" si="38"/>
-        <v>1.5647296166904492</v>
-      </c>
-      <c r="AD164" s="2">
-        <f t="shared" si="39"/>
-        <v>1.5696501500762683</v>
-      </c>
-      <c r="AE164" s="2">
-        <f t="shared" si="40"/>
-        <v>39.960413855150698</v>
-      </c>
-      <c r="AF164" s="2">
-        <f t="shared" si="41"/>
-        <v>3.6347278452541611</v>
-      </c>
-      <c r="AG164" s="2">
-        <f t="shared" si="42"/>
-        <v>39.814664867296443</v>
-      </c>
-      <c r="AH164" s="2">
-        <f t="shared" si="43"/>
-        <v>3.3360323886639676</v>
-      </c>
-      <c r="AI164" s="2">
-        <f t="shared" si="44"/>
-        <v>13.254161043634728</v>
-      </c>
-    </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="W165" s="2">
+        <f>E166/B166*100</f>
+        <v>34.721104679834916</v>
+      </c>
+      <c r="X165" s="2">
+        <f>F166/B166*100</f>
+        <v>2.7850598281724506</v>
+      </c>
+      <c r="Y165" s="2">
+        <f>G166/B166*100</f>
+        <v>8.8431489604692803</v>
+      </c>
+      <c r="Z165" s="2">
+        <f>I166/H166*100</f>
+        <v>54.436280563102002</v>
+      </c>
+      <c r="AA165" s="2">
+        <f>J166/H166*100</f>
+        <v>6.0385280316127439</v>
+      </c>
+      <c r="AB165" s="2">
+        <f>K166/H166*100</f>
+        <v>35.832921709063967</v>
+      </c>
+      <c r="AC165" s="2">
+        <f>L166/H166*100</f>
+        <v>1.6392936527537663</v>
+      </c>
+      <c r="AD165" s="2">
+        <f>M166/H166*100</f>
+        <v>2.0529760434675226</v>
+      </c>
+      <c r="AE165" s="2">
+        <f>O166/N166*100</f>
+        <v>43.161972146343643</v>
+      </c>
+      <c r="AF165" s="2">
+        <f>P166/N166*100</f>
+        <v>5.5393847118355648</v>
+      </c>
+      <c r="AG165" s="2">
+        <f>Q166/N166*100</f>
+        <v>33.914737360619768</v>
+      </c>
+      <c r="AH165" s="2">
+        <f>R166/N166*100</f>
+        <v>3.6160494380009851</v>
+      </c>
+      <c r="AI165" s="2">
+        <f>S166/N166*100</f>
+        <v>13.767856343200036</v>
+      </c>
+    </row>
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>567</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B166" s="1">
         <v>77054</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C166" s="1">
         <v>36910</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D166" s="1">
         <v>4430</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E166" s="1">
         <v>26754</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F166" s="1">
         <v>2146</v>
       </c>
-      <c r="G165" s="1">
+      <c r="G166" s="1">
         <v>6814</v>
       </c>
-      <c r="H165" s="1">
+      <c r="H166" s="1">
         <v>32392</v>
       </c>
-      <c r="I165" s="1">
+      <c r="I166" s="1">
         <v>17633</v>
       </c>
-      <c r="J165" s="1">
+      <c r="J166" s="1">
         <v>1956</v>
       </c>
-      <c r="K165" s="1">
+      <c r="K166" s="1">
         <v>11607</v>
       </c>
-      <c r="L165" s="1">
+      <c r="L166" s="1">
         <v>531</v>
       </c>
-      <c r="M165" s="1">
+      <c r="M166" s="1">
         <v>665</v>
       </c>
-      <c r="N165" s="1">
+      <c r="N166" s="1">
         <v>44662</v>
       </c>
-      <c r="O165" s="1">
+      <c r="O166" s="1">
         <v>19277</v>
       </c>
-      <c r="P165" s="1">
+      <c r="P166" s="1">
         <v>2474</v>
       </c>
-      <c r="Q165" s="1">
+      <c r="Q166" s="1">
         <v>15147</v>
       </c>
-      <c r="R165" s="1">
+      <c r="R166" s="1">
         <v>1615</v>
       </c>
-      <c r="S165" s="1">
+      <c r="S166" s="1">
         <v>6149</v>
       </c>
-      <c r="U165" s="2">
+      <c r="U166" s="2">
         <f t="shared" si="30"/>
         <v>47.901471695174813</v>
       </c>
-      <c r="V165" s="2">
+      <c r="V166" s="2">
         <f t="shared" si="31"/>
         <v>5.7492148363485347</v>
       </c>
-      <c r="W165" s="2">
-        <f t="shared" si="32"/>
-        <v>34.721104679834916</v>
-      </c>
-      <c r="X165" s="2">
-        <f t="shared" si="33"/>
-        <v>2.7850598281724506</v>
-      </c>
-      <c r="Y165" s="2">
-        <f t="shared" si="34"/>
-        <v>8.8431489604692803</v>
-      </c>
-      <c r="Z165" s="2">
-        <f t="shared" si="35"/>
-        <v>54.436280563102002</v>
-      </c>
-      <c r="AA165" s="2">
-        <f t="shared" si="36"/>
-        <v>6.0385280316127439</v>
-      </c>
-      <c r="AB165" s="2">
-        <f t="shared" si="37"/>
-        <v>35.832921709063967</v>
-      </c>
-      <c r="AC165" s="2">
-        <f t="shared" si="38"/>
-        <v>1.6392936527537663</v>
-      </c>
-      <c r="AD165" s="2">
-        <f t="shared" si="39"/>
-        <v>2.0529760434675226</v>
-      </c>
-      <c r="AE165" s="2">
-        <f t="shared" si="40"/>
-        <v>43.161972146343643</v>
-      </c>
-      <c r="AF165" s="2">
-        <f t="shared" si="41"/>
-        <v>5.5393847118355648</v>
-      </c>
-      <c r="AG165" s="2">
-        <f t="shared" si="42"/>
-        <v>33.914737360619768</v>
-      </c>
-      <c r="AH165" s="2">
-        <f t="shared" si="43"/>
-        <v>3.6160494380009851</v>
-      </c>
-      <c r="AI165" s="2">
-        <f t="shared" si="44"/>
-        <v>13.767856343200036</v>
-      </c>
-    </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="W166" s="2">
+        <f>E167/B167*100</f>
+        <v>47.031677301731996</v>
+      </c>
+      <c r="X166" s="2">
+        <f>F167/B167*100</f>
+        <v>2.7233363719234278</v>
+      </c>
+      <c r="Y166" s="2">
+        <f>G167/B167*100</f>
+        <v>9.1898359161349124</v>
+      </c>
+      <c r="Z166" s="2">
+        <f>I167/H167*100</f>
+        <v>48.109002928817013</v>
+      </c>
+      <c r="AA166" s="2">
+        <f>J167/H167*100</f>
+        <v>1.8082261556093211</v>
+      </c>
+      <c r="AB166" s="2">
+        <f>K167/H167*100</f>
+        <v>46.835604227683689</v>
+      </c>
+      <c r="AC166" s="2">
+        <f>L167/H167*100</f>
+        <v>1.3370686361899911</v>
+      </c>
+      <c r="AD166" s="2">
+        <f>M167/H167*100</f>
+        <v>1.9100980516999873</v>
+      </c>
+      <c r="AE166" s="2">
+        <f>O167/N167*100</f>
+        <v>32.539437055366534</v>
+      </c>
+      <c r="AF166" s="2">
+        <f>P167/N167*100</f>
+        <v>1.3403443653984948</v>
+      </c>
+      <c r="AG166" s="2">
+        <f>Q167/N167*100</f>
+        <v>47.190432003299307</v>
+      </c>
+      <c r="AH166" s="2">
+        <f>R167/N167*100</f>
+        <v>3.8457572945664502</v>
+      </c>
+      <c r="AI166" s="2">
+        <f>S167/N167*100</f>
+        <v>15.084029281369213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>571</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B167" s="1">
         <v>17552</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C167" s="1">
         <v>6934</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D167" s="1">
         <v>272</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E167" s="1">
         <v>8255</v>
       </c>
-      <c r="F166" s="1">
+      <c r="F167" s="1">
         <v>478</v>
       </c>
-      <c r="G166" s="1">
+      <c r="G167" s="1">
         <v>1613</v>
       </c>
-      <c r="H166" s="1">
+      <c r="H167" s="1">
         <v>7853</v>
       </c>
-      <c r="I166" s="1">
+      <c r="I167" s="1">
         <v>3778</v>
       </c>
-      <c r="J166" s="1">
+      <c r="J167" s="1">
         <v>142</v>
       </c>
-      <c r="K166" s="1">
+      <c r="K167" s="1">
         <v>3678</v>
       </c>
-      <c r="L166" s="1">
+      <c r="L167" s="1">
         <v>105</v>
       </c>
-      <c r="M166" s="1">
+      <c r="M167" s="1">
         <v>150</v>
       </c>
-      <c r="N166" s="1">
+      <c r="N167" s="1">
         <v>9699</v>
       </c>
-      <c r="O166" s="1">
+      <c r="O167" s="1">
         <v>3156</v>
       </c>
-      <c r="P166" s="1">
+      <c r="P167" s="1">
         <v>130</v>
       </c>
-      <c r="Q166" s="1">
+      <c r="Q167" s="1">
         <v>4577</v>
       </c>
-      <c r="R166" s="1">
+      <c r="R167" s="1">
         <v>373</v>
       </c>
-      <c r="S166" s="1">
+      <c r="S167" s="1">
         <v>1463</v>
       </c>
-      <c r="U166" s="2">
+      <c r="U167" s="2">
         <f t="shared" si="30"/>
         <v>39.50546946216955</v>
       </c>
-      <c r="V166" s="2">
+      <c r="V167" s="2">
         <f t="shared" si="31"/>
         <v>1.5496809480401095</v>
       </c>
-      <c r="W166" s="2">
-        <f t="shared" si="32"/>
-        <v>47.031677301731996</v>
-      </c>
-      <c r="X166" s="2">
-        <f t="shared" si="33"/>
-        <v>2.7233363719234278</v>
-      </c>
-      <c r="Y166" s="2">
-        <f t="shared" si="34"/>
-        <v>9.1898359161349124</v>
-      </c>
-      <c r="Z166" s="2">
-        <f t="shared" si="35"/>
-        <v>48.109002928817013</v>
-      </c>
-      <c r="AA166" s="2">
-        <f t="shared" si="36"/>
-        <v>1.8082261556093211</v>
-      </c>
-      <c r="AB166" s="2">
-        <f t="shared" si="37"/>
-        <v>46.835604227683689</v>
-      </c>
-      <c r="AC166" s="2">
-        <f t="shared" si="38"/>
-        <v>1.3370686361899911</v>
-      </c>
-      <c r="AD166" s="2">
-        <f t="shared" si="39"/>
-        <v>1.9100980516999873</v>
-      </c>
-      <c r="AE166" s="2">
-        <f t="shared" si="40"/>
-        <v>32.539437055366534</v>
-      </c>
-      <c r="AF166" s="2">
-        <f t="shared" si="41"/>
-        <v>1.3403443653984948</v>
-      </c>
-      <c r="AG166" s="2">
-        <f t="shared" si="42"/>
-        <v>47.190432003299307</v>
-      </c>
-      <c r="AH166" s="2">
-        <f t="shared" si="43"/>
-        <v>3.8457572945664502</v>
-      </c>
-      <c r="AI166" s="2">
-        <f t="shared" si="44"/>
-        <v>15.084029281369213</v>
-      </c>
-    </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="W167" s="2" t="e">
+        <f>E168/B168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X167" s="2" t="e">
+        <f>F168/B168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y167" s="2" t="e">
+        <f>G168/B168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z167" s="2" t="e">
+        <f>I168/H168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA167" s="2" t="e">
+        <f>J168/H168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB167" s="2" t="e">
+        <f>K168/H168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC167" s="2" t="e">
+        <f>L168/H168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD167" s="2" t="e">
+        <f>M168/H168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE167" s="2" t="e">
+        <f>O168/N168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF167" s="2" t="e">
+        <f>P168/N168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG167" s="2" t="e">
+        <f>Q168/N168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH167" s="2" t="e">
+        <f>R168/N168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI167" s="2" t="e">
+        <f>S168/N168*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>628</v>
       </c>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
-      <c r="U167" s="2" t="e">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="U168" s="2" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V167" s="2" t="e">
+      <c r="V168" s="2" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W167" s="2" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X167" s="2" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y167" s="2" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z167" s="2" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA167" s="2" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB167" s="2" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC167" s="2" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD167" s="2" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE167" s="2" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF167" s="2" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG167" s="2" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH167" s="2" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI167" s="2" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="W168" s="2">
+        <f>E169/B169*100</f>
+        <v>39.362435646570248</v>
+      </c>
+      <c r="X168" s="2">
+        <f>F169/B169*100</f>
+        <v>2.6513197692376824</v>
+      </c>
+      <c r="Y168" s="2">
+        <f>G169/B169*100</f>
+        <v>4.0327519969670718</v>
+      </c>
+      <c r="Z168" s="2">
+        <f>I169/H169*100</f>
+        <v>48.27549670575241</v>
+      </c>
+      <c r="AA168" s="2">
+        <f>J169/H169*100</f>
+        <v>8.1720457727033367</v>
+      </c>
+      <c r="AB168" s="2">
+        <f>K169/H169*100</f>
+        <v>40.888323080282035</v>
+      </c>
+      <c r="AC168" s="2">
+        <f>L169/H169*100</f>
+        <v>1.5525666876436817</v>
+      </c>
+      <c r="AD168" s="2">
+        <f>M169/H169*100</f>
+        <v>1.1115677536185351</v>
+      </c>
+      <c r="AE168" s="2">
+        <f>O169/N169*100</f>
+        <v>44.24774217837539</v>
+      </c>
+      <c r="AF168" s="2">
+        <f>P169/N169*100</f>
+        <v>7.4902777837197263</v>
+      </c>
+      <c r="AG168" s="2">
+        <f>Q169/N169*100</f>
+        <v>38.006984879404584</v>
+      </c>
+      <c r="AH168" s="2">
+        <f>R169/N169*100</f>
+        <v>3.6273457030442269</v>
+      </c>
+      <c r="AI168" s="2">
+        <f>S169/N169*100</f>
+        <v>6.6276494554560639</v>
+      </c>
+    </row>
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>574</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B169" s="1">
         <v>1324133</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C169" s="1">
         <v>610988</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D169" s="1">
         <v>103428</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E169" s="1">
         <v>521211</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F169" s="1">
         <v>35107</v>
       </c>
-      <c r="G168" s="1">
+      <c r="G169" s="1">
         <v>53399</v>
       </c>
-      <c r="H168" s="1">
+      <c r="H169" s="1">
         <v>622904</v>
       </c>
-      <c r="I168" s="1">
+      <c r="I169" s="1">
         <v>300710</v>
       </c>
-      <c r="J168" s="1">
+      <c r="J169" s="1">
         <v>50904</v>
       </c>
-      <c r="K168" s="1">
+      <c r="K169" s="1">
         <v>254695</v>
       </c>
-      <c r="L168" s="1">
+      <c r="L169" s="1">
         <v>9671</v>
       </c>
-      <c r="M168" s="1">
+      <c r="M169" s="1">
         <v>6924</v>
       </c>
-      <c r="N168" s="1">
+      <c r="N169" s="1">
         <v>701229</v>
       </c>
-      <c r="O168" s="1">
+      <c r="O169" s="1">
         <v>310278</v>
       </c>
-      <c r="P168" s="1">
+      <c r="P169" s="1">
         <v>52524</v>
       </c>
-      <c r="Q168" s="1">
+      <c r="Q169" s="1">
         <v>266516</v>
       </c>
-      <c r="R168" s="1">
+      <c r="R169" s="1">
         <v>25436</v>
       </c>
-      <c r="S168" s="1">
+      <c r="S169" s="1">
         <v>46475</v>
       </c>
-      <c r="U168" s="2">
+      <c r="U169" s="2">
         <f t="shared" si="30"/>
         <v>46.142494749394508</v>
       </c>
-      <c r="V168" s="2">
+      <c r="V169" s="2">
         <f t="shared" si="31"/>
         <v>7.8109978378304898</v>
       </c>
-      <c r="W168" s="2">
-        <f t="shared" si="32"/>
-        <v>39.362435646570248</v>
-      </c>
-      <c r="X168" s="2">
-        <f t="shared" si="33"/>
-        <v>2.6513197692376824</v>
-      </c>
-      <c r="Y168" s="2">
-        <f t="shared" si="34"/>
-        <v>4.0327519969670718</v>
-      </c>
-      <c r="Z168" s="2">
-        <f t="shared" si="35"/>
-        <v>48.27549670575241</v>
-      </c>
-      <c r="AA168" s="2">
-        <f t="shared" si="36"/>
-        <v>8.1720457727033367</v>
-      </c>
-      <c r="AB168" s="2">
-        <f t="shared" si="37"/>
-        <v>40.888323080282035</v>
-      </c>
-      <c r="AC168" s="2">
-        <f t="shared" si="38"/>
-        <v>1.5525666876436817</v>
-      </c>
-      <c r="AD168" s="2">
-        <f t="shared" si="39"/>
-        <v>1.1115677536185351</v>
-      </c>
-      <c r="AE168" s="2">
-        <f t="shared" si="40"/>
-        <v>44.24774217837539</v>
-      </c>
-      <c r="AF168" s="2">
-        <f t="shared" si="41"/>
-        <v>7.4902777837197263</v>
-      </c>
-      <c r="AG168" s="2">
-        <f t="shared" si="42"/>
-        <v>38.006984879404584</v>
-      </c>
-      <c r="AH168" s="2">
-        <f t="shared" si="43"/>
-        <v>3.6273457030442269</v>
-      </c>
-      <c r="AI168" s="2">
-        <f t="shared" si="44"/>
-        <v>6.6276494554560639</v>
-      </c>
-    </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="W169" s="2">
+        <f>E170/B170*100</f>
+        <v>37.036309304515122</v>
+      </c>
+      <c r="X169" s="2">
+        <f>F170/B170*100</f>
+        <v>2.3050472798722832</v>
+      </c>
+      <c r="Y169" s="2">
+        <f>G170/B170*100</f>
+        <v>3.1901974429298514</v>
+      </c>
+      <c r="Z169" s="2">
+        <f>I170/H170*100</f>
+        <v>49.785617007525047</v>
+      </c>
+      <c r="AA169" s="2">
+        <f>J170/H170*100</f>
+        <v>9.4412192419555883</v>
+      </c>
+      <c r="AB169" s="2">
+        <f>K170/H170*100</f>
+        <v>38.573357647384697</v>
+      </c>
+      <c r="AC169" s="2">
+        <f>L170/H170*100</f>
+        <v>1.2796616038040718</v>
+      </c>
+      <c r="AD169" s="2">
+        <f>M170/H170*100</f>
+        <v>0.92014449933059428</v>
+      </c>
+      <c r="AE169" s="2">
+        <f>O170/N170*100</f>
+        <v>47.145956188809556</v>
+      </c>
+      <c r="AF169" s="2">
+        <f>P170/N170*100</f>
+        <v>8.7448937855622919</v>
+      </c>
+      <c r="AG169" s="2">
+        <f>Q170/N170*100</f>
+        <v>35.657297291700104</v>
+      </c>
+      <c r="AH169" s="2">
+        <f>R170/N170*100</f>
+        <v>3.2250047890984588</v>
+      </c>
+      <c r="AI169" s="2">
+        <f>S170/N170*100</f>
+        <v>5.2268479448295855</v>
+      </c>
+    </row>
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>575</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B170" s="1">
         <v>732870</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C170" s="1">
         <v>354667</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D170" s="1">
         <v>66502</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E170" s="1">
         <v>271428</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F170" s="1">
         <v>16893</v>
       </c>
-      <c r="G169" s="1">
+      <c r="G170" s="1">
         <v>23380</v>
       </c>
-      <c r="H169" s="1">
+      <c r="H170" s="1">
         <v>346576</v>
       </c>
-      <c r="I169" s="1">
+      <c r="I170" s="1">
         <v>172545</v>
       </c>
-      <c r="J169" s="1">
+      <c r="J170" s="1">
         <v>32721</v>
       </c>
-      <c r="K169" s="1">
+      <c r="K170" s="1">
         <v>133686</v>
       </c>
-      <c r="L169" s="1">
+      <c r="L170" s="1">
         <v>4435</v>
       </c>
-      <c r="M169" s="1">
+      <c r="M170" s="1">
         <v>3189</v>
       </c>
-      <c r="N169" s="1">
+      <c r="N170" s="1">
         <v>386294</v>
       </c>
-      <c r="O169" s="1">
+      <c r="O170" s="1">
         <v>182122</v>
       </c>
-      <c r="P169" s="1">
+      <c r="P170" s="1">
         <v>33781</v>
       </c>
-      <c r="Q169" s="1">
+      <c r="Q170" s="1">
         <v>137742</v>
       </c>
-      <c r="R169" s="1">
+      <c r="R170" s="1">
         <v>12458</v>
       </c>
-      <c r="S169" s="1">
+      <c r="S170" s="1">
         <v>20191</v>
       </c>
-      <c r="U169" s="2">
+      <c r="U170" s="2">
         <f t="shared" si="30"/>
         <v>48.39425819040212</v>
       </c>
-      <c r="V169" s="2">
+      <c r="V170" s="2">
         <f t="shared" si="31"/>
         <v>9.0741877822806227</v>
       </c>
-      <c r="W169" s="2">
-        <f t="shared" si="32"/>
-        <v>37.036309304515122</v>
-      </c>
-      <c r="X169" s="2">
-        <f t="shared" si="33"/>
-        <v>2.3050472798722832</v>
-      </c>
-      <c r="Y169" s="2">
-        <f t="shared" si="34"/>
-        <v>3.1901974429298514</v>
-      </c>
-      <c r="Z169" s="2">
-        <f t="shared" si="35"/>
-        <v>49.785617007525047</v>
-      </c>
-      <c r="AA169" s="2">
-        <f t="shared" si="36"/>
-        <v>9.4412192419555883</v>
-      </c>
-      <c r="AB169" s="2">
-        <f t="shared" si="37"/>
-        <v>38.573357647384697</v>
-      </c>
-      <c r="AC169" s="2">
-        <f t="shared" si="38"/>
-        <v>1.2796616038040718</v>
-      </c>
-      <c r="AD169" s="2">
-        <f t="shared" si="39"/>
-        <v>0.92014449933059428</v>
-      </c>
-      <c r="AE169" s="2">
-        <f t="shared" si="40"/>
-        <v>47.145956188809556</v>
-      </c>
-      <c r="AF169" s="2">
-        <f t="shared" si="41"/>
-        <v>8.7448937855622919</v>
-      </c>
-      <c r="AG169" s="2">
-        <f t="shared" si="42"/>
-        <v>35.657297291700104</v>
-      </c>
-      <c r="AH169" s="2">
-        <f t="shared" si="43"/>
-        <v>3.2250047890984588</v>
-      </c>
-      <c r="AI169" s="2">
-        <f t="shared" si="44"/>
-        <v>5.2268479448295855</v>
-      </c>
-    </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="W170" s="2">
+        <f>E171/B171*100</f>
+        <v>42.196339203287359</v>
+      </c>
+      <c r="X170" s="2">
+        <f>F171/B171*100</f>
+        <v>2.6459911013625605</v>
+      </c>
+      <c r="Y170" s="2">
+        <f>G171/B171*100</f>
+        <v>3.7781032436296997</v>
+      </c>
+      <c r="Z170" s="2">
+        <f>I171/H171*100</f>
+        <v>45.385492931305862</v>
+      </c>
+      <c r="AA170" s="2">
+        <f>J171/H171*100</f>
+        <v>8.4882092160175606</v>
+      </c>
+      <c r="AB170" s="2">
+        <f>K171/H171*100</f>
+        <v>43.541422980837268</v>
+      </c>
+      <c r="AC170" s="2">
+        <f>L171/H171*100</f>
+        <v>1.5509249231035827</v>
+      </c>
+      <c r="AD170" s="2">
+        <f>M171/H171*100</f>
+        <v>1.0339499487357218</v>
+      </c>
+      <c r="AE170" s="2">
+        <f>O171/N171*100</f>
+        <v>41.107754818359219</v>
+      </c>
+      <c r="AF170" s="2">
+        <f>P171/N171*100</f>
+        <v>7.9633243337164856</v>
+      </c>
+      <c r="AG170" s="2">
+        <f>Q171/N171*100</f>
+        <v>40.951375337485629</v>
+      </c>
+      <c r="AH170" s="2">
+        <f>R171/N171*100</f>
+        <v>3.6595471677938467</v>
+      </c>
+      <c r="AI170" s="2">
+        <f>S171/N171*100</f>
+        <v>6.3179983426448176</v>
+      </c>
+    </row>
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>579</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B171" s="1">
         <v>144067</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C171" s="1">
         <v>62185</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D171" s="1">
         <v>11836</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E171" s="1">
         <v>60791</v>
       </c>
-      <c r="F170" s="1">
+      <c r="F171" s="1">
         <v>3812</v>
       </c>
-      <c r="G170" s="1">
+      <c r="G171" s="1">
         <v>5443</v>
       </c>
-      <c r="H170" s="1">
+      <c r="H171" s="1">
         <v>69249</v>
       </c>
-      <c r="I170" s="1">
+      <c r="I171" s="1">
         <v>31429</v>
       </c>
-      <c r="J170" s="1">
+      <c r="J171" s="1">
         <v>5878</v>
       </c>
-      <c r="K170" s="1">
+      <c r="K171" s="1">
         <v>30152</v>
       </c>
-      <c r="L170" s="1">
+      <c r="L171" s="1">
         <v>1074</v>
       </c>
-      <c r="M170" s="1">
+      <c r="M171" s="1">
         <v>716</v>
       </c>
-      <c r="N170" s="1">
+      <c r="N171" s="1">
         <v>74818</v>
       </c>
-      <c r="O170" s="1">
+      <c r="O171" s="1">
         <v>30756</v>
       </c>
-      <c r="P170" s="1">
+      <c r="P171" s="1">
         <v>5958</v>
       </c>
-      <c r="Q170" s="1">
+      <c r="Q171" s="1">
         <v>30639</v>
       </c>
-      <c r="R170" s="1">
+      <c r="R171" s="1">
         <v>2738</v>
       </c>
-      <c r="S170" s="1">
+      <c r="S171" s="1">
         <v>4727</v>
       </c>
-      <c r="U170" s="2">
+      <c r="U171" s="2">
         <f t="shared" si="30"/>
         <v>43.163944553575767</v>
       </c>
-      <c r="V170" s="2">
+      <c r="V171" s="2">
         <f t="shared" si="31"/>
         <v>8.2156218981446134</v>
       </c>
-      <c r="W170" s="2">
-        <f t="shared" si="32"/>
-        <v>42.196339203287359</v>
-      </c>
-      <c r="X170" s="2">
-        <f t="shared" si="33"/>
-        <v>2.6459911013625605</v>
-      </c>
-      <c r="Y170" s="2">
-        <f t="shared" si="34"/>
-        <v>3.7781032436296997</v>
-      </c>
-      <c r="Z170" s="2">
-        <f t="shared" si="35"/>
-        <v>45.385492931305862</v>
-      </c>
-      <c r="AA170" s="2">
-        <f t="shared" si="36"/>
-        <v>8.4882092160175606</v>
-      </c>
-      <c r="AB170" s="2">
-        <f t="shared" si="37"/>
-        <v>43.541422980837268</v>
-      </c>
-      <c r="AC170" s="2">
-        <f t="shared" si="38"/>
-        <v>1.5509249231035827</v>
-      </c>
-      <c r="AD170" s="2">
-        <f t="shared" si="39"/>
-        <v>1.0339499487357218</v>
-      </c>
-      <c r="AE170" s="2">
-        <f t="shared" si="40"/>
-        <v>41.107754818359219</v>
-      </c>
-      <c r="AF170" s="2">
-        <f t="shared" si="41"/>
-        <v>7.9633243337164856</v>
-      </c>
-      <c r="AG170" s="2">
-        <f t="shared" si="42"/>
-        <v>40.951375337485629</v>
-      </c>
-      <c r="AH170" s="2">
-        <f t="shared" si="43"/>
-        <v>3.6595471677938467</v>
-      </c>
-      <c r="AI170" s="2">
-        <f t="shared" si="44"/>
-        <v>6.3179983426448176</v>
-      </c>
-    </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="W171" s="2">
+        <f>E172/B172*100</f>
+        <v>43.352729974000248</v>
+      </c>
+      <c r="X171" s="2">
+        <f>F172/B172*100</f>
+        <v>2.8401634270149807</v>
+      </c>
+      <c r="Y171" s="2">
+        <f>G172/B172*100</f>
+        <v>9.0404853287111546</v>
+      </c>
+      <c r="Z171" s="2">
+        <f>I172/H172*100</f>
+        <v>48.390469377648159</v>
+      </c>
+      <c r="AA171" s="2">
+        <f>J172/H172*100</f>
+        <v>2.7843504099488254</v>
+      </c>
+      <c r="AB171" s="2">
+        <f>K172/H172*100</f>
+        <v>44.637649259891049</v>
+      </c>
+      <c r="AC171" s="2">
+        <f>L172/H172*100</f>
+        <v>2.0359874539151486</v>
+      </c>
+      <c r="AD171" s="2">
+        <f>M172/H172*100</f>
+        <v>2.1515434985968196</v>
+      </c>
+      <c r="AE171" s="2">
+        <f>O172/N172*100</f>
+        <v>37.254637133081218</v>
+      </c>
+      <c r="AF171" s="2">
+        <f>P172/N172*100</f>
+        <v>2.2690437601296596</v>
+      </c>
+      <c r="AG171" s="2">
+        <f>Q172/N172*100</f>
+        <v>42.301458670988659</v>
+      </c>
+      <c r="AH171" s="2">
+        <f>R172/N172*100</f>
+        <v>3.4981091301998917</v>
+      </c>
+      <c r="AI171" s="2">
+        <f>S172/N172*100</f>
+        <v>14.676751305600577</v>
+      </c>
+    </row>
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>582</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B172" s="1">
         <v>40385</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C172" s="1">
         <v>17069</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D172" s="1">
         <v>1010</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E172" s="1">
         <v>17508</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F172" s="1">
         <v>1147</v>
       </c>
-      <c r="G171" s="1">
+      <c r="G172" s="1">
         <v>3651</v>
       </c>
-      <c r="H171" s="1">
+      <c r="H172" s="1">
         <v>18173</v>
       </c>
-      <c r="I171" s="1">
+      <c r="I172" s="1">
         <v>8794</v>
       </c>
-      <c r="J171" s="1">
+      <c r="J172" s="1">
         <v>506</v>
       </c>
-      <c r="K171" s="1">
+      <c r="K172" s="1">
         <v>8112</v>
       </c>
-      <c r="L171" s="1">
+      <c r="L172" s="1">
         <v>370</v>
       </c>
-      <c r="M171" s="1">
+      <c r="M172" s="1">
         <v>391</v>
       </c>
-      <c r="N171" s="1">
+      <c r="N172" s="1">
         <v>22212</v>
       </c>
-      <c r="O171" s="1">
+      <c r="O172" s="1">
         <v>8275</v>
       </c>
-      <c r="P171" s="1">
+      <c r="P172" s="1">
         <v>504</v>
       </c>
-      <c r="Q171" s="1">
+      <c r="Q172" s="1">
         <v>9396</v>
       </c>
-      <c r="R171" s="1">
+      <c r="R172" s="1">
         <v>777</v>
       </c>
-      <c r="S171" s="1">
+      <c r="S172" s="1">
         <v>3260</v>
       </c>
-      <c r="U171" s="2">
+      <c r="U172" s="2">
         <f t="shared" si="30"/>
         <v>42.265692707688494</v>
       </c>
-      <c r="V171" s="2">
+      <c r="V172" s="2">
         <f t="shared" si="31"/>
         <v>2.5009285625851181</v>
       </c>
-      <c r="W171" s="2">
-        <f t="shared" si="32"/>
-        <v>43.352729974000248</v>
-      </c>
-      <c r="X171" s="2">
-        <f t="shared" si="33"/>
-        <v>2.8401634270149807</v>
-      </c>
-      <c r="Y171" s="2">
-        <f t="shared" si="34"/>
-        <v>9.0404853287111546</v>
-      </c>
-      <c r="Z171" s="2">
-        <f t="shared" si="35"/>
-        <v>48.390469377648159</v>
-      </c>
-      <c r="AA171" s="2">
-        <f t="shared" si="36"/>
-        <v>2.7843504099488254</v>
-      </c>
-      <c r="AB171" s="2">
-        <f t="shared" si="37"/>
-        <v>44.637649259891049</v>
-      </c>
-      <c r="AC171" s="2">
-        <f t="shared" si="38"/>
-        <v>2.0359874539151486</v>
-      </c>
-      <c r="AD171" s="2">
-        <f t="shared" si="39"/>
-        <v>2.1515434985968196</v>
-      </c>
-      <c r="AE171" s="2">
-        <f t="shared" si="40"/>
-        <v>37.254637133081218</v>
-      </c>
-      <c r="AF171" s="2">
-        <f t="shared" si="41"/>
-        <v>2.2690437601296596</v>
-      </c>
-      <c r="AG171" s="2">
-        <f t="shared" si="42"/>
-        <v>42.301458670988659</v>
-      </c>
-      <c r="AH171" s="2">
-        <f t="shared" si="43"/>
-        <v>3.4981091301998917</v>
-      </c>
-      <c r="AI171" s="2">
-        <f t="shared" si="44"/>
-        <v>14.676751305600577</v>
-      </c>
-    </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="W172" s="2">
+        <f>E173/B173*100</f>
+        <v>41.311758455817248</v>
+      </c>
+      <c r="X172" s="2">
+        <f>F173/B173*100</f>
+        <v>4.3238297621155777</v>
+      </c>
+      <c r="Y172" s="2">
+        <f>G173/B173*100</f>
+        <v>6.936573992090195</v>
+      </c>
+      <c r="Z172" s="2">
+        <f>I173/H173*100</f>
+        <v>48.289784663865547</v>
+      </c>
+      <c r="AA172" s="2">
+        <f>J173/H173*100</f>
+        <v>4.48890493697479</v>
+      </c>
+      <c r="AB172" s="2">
+        <f>K173/H173*100</f>
+        <v>42.949054621848738</v>
+      </c>
+      <c r="AC172" s="2">
+        <f>L173/H173*100</f>
+        <v>2.6227678571428572</v>
+      </c>
+      <c r="AD172" s="2">
+        <f>M173/H173*100</f>
+        <v>1.6494879201680672</v>
+      </c>
+      <c r="AE172" s="2">
+        <f>O173/N173*100</f>
+        <v>39.148793565683647</v>
+      </c>
+      <c r="AF172" s="2">
+        <f>P173/N173*100</f>
+        <v>3.9088471849865956</v>
+      </c>
+      <c r="AG172" s="2">
+        <f>Q173/N173*100</f>
+        <v>39.974530831099194</v>
+      </c>
+      <c r="AH172" s="2">
+        <f>R173/N173*100</f>
+        <v>5.7131367292225201</v>
+      </c>
+      <c r="AI172" s="2">
+        <f>S173/N173*100</f>
+        <v>11.254691689008043</v>
+      </c>
+    </row>
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>588</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B173" s="1">
         <v>135528</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C173" s="1">
         <v>58627</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D173" s="1">
         <v>5651</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E173" s="1">
         <v>55989</v>
       </c>
-      <c r="F172" s="1">
+      <c r="F173" s="1">
         <v>5860</v>
       </c>
-      <c r="G172" s="1">
+      <c r="G173" s="1">
         <v>9401</v>
       </c>
-      <c r="H172" s="1">
+      <c r="H173" s="1">
         <v>60928</v>
       </c>
-      <c r="I172" s="1">
+      <c r="I173" s="1">
         <v>29422</v>
       </c>
-      <c r="J172" s="1">
+      <c r="J173" s="1">
         <v>2735</v>
       </c>
-      <c r="K172" s="1">
+      <c r="K173" s="1">
         <v>26168</v>
       </c>
-      <c r="L172" s="1">
+      <c r="L173" s="1">
         <v>1598</v>
       </c>
-      <c r="M172" s="1">
+      <c r="M173" s="1">
         <v>1005</v>
       </c>
-      <c r="N172" s="1">
+      <c r="N173" s="1">
         <v>74600</v>
       </c>
-      <c r="O172" s="1">
+      <c r="O173" s="1">
         <v>29205</v>
       </c>
-      <c r="P172" s="1">
+      <c r="P173" s="1">
         <v>2916</v>
       </c>
-      <c r="Q172" s="1">
+      <c r="Q173" s="1">
         <v>29821</v>
       </c>
-      <c r="R172" s="1">
+      <c r="R173" s="1">
         <v>4262</v>
       </c>
-      <c r="S172" s="1">
+      <c r="S173" s="1">
         <v>8396</v>
       </c>
-      <c r="U172" s="2">
+      <c r="U173" s="2">
         <f t="shared" si="30"/>
         <v>43.258219703677469</v>
       </c>
-      <c r="V172" s="2">
+      <c r="V173" s="2">
         <f t="shared" si="31"/>
         <v>4.1696180862995096</v>
       </c>
-      <c r="W172" s="2">
-        <f t="shared" si="32"/>
-        <v>41.311758455817248</v>
-      </c>
-      <c r="X172" s="2">
-        <f t="shared" si="33"/>
-        <v>4.3238297621155777</v>
-      </c>
-      <c r="Y172" s="2">
-        <f t="shared" si="34"/>
-        <v>6.936573992090195</v>
-      </c>
-      <c r="Z172" s="2">
-        <f t="shared" si="35"/>
-        <v>48.289784663865547</v>
-      </c>
-      <c r="AA172" s="2">
-        <f t="shared" si="36"/>
-        <v>4.48890493697479</v>
-      </c>
-      <c r="AB172" s="2">
-        <f t="shared" si="37"/>
-        <v>42.949054621848738</v>
-      </c>
-      <c r="AC172" s="2">
-        <f t="shared" si="38"/>
-        <v>2.6227678571428572</v>
-      </c>
-      <c r="AD172" s="2">
-        <f t="shared" si="39"/>
-        <v>1.6494879201680672</v>
-      </c>
-      <c r="AE172" s="2">
-        <f t="shared" si="40"/>
-        <v>39.148793565683647</v>
-      </c>
-      <c r="AF172" s="2">
-        <f t="shared" si="41"/>
-        <v>3.9088471849865956</v>
-      </c>
-      <c r="AG172" s="2">
-        <f t="shared" si="42"/>
-        <v>39.974530831099194</v>
-      </c>
-      <c r="AH172" s="2">
-        <f t="shared" si="43"/>
-        <v>5.7131367292225201</v>
-      </c>
-      <c r="AI172" s="2">
-        <f t="shared" si="44"/>
-        <v>11.254691689008043</v>
-      </c>
-    </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="W173" s="2">
+        <f>E174/B174*100</f>
+        <v>41.543988783736417</v>
+      </c>
+      <c r="X173" s="2">
+        <f>F174/B174*100</f>
+        <v>2.4319879209469115</v>
+      </c>
+      <c r="Y173" s="2">
+        <f>G174/B174*100</f>
+        <v>3.2253498341826421</v>
+      </c>
+      <c r="Z173" s="2">
+        <f>I174/H174*100</f>
+        <v>45.081718032976738</v>
+      </c>
+      <c r="AA173" s="2">
+        <f>J174/H174*100</f>
+        <v>9.1431549385486193</v>
+      </c>
+      <c r="AB173" s="2">
+        <f>K174/H174*100</f>
+        <v>43.553033483403055</v>
+      </c>
+      <c r="AC173" s="2">
+        <f>L174/H174*100</f>
+        <v>1.3549703962130315</v>
+      </c>
+      <c r="AD173" s="2">
+        <f>M174/H174*100</f>
+        <v>0.86712314885855324</v>
+      </c>
+      <c r="AE173" s="2">
+        <f>O174/N174*100</f>
+        <v>43.176457232236338</v>
+      </c>
+      <c r="AF173" s="2">
+        <f>P174/N174*100</f>
+        <v>8.3794795464005958</v>
+      </c>
+      <c r="AG173" s="2">
+        <f>Q174/N174*100</f>
+        <v>39.793382696116147</v>
+      </c>
+      <c r="AH173" s="2">
+        <f>R174/N174*100</f>
+        <v>3.3704605371040781</v>
+      </c>
+      <c r="AI173" s="2">
+        <f>S174/N174*100</f>
+        <v>5.2802199881428411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>595</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B174" s="1">
         <v>148356</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C174" s="1">
         <v>65371</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D174" s="1">
         <v>12959</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E174" s="1">
         <v>61633</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F174" s="1">
         <v>3608</v>
       </c>
-      <c r="G173" s="1">
+      <c r="G174" s="1">
         <v>4785</v>
       </c>
-      <c r="H173" s="1">
+      <c r="H174" s="1">
         <v>69079</v>
       </c>
-      <c r="I173" s="1">
+      <c r="I174" s="1">
         <v>31142</v>
       </c>
-      <c r="J173" s="1">
+      <c r="J174" s="1">
         <v>6316</v>
       </c>
-      <c r="K173" s="1">
+      <c r="K174" s="1">
         <v>30086</v>
       </c>
-      <c r="L173" s="1">
+      <c r="L174" s="1">
         <v>936</v>
       </c>
-      <c r="M173" s="1">
+      <c r="M174" s="1">
         <v>599</v>
       </c>
-      <c r="N173" s="1">
+      <c r="N174" s="1">
         <v>79277</v>
       </c>
-      <c r="O173" s="1">
+      <c r="O174" s="1">
         <v>34229</v>
       </c>
-      <c r="P173" s="1">
+      <c r="P174" s="1">
         <v>6643</v>
       </c>
-      <c r="Q173" s="1">
+      <c r="Q174" s="1">
         <v>31547</v>
       </c>
-      <c r="R173" s="1">
+      <c r="R174" s="1">
         <v>2672</v>
       </c>
-      <c r="S173" s="1">
+      <c r="S174" s="1">
         <v>4186</v>
       </c>
-      <c r="U173" s="2">
+      <c r="U174" s="2">
         <f t="shared" si="30"/>
         <v>44.063603763919225</v>
       </c>
-      <c r="V173" s="2">
+      <c r="V174" s="2">
         <f t="shared" si="31"/>
         <v>8.7350696972148079</v>
       </c>
-      <c r="W173" s="2">
-        <f t="shared" si="32"/>
-        <v>41.543988783736417</v>
-      </c>
-      <c r="X173" s="2">
-        <f t="shared" si="33"/>
-        <v>2.4319879209469115</v>
-      </c>
-      <c r="Y173" s="2">
-        <f t="shared" si="34"/>
-        <v>3.2253498341826421</v>
-      </c>
-      <c r="Z173" s="2">
-        <f t="shared" si="35"/>
-        <v>45.081718032976738</v>
-      </c>
-      <c r="AA173" s="2">
-        <f t="shared" si="36"/>
-        <v>9.1431549385486193</v>
-      </c>
-      <c r="AB173" s="2">
-        <f t="shared" si="37"/>
-        <v>43.553033483403055</v>
-      </c>
-      <c r="AC173" s="2">
-        <f t="shared" si="38"/>
-        <v>1.3549703962130315</v>
-      </c>
-      <c r="AD173" s="2">
-        <f t="shared" si="39"/>
-        <v>0.86712314885855324</v>
-      </c>
-      <c r="AE173" s="2">
-        <f t="shared" si="40"/>
-        <v>43.176457232236338</v>
-      </c>
-      <c r="AF173" s="2">
-        <f t="shared" si="41"/>
-        <v>8.3794795464005958</v>
-      </c>
-      <c r="AG173" s="2">
-        <f t="shared" si="42"/>
-        <v>39.793382696116147</v>
-      </c>
-      <c r="AH173" s="2">
-        <f t="shared" si="43"/>
-        <v>3.3704605371040781</v>
-      </c>
-      <c r="AI173" s="2">
-        <f t="shared" si="44"/>
-        <v>5.2802199881428411</v>
-      </c>
-    </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="W174" s="2">
+        <f>E175/B175*100</f>
+        <v>44.642678827014613</v>
+      </c>
+      <c r="X174" s="2">
+        <f>F175/B175*100</f>
+        <v>4.3471024864361079</v>
+      </c>
+      <c r="Y174" s="2">
+        <f>G175/B175*100</f>
+        <v>6.550610791199281</v>
+      </c>
+      <c r="Z174" s="2">
+        <f>I175/H175*100</f>
+        <v>44.591656475064546</v>
+      </c>
+      <c r="AA174" s="2">
+        <f>J175/H175*100</f>
+        <v>4.4299497214295425</v>
+      </c>
+      <c r="AB174" s="2">
+        <f>K175/H175*100</f>
+        <v>45.549667074330749</v>
+      </c>
+      <c r="AC174" s="2">
+        <f>L175/H175*100</f>
+        <v>3.2137518684603883</v>
+      </c>
+      <c r="AD174" s="2">
+        <f>M175/H175*100</f>
+        <v>2.2149748607147712</v>
+      </c>
+      <c r="AE174" s="2">
+        <f>O175/N175*100</f>
+        <v>36.398042414355629</v>
+      </c>
+      <c r="AF174" s="2">
+        <f>P175/N175*100</f>
+        <v>3.6802610114192493</v>
+      </c>
+      <c r="AG174" s="2">
+        <f>Q175/N175*100</f>
+        <v>43.771615008156608</v>
+      </c>
+      <c r="AH174" s="2">
+        <f>R175/N175*100</f>
+        <v>5.435562805872757</v>
+      </c>
+      <c r="AI174" s="2">
+        <f>S175/N175*100</f>
+        <v>10.714518760195759</v>
+      </c>
+    </row>
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>598</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B175" s="1">
         <v>30043</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C175" s="1">
         <v>12141</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D175" s="1">
         <v>1216</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E175" s="1">
         <v>13412</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F175" s="1">
         <v>1306</v>
       </c>
-      <c r="G174" s="1">
+      <c r="G175" s="1">
         <v>1968</v>
       </c>
-      <c r="H174" s="1">
+      <c r="H175" s="1">
         <v>14718</v>
       </c>
-      <c r="I174" s="1">
+      <c r="I175" s="1">
         <v>6563</v>
       </c>
-      <c r="J174" s="1">
+      <c r="J175" s="1">
         <v>652</v>
       </c>
-      <c r="K174" s="1">
+      <c r="K175" s="1">
         <v>6704</v>
       </c>
-      <c r="L174" s="1">
+      <c r="L175" s="1">
         <v>473</v>
       </c>
-      <c r="M174" s="1">
+      <c r="M175" s="1">
         <v>326</v>
       </c>
-      <c r="N174" s="1">
+      <c r="N175" s="1">
         <v>15325</v>
       </c>
-      <c r="O174" s="1">
+      <c r="O175" s="1">
         <v>5578</v>
       </c>
-      <c r="P174" s="1">
+      <c r="P175" s="1">
         <v>564</v>
       </c>
-      <c r="Q174" s="1">
+      <c r="Q175" s="1">
         <v>6708</v>
       </c>
-      <c r="R174" s="1">
+      <c r="R175" s="1">
         <v>833</v>
       </c>
-      <c r="S174" s="1">
+      <c r="S175" s="1">
         <v>1642</v>
       </c>
-      <c r="U174" s="2">
+      <c r="U175" s="2">
         <f t="shared" si="30"/>
         <v>40.412076024365078</v>
       </c>
-      <c r="V174" s="2">
+      <c r="V175" s="2">
         <f t="shared" si="31"/>
         <v>4.0475318709849217</v>
       </c>
-      <c r="W174" s="2">
-        <f t="shared" si="32"/>
-        <v>44.642678827014613</v>
-      </c>
-      <c r="X174" s="2">
-        <f t="shared" si="33"/>
-        <v>4.3471024864361079</v>
-      </c>
-      <c r="Y174" s="2">
-        <f t="shared" si="34"/>
-        <v>6.550610791199281</v>
-      </c>
-      <c r="Z174" s="2">
-        <f t="shared" si="35"/>
-        <v>44.591656475064546</v>
-      </c>
-      <c r="AA174" s="2">
-        <f t="shared" si="36"/>
-        <v>4.4299497214295425</v>
-      </c>
-      <c r="AB174" s="2">
-        <f t="shared" si="37"/>
-        <v>45.549667074330749</v>
-      </c>
-      <c r="AC174" s="2">
-        <f t="shared" si="38"/>
-        <v>3.2137518684603883</v>
-      </c>
-      <c r="AD174" s="2">
-        <f t="shared" si="39"/>
-        <v>2.2149748607147712</v>
-      </c>
-      <c r="AE174" s="2">
-        <f t="shared" si="40"/>
-        <v>36.398042414355629</v>
-      </c>
-      <c r="AF174" s="2">
-        <f t="shared" si="41"/>
-        <v>3.6802610114192493</v>
-      </c>
-      <c r="AG174" s="2">
-        <f t="shared" si="42"/>
-        <v>43.771615008156608</v>
-      </c>
-      <c r="AH174" s="2">
-        <f t="shared" si="43"/>
-        <v>5.435562805872757</v>
-      </c>
-      <c r="AI174" s="2">
-        <f t="shared" si="44"/>
-        <v>10.714518760195759</v>
-      </c>
-    </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="W175" s="2">
+        <f>E176/B176*100</f>
+        <v>45.273187434866756</v>
+      </c>
+      <c r="X175" s="2">
+        <f>F176/B176*100</f>
+        <v>2.9940615023241195</v>
+      </c>
+      <c r="Y175" s="2">
+        <f>G176/B176*100</f>
+        <v>5.3396853754156117</v>
+      </c>
+      <c r="Z175" s="2">
+        <f>I176/H176*100</f>
+        <v>45.388230342989409</v>
+      </c>
+      <c r="AA175" s="2">
+        <f>J176/H176*100</f>
+        <v>4.29613523181595</v>
+      </c>
+      <c r="AB175" s="2">
+        <f>K176/H176*100</f>
+        <v>46.773514764676996</v>
+      </c>
+      <c r="AC175" s="2">
+        <f>L176/H176*100</f>
+        <v>2.0025250754015569</v>
+      </c>
+      <c r="AD175" s="2">
+        <f>M176/H176*100</f>
+        <v>1.5395945851160835</v>
+      </c>
+      <c r="AE175" s="2">
+        <f>O176/N176*100</f>
+        <v>39.356272895206487</v>
+      </c>
+      <c r="AF175" s="2">
+        <f>P176/N176*100</f>
+        <v>4.0984376467641441</v>
+      </c>
+      <c r="AG175" s="2">
+        <f>Q176/N176*100</f>
+        <v>43.933748708475534</v>
+      </c>
+      <c r="AH175" s="2">
+        <f>R176/N176*100</f>
+        <v>3.879269858167131</v>
+      </c>
+      <c r="AI175" s="2">
+        <f>S176/N176*100</f>
+        <v>8.7322708913867064</v>
+      </c>
+    </row>
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>604</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B176" s="1">
         <v>60453</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C176" s="1">
         <v>25512</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D176" s="1">
         <v>2534</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E176" s="1">
         <v>27369</v>
       </c>
-      <c r="F175" s="1">
+      <c r="F176" s="1">
         <v>1810</v>
       </c>
-      <c r="G175" s="1">
+      <c r="G176" s="1">
         <v>3228</v>
       </c>
-      <c r="H175" s="1">
+      <c r="H176" s="1">
         <v>28514</v>
       </c>
-      <c r="I175" s="1">
+      <c r="I176" s="1">
         <v>12942</v>
       </c>
-      <c r="J175" s="1">
+      <c r="J176" s="1">
         <v>1225</v>
       </c>
-      <c r="K175" s="1">
+      <c r="K176" s="1">
         <v>13337</v>
       </c>
-      <c r="L175" s="1">
+      <c r="L176" s="1">
         <v>571</v>
       </c>
-      <c r="M175" s="1">
+      <c r="M176" s="1">
         <v>439</v>
       </c>
-      <c r="N175" s="1">
+      <c r="N176" s="1">
         <v>31939</v>
       </c>
-      <c r="O175" s="1">
+      <c r="O176" s="1">
         <v>12570</v>
       </c>
-      <c r="P175" s="1">
+      <c r="P176" s="1">
         <v>1309</v>
       </c>
-      <c r="Q175" s="1">
+      <c r="Q176" s="1">
         <v>14032</v>
       </c>
-      <c r="R175" s="1">
+      <c r="R176" s="1">
         <v>1239</v>
       </c>
-      <c r="S175" s="1">
+      <c r="S176" s="1">
         <v>2789</v>
       </c>
-      <c r="U175" s="2">
+      <c r="U176" s="2">
         <f t="shared" si="30"/>
         <v>42.201379584139751</v>
       </c>
-      <c r="V175" s="2">
+      <c r="V176" s="2">
         <f t="shared" si="31"/>
         <v>4.1916861032537671</v>
       </c>
-      <c r="W175" s="2">
-        <f t="shared" si="32"/>
-        <v>45.273187434866756</v>
-      </c>
-      <c r="X175" s="2">
-        <f t="shared" si="33"/>
-        <v>2.9940615023241195</v>
-      </c>
-      <c r="Y175" s="2">
-        <f t="shared" si="34"/>
-        <v>5.3396853754156117</v>
-      </c>
-      <c r="Z175" s="2">
-        <f t="shared" si="35"/>
-        <v>45.388230342989409</v>
-      </c>
-      <c r="AA175" s="2">
-        <f t="shared" si="36"/>
-        <v>4.29613523181595</v>
-      </c>
-      <c r="AB175" s="2">
-        <f t="shared" si="37"/>
-        <v>46.773514764676996</v>
-      </c>
-      <c r="AC175" s="2">
-        <f t="shared" si="38"/>
-        <v>2.0025250754015569</v>
-      </c>
-      <c r="AD175" s="2">
-        <f t="shared" si="39"/>
-        <v>1.5395945851160835</v>
-      </c>
-      <c r="AE175" s="2">
-        <f t="shared" si="40"/>
-        <v>39.356272895206487</v>
-      </c>
-      <c r="AF175" s="2">
-        <f t="shared" si="41"/>
-        <v>4.0984376467641441</v>
-      </c>
-      <c r="AG175" s="2">
-        <f t="shared" si="42"/>
-        <v>43.933748708475534</v>
-      </c>
-      <c r="AH175" s="2">
-        <f t="shared" si="43"/>
-        <v>3.879269858167131</v>
-      </c>
-      <c r="AI175" s="2">
-        <f t="shared" si="44"/>
-        <v>8.7322708913867064</v>
-      </c>
-    </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="W176" s="2">
+        <f>E177/B177*100</f>
+        <v>40.334864789861555</v>
+      </c>
+      <c r="X176" s="2">
+        <f>F177/B177*100</f>
+        <v>2.0690080478554469</v>
+      </c>
+      <c r="Y176" s="2">
+        <f>G177/B177*100</f>
+        <v>4.7577934692115571</v>
+      </c>
+      <c r="Z176" s="2">
+        <f>I177/H177*100</f>
+        <v>50.252122295270318</v>
+      </c>
+      <c r="AA176" s="2">
+        <f>J177/H177*100</f>
+        <v>5.5594561817833661</v>
+      </c>
+      <c r="AB176" s="2">
+        <f>K177/H177*100</f>
+        <v>41.169336822620792</v>
+      </c>
+      <c r="AC176" s="2">
+        <f>L177/H177*100</f>
+        <v>1.3659283845024575</v>
+      </c>
+      <c r="AD176" s="2">
+        <f>M177/H177*100</f>
+        <v>1.6531563158230673</v>
+      </c>
+      <c r="AE176" s="2">
+        <f>O177/N177*100</f>
+        <v>44.995227869243614</v>
+      </c>
+      <c r="AF176" s="2">
+        <f>P177/N177*100</f>
+        <v>5.0644237652111661</v>
+      </c>
+      <c r="AG176" s="2">
+        <f>Q177/N177*100</f>
+        <v>39.554998806967312</v>
+      </c>
+      <c r="AH176" s="2">
+        <f>R177/N177*100</f>
+        <v>2.7260796945836314</v>
+      </c>
+      <c r="AI176" s="2">
+        <f>S177/N177*100</f>
+        <v>7.6592698639942736</v>
+      </c>
+    </row>
+    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>609</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B177" s="1">
         <v>32431</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C177" s="1">
         <v>15416</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D177" s="1">
         <v>1720</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E177" s="1">
         <v>13081</v>
       </c>
-      <c r="F176" s="1">
+      <c r="F177" s="1">
         <v>671</v>
       </c>
-      <c r="G176" s="1">
+      <c r="G177" s="1">
         <v>1543</v>
       </c>
-      <c r="H176" s="1">
+      <c r="H177" s="1">
         <v>15667</v>
       </c>
-      <c r="I176" s="1">
+      <c r="I177" s="1">
         <v>7873</v>
       </c>
-      <c r="J176" s="1">
+      <c r="J177" s="1">
         <v>871</v>
       </c>
-      <c r="K176" s="1">
+      <c r="K177" s="1">
         <v>6450</v>
       </c>
-      <c r="L176" s="1">
+      <c r="L177" s="1">
         <v>214</v>
       </c>
-      <c r="M176" s="1">
+      <c r="M177" s="1">
         <v>259</v>
       </c>
-      <c r="N176" s="1">
+      <c r="N177" s="1">
         <v>16764</v>
       </c>
-      <c r="O176" s="1">
+      <c r="O177" s="1">
         <v>7543</v>
       </c>
-      <c r="P176" s="1">
+      <c r="P177" s="1">
         <v>849</v>
       </c>
-      <c r="Q176" s="1">
+      <c r="Q177" s="1">
         <v>6631</v>
       </c>
-      <c r="R176" s="1">
+      <c r="R177" s="1">
         <v>457</v>
       </c>
-      <c r="S176" s="1">
+      <c r="S177" s="1">
         <v>1284</v>
       </c>
-      <c r="U176" s="2">
+      <c r="U177" s="2">
         <f t="shared" si="30"/>
         <v>47.534766118836913</v>
       </c>
-      <c r="V176" s="2">
+      <c r="V177" s="2">
         <f t="shared" si="31"/>
         <v>5.3035675742345285</v>
       </c>
-      <c r="W176" s="2">
-        <f t="shared" si="32"/>
-        <v>40.334864789861555</v>
-      </c>
-      <c r="X176" s="2">
-        <f t="shared" si="33"/>
-        <v>2.0690080478554469</v>
-      </c>
-      <c r="Y176" s="2">
-        <f t="shared" si="34"/>
-        <v>4.7577934692115571</v>
-      </c>
-      <c r="Z176" s="2">
-        <f t="shared" si="35"/>
-        <v>50.252122295270318</v>
-      </c>
-      <c r="AA176" s="2">
-        <f t="shared" si="36"/>
-        <v>5.5594561817833661</v>
-      </c>
-      <c r="AB176" s="2">
-        <f t="shared" si="37"/>
-        <v>41.169336822620792</v>
-      </c>
-      <c r="AC176" s="2">
-        <f t="shared" si="38"/>
-        <v>1.3659283845024575</v>
-      </c>
-      <c r="AD176" s="2">
-        <f t="shared" si="39"/>
-        <v>1.6531563158230673</v>
-      </c>
-      <c r="AE176" s="2">
-        <f t="shared" si="40"/>
-        <v>44.995227869243614</v>
-      </c>
-      <c r="AF176" s="2">
-        <f t="shared" si="41"/>
-        <v>5.0644237652111661</v>
-      </c>
-      <c r="AG176" s="2">
-        <f t="shared" si="42"/>
-        <v>39.554998806967312</v>
-      </c>
-      <c r="AH176" s="2">
-        <f t="shared" si="43"/>
-        <v>2.7260796945836314</v>
-      </c>
-      <c r="AI176" s="2">
-        <f t="shared" si="44"/>
-        <v>7.6592698639942736</v>
-      </c>
-    </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="W177" s="2">
+        <f>E178/B178*100</f>
+        <v>29.919464467832256</v>
+      </c>
+      <c r="X177" s="2">
+        <f>F178/B178*100</f>
+        <v>2.4173051638654579</v>
+      </c>
+      <c r="Y177" s="2">
+        <f>G178/B178*100</f>
+        <v>3.9991424744074457</v>
+      </c>
+      <c r="Z177" s="2">
+        <f>I178/H178*100</f>
+        <v>55.372918438024932</v>
+      </c>
+      <c r="AA177" s="2">
+        <f>J178/H178*100</f>
+        <v>11.103824060056821</v>
+      </c>
+      <c r="AB177" s="2">
+        <f>K178/H178*100</f>
+        <v>30.889809419132742</v>
+      </c>
+      <c r="AC177" s="2">
+        <f>L178/H178*100</f>
+        <v>1.4570933825511707</v>
+      </c>
+      <c r="AD177" s="2">
+        <f>M178/H178*100</f>
+        <v>1.1763547002343377</v>
+      </c>
+      <c r="AE177" s="2">
+        <f>O178/N178*100</f>
+        <v>50.723994254579118</v>
+      </c>
+      <c r="AF177" s="2">
+        <f>P178/N178*100</f>
+        <v>10.364074500540116</v>
+      </c>
+      <c r="AG177" s="2">
+        <f>Q178/N178*100</f>
+        <v>29.030756994812499</v>
+      </c>
+      <c r="AH177" s="2">
+        <f>R178/N178*100</f>
+        <v>3.29673199510927</v>
+      </c>
+      <c r="AI177" s="2">
+        <f>S178/N178*100</f>
+        <v>6.5844422549589874</v>
+      </c>
+    </row>
+    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>612</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B178" s="1">
         <v>806973</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C178" s="1">
         <v>427263</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D178" s="1">
         <v>86489</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E178" s="1">
         <v>241442</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F178" s="1">
         <v>19507</v>
       </c>
-      <c r="G177" s="1">
+      <c r="G178" s="1">
         <v>32272</v>
       </c>
-      <c r="H177" s="1">
+      <c r="H178" s="1">
         <v>385768</v>
       </c>
-      <c r="I177" s="1">
+      <c r="I178" s="1">
         <v>213611</v>
       </c>
-      <c r="J177" s="1">
+      <c r="J178" s="1">
         <v>42835</v>
       </c>
-      <c r="K177" s="1">
+      <c r="K178" s="1">
         <v>119163</v>
       </c>
-      <c r="L177" s="1">
+      <c r="L178" s="1">
         <v>5621</v>
       </c>
-      <c r="M177" s="1">
+      <c r="M178" s="1">
         <v>4538</v>
       </c>
-      <c r="N177" s="1">
+      <c r="N178" s="1">
         <v>421205</v>
       </c>
-      <c r="O177" s="1">
+      <c r="O178" s="1">
         <v>213652</v>
       </c>
-      <c r="P177" s="1">
+      <c r="P178" s="1">
         <v>43654</v>
       </c>
-      <c r="Q177" s="1">
+      <c r="Q178" s="1">
         <v>122279</v>
       </c>
-      <c r="R177" s="1">
+      <c r="R178" s="1">
         <v>13886</v>
       </c>
-      <c r="S177" s="1">
+      <c r="S178" s="1">
         <v>27734</v>
       </c>
-      <c r="U177" s="2">
+      <c r="U178" s="2">
         <f t="shared" si="30"/>
         <v>52.946381105687543</v>
       </c>
-      <c r="V177" s="2">
+      <c r="V178" s="2">
         <f t="shared" si="31"/>
         <v>10.717706788207289</v>
       </c>
-      <c r="W177" s="2">
-        <f t="shared" si="32"/>
-        <v>29.919464467832256</v>
-      </c>
-      <c r="X177" s="2">
-        <f t="shared" si="33"/>
-        <v>2.4173051638654579</v>
-      </c>
-      <c r="Y177" s="2">
-        <f t="shared" si="34"/>
-        <v>3.9991424744074457</v>
-      </c>
-      <c r="Z177" s="2">
-        <f t="shared" si="35"/>
-        <v>55.372918438024932</v>
-      </c>
-      <c r="AA177" s="2">
-        <f t="shared" si="36"/>
-        <v>11.103824060056821</v>
-      </c>
-      <c r="AB177" s="2">
-        <f t="shared" si="37"/>
-        <v>30.889809419132742</v>
-      </c>
-      <c r="AC177" s="2">
-        <f t="shared" si="38"/>
-        <v>1.4570933825511707</v>
-      </c>
-      <c r="AD177" s="2">
-        <f t="shared" si="39"/>
-        <v>1.1763547002343377</v>
-      </c>
-      <c r="AE177" s="2">
-        <f t="shared" si="40"/>
-        <v>50.723994254579118</v>
-      </c>
-      <c r="AF177" s="2">
-        <f t="shared" si="41"/>
-        <v>10.364074500540116</v>
-      </c>
-      <c r="AG177" s="2">
-        <f t="shared" si="42"/>
-        <v>29.030756994812499</v>
-      </c>
-      <c r="AH177" s="2">
-        <f t="shared" si="43"/>
-        <v>3.29673199510927</v>
-      </c>
-      <c r="AI177" s="2">
-        <f t="shared" si="44"/>
-        <v>6.5844422549589874</v>
-      </c>
-    </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="W178" s="2">
+        <f>E179/B179*100</f>
+        <v>14.270168428917149</v>
+      </c>
+      <c r="X178" s="2">
+        <f>F179/B179*100</f>
+        <v>3.5829719501697284</v>
+      </c>
+      <c r="Y178" s="2">
+        <f>G179/B179*100</f>
+        <v>3.9630333447026911</v>
+      </c>
+      <c r="Z178" s="2">
+        <f>I179/H179*100</f>
+        <v>48.370556454110606</v>
+      </c>
+      <c r="AA178" s="2">
+        <f>J179/H179*100</f>
+        <v>32.922674558656531</v>
+      </c>
+      <c r="AB178" s="2">
+        <f>K179/H179*100</f>
+        <v>14.931690698234625</v>
+      </c>
+      <c r="AC178" s="2">
+        <f>L179/H179*100</f>
+        <v>2.2850063663580991</v>
+      </c>
+      <c r="AD178" s="2">
+        <f>M179/H179*100</f>
+        <v>1.490071922640146</v>
+      </c>
+      <c r="AE178" s="2">
+        <f>O179/N179*100</f>
+        <v>46.370347585358353</v>
+      </c>
+      <c r="AF178" s="2">
+        <f>P179/N179*100</f>
+        <v>29.03414334051061</v>
+      </c>
+      <c r="AG178" s="2">
+        <f>Q179/N179*100</f>
+        <v>13.67886804060289</v>
+      </c>
+      <c r="AH178" s="2">
+        <f>R179/N179*100</f>
+        <v>4.7431559520147646</v>
+      </c>
+      <c r="AI178" s="2">
+        <f>S179/N179*100</f>
+        <v>6.1734850815133804</v>
+      </c>
+    </row>
+    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>613</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B179" s="1">
         <v>61569</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C179" s="1">
         <v>29131</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D179" s="1">
         <v>19006</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E179" s="1">
         <v>8786</v>
       </c>
-      <c r="F178" s="1">
+      <c r="F179" s="1">
         <v>2206</v>
       </c>
-      <c r="G178" s="1">
+      <c r="G179" s="1">
         <v>2440</v>
       </c>
-      <c r="H178" s="1">
+      <c r="H179" s="1">
         <v>29059</v>
       </c>
-      <c r="I178" s="1">
+      <c r="I179" s="1">
         <v>14056</v>
       </c>
-      <c r="J178" s="1">
+      <c r="J179" s="1">
         <v>9567</v>
       </c>
-      <c r="K178" s="1">
+      <c r="K179" s="1">
         <v>4339</v>
       </c>
-      <c r="L178" s="1">
+      <c r="L179" s="1">
         <v>664</v>
       </c>
-      <c r="M178" s="1">
+      <c r="M179" s="1">
         <v>433</v>
       </c>
-      <c r="N178" s="1">
+      <c r="N179" s="1">
         <v>32510</v>
       </c>
-      <c r="O178" s="1">
+      <c r="O179" s="1">
         <v>15075</v>
       </c>
-      <c r="P178" s="1">
+      <c r="P179" s="1">
         <v>9439</v>
       </c>
-      <c r="Q178" s="1">
+      <c r="Q179" s="1">
         <v>4447</v>
       </c>
-      <c r="R178" s="1">
+      <c r="R179" s="1">
         <v>1542</v>
       </c>
-      <c r="S178" s="1">
+      <c r="S179" s="1">
         <v>2007</v>
       </c>
-      <c r="U178" s="2">
+      <c r="U179" s="2">
         <f t="shared" si="30"/>
         <v>47.314395231366433</v>
       </c>
-      <c r="V178" s="2">
+      <c r="V179" s="2">
         <f t="shared" si="31"/>
         <v>30.869431044843999</v>
       </c>
-      <c r="W178" s="2">
-        <f t="shared" si="32"/>
-        <v>14.270168428917149</v>
-      </c>
-      <c r="X178" s="2">
-        <f t="shared" si="33"/>
-        <v>3.5829719501697284</v>
-      </c>
-      <c r="Y178" s="2">
-        <f t="shared" si="34"/>
-        <v>3.9630333447026911</v>
-      </c>
-      <c r="Z178" s="2">
-        <f t="shared" si="35"/>
-        <v>48.370556454110606</v>
-      </c>
-      <c r="AA178" s="2">
-        <f t="shared" si="36"/>
-        <v>32.922674558656531</v>
-      </c>
-      <c r="AB178" s="2">
-        <f t="shared" si="37"/>
-        <v>14.931690698234625</v>
-      </c>
-      <c r="AC178" s="2">
-        <f t="shared" si="38"/>
-        <v>2.2850063663580991</v>
-      </c>
-      <c r="AD178" s="2">
-        <f t="shared" si="39"/>
-        <v>1.490071922640146</v>
-      </c>
-      <c r="AE178" s="2">
-        <f t="shared" si="40"/>
-        <v>46.370347585358353</v>
-      </c>
-      <c r="AF178" s="2">
-        <f t="shared" si="41"/>
-        <v>29.03414334051061</v>
-      </c>
-      <c r="AG178" s="2">
-        <f t="shared" si="42"/>
-        <v>13.67886804060289</v>
-      </c>
-      <c r="AH178" s="2">
-        <f t="shared" si="43"/>
-        <v>4.7431559520147646</v>
-      </c>
-      <c r="AI178" s="2">
-        <f t="shared" si="44"/>
-        <v>6.1734850815133804</v>
-      </c>
-    </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="W179" s="2">
+        <f>E180/B180*100</f>
+        <v>27.980598727443411</v>
+      </c>
+      <c r="X179" s="2">
+        <f>F180/B180*100</f>
+        <v>2.3594450818817148</v>
+      </c>
+      <c r="Y179" s="2">
+        <f>G180/B180*100</f>
+        <v>4.530092834046104</v>
+      </c>
+      <c r="Z179" s="2">
+        <f>I180/H180*100</f>
+        <v>59.219231021156752</v>
+      </c>
+      <c r="AA179" s="2">
+        <f>J180/H180*100</f>
+        <v>8.8426016899194337</v>
+      </c>
+      <c r="AB179" s="2">
+        <f>K180/H180*100</f>
+        <v>29.121634898801336</v>
+      </c>
+      <c r="AC179" s="2">
+        <f>L180/H180*100</f>
+        <v>1.4082661950612432</v>
+      </c>
+      <c r="AD179" s="2">
+        <f>M180/H180*100</f>
+        <v>1.4082661950612432</v>
+      </c>
+      <c r="AE179" s="2">
+        <f>O180/N180*100</f>
+        <v>54.187221634144876</v>
+      </c>
+      <c r="AF179" s="2">
+        <f>P180/N180*100</f>
+        <v>8.2606003714873477</v>
+      </c>
+      <c r="AG179" s="2">
+        <f>Q180/N180*100</f>
+        <v>26.936827178493676</v>
+      </c>
+      <c r="AH179" s="2">
+        <f>R180/N180*100</f>
+        <v>3.2295432303421281</v>
+      </c>
+      <c r="AI179" s="2">
+        <f>S180/N180*100</f>
+        <v>7.3858075855319658</v>
+      </c>
+    </row>
+    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>614</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B180" s="1">
         <v>95870</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C180" s="1">
         <v>54254</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D180" s="1">
         <v>8186</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E180" s="1">
         <v>26825</v>
       </c>
-      <c r="F179" s="1">
+      <c r="F180" s="1">
         <v>2262</v>
       </c>
-      <c r="G179" s="1">
+      <c r="G180" s="1">
         <v>4343</v>
       </c>
-      <c r="H179" s="3">
+      <c r="H180" s="3">
         <v>45801</v>
       </c>
-      <c r="I179" s="1">
+      <c r="I180" s="1">
         <v>27123</v>
       </c>
-      <c r="J179" s="1">
+      <c r="J180" s="1">
         <v>4050</v>
       </c>
-      <c r="K179" s="1">
+      <c r="K180" s="1">
         <v>13338</v>
       </c>
-      <c r="L179" s="1">
+      <c r="L180" s="1">
         <v>645</v>
       </c>
-      <c r="M179" s="1">
+      <c r="M180" s="1">
         <v>645</v>
       </c>
-      <c r="N179" s="1">
+      <c r="N180" s="1">
         <v>50069</v>
       </c>
-      <c r="O179" s="1">
+      <c r="O180" s="1">
         <v>27131</v>
       </c>
-      <c r="P179" s="1">
+      <c r="P180" s="1">
         <v>4136</v>
       </c>
-      <c r="Q179" s="1">
+      <c r="Q180" s="1">
         <v>13487</v>
       </c>
-      <c r="R179" s="1">
+      <c r="R180" s="1">
         <v>1617</v>
       </c>
-      <c r="S179" s="1">
+      <c r="S180" s="1">
         <v>3698</v>
       </c>
-      <c r="U179" s="2">
+      <c r="U180" s="2">
         <f t="shared" si="30"/>
         <v>56.591217273391045</v>
       </c>
-      <c r="V179" s="2">
+      <c r="V180" s="2">
         <f t="shared" si="31"/>
         <v>8.5386460832377171</v>
       </c>
-      <c r="W179" s="2">
-        <f t="shared" si="32"/>
-        <v>27.980598727443411</v>
-      </c>
-      <c r="X179" s="2">
-        <f t="shared" si="33"/>
-        <v>2.3594450818817148</v>
-      </c>
-      <c r="Y179" s="2">
-        <f t="shared" si="34"/>
-        <v>4.530092834046104</v>
-      </c>
-      <c r="Z179" s="2">
-        <f t="shared" si="35"/>
-        <v>59.219231021156752</v>
-      </c>
-      <c r="AA179" s="2">
-        <f t="shared" si="36"/>
-        <v>8.8426016899194337</v>
-      </c>
-      <c r="AB179" s="2">
-        <f t="shared" si="37"/>
-        <v>29.121634898801336</v>
-      </c>
-      <c r="AC179" s="2">
-        <f t="shared" si="38"/>
-        <v>1.4082661950612432</v>
-      </c>
-      <c r="AD179" s="2">
-        <f t="shared" si="39"/>
-        <v>1.4082661950612432</v>
-      </c>
-      <c r="AE179" s="2">
-        <f t="shared" si="40"/>
-        <v>54.187221634144876</v>
-      </c>
-      <c r="AF179" s="2">
-        <f t="shared" si="41"/>
-        <v>8.2606003714873477</v>
-      </c>
-      <c r="AG179" s="2">
-        <f t="shared" si="42"/>
-        <v>26.936827178493676</v>
-      </c>
-      <c r="AH179" s="2">
-        <f t="shared" si="43"/>
-        <v>3.2295432303421281</v>
-      </c>
-      <c r="AI179" s="2">
-        <f t="shared" si="44"/>
-        <v>7.3858075855319658</v>
-      </c>
-    </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="W180" s="2">
+        <f>E181/B181*100</f>
+        <v>32.18949975916879</v>
+      </c>
+      <c r="X180" s="2">
+        <f>F181/B181*100</f>
+        <v>2.4647354297116908</v>
+      </c>
+      <c r="Y180" s="2">
+        <f>G181/B181*100</f>
+        <v>4.5840500928920394</v>
+      </c>
+      <c r="Z180" s="2">
+        <f>I181/H181*100</f>
+        <v>56.258312816594504</v>
+      </c>
+      <c r="AA180" s="2">
+        <f>J181/H181*100</f>
+        <v>7.9067266604408974</v>
+      </c>
+      <c r="AB180" s="2">
+        <f>K181/H181*100</f>
+        <v>32.881965079095565</v>
+      </c>
+      <c r="AC180" s="2">
+        <f>L181/H181*100</f>
+        <v>1.5720066785522255</v>
+      </c>
+      <c r="AD180" s="2">
+        <f>M181/H181*100</f>
+        <v>1.3809887653168067</v>
+      </c>
+      <c r="AE180" s="2">
+        <f>O181/N181*100</f>
+        <v>49.895520788684102</v>
+      </c>
+      <c r="AF180" s="2">
+        <f>P181/N181*100</f>
+        <v>7.6443956279468495</v>
+      </c>
+      <c r="AG180" s="2">
+        <f>Q181/N181*100</f>
+        <v>31.533969138448349</v>
+      </c>
+      <c r="AH180" s="2">
+        <f>R181/N181*100</f>
+        <v>3.309847835405058</v>
+      </c>
+      <c r="AI180" s="2">
+        <f>S181/N181*100</f>
+        <v>7.6162666095156455</v>
+      </c>
+    </row>
+    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>615</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B181" s="1">
         <v>145330</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C181" s="1">
         <v>77010</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D181" s="1">
         <v>11295</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E181" s="1">
         <v>46781</v>
       </c>
-      <c r="F180" s="1">
+      <c r="F181" s="1">
         <v>3582</v>
       </c>
-      <c r="G180" s="1">
+      <c r="G181" s="1">
         <v>6662</v>
       </c>
-      <c r="H180" s="1">
+      <c r="H181" s="1">
         <v>70674</v>
       </c>
-      <c r="I180" s="1">
+      <c r="I181" s="1">
         <v>39760</v>
       </c>
-      <c r="J180" s="1">
+      <c r="J181" s="1">
         <v>5588</v>
       </c>
-      <c r="K180" s="1">
+      <c r="K181" s="1">
         <v>23239</v>
       </c>
-      <c r="L180" s="1">
+      <c r="L181" s="1">
         <v>1111</v>
       </c>
-      <c r="M180" s="1">
+      <c r="M181" s="1">
         <v>976</v>
       </c>
-      <c r="N180" s="1">
+      <c r="N181" s="1">
         <v>74656</v>
       </c>
-      <c r="O180" s="1">
+      <c r="O181" s="1">
         <v>37250</v>
       </c>
-      <c r="P180" s="1">
+      <c r="P181" s="1">
         <v>5707</v>
       </c>
-      <c r="Q180" s="1">
+      <c r="Q181" s="1">
         <v>23542</v>
       </c>
-      <c r="R180" s="1">
+      <c r="R181" s="1">
         <v>2471</v>
       </c>
-      <c r="S180" s="1">
+      <c r="S181" s="1">
         <v>5686</v>
       </c>
-      <c r="U180" s="2">
+      <c r="U181" s="2">
         <f t="shared" si="30"/>
         <v>52.989747471272274</v>
       </c>
-      <c r="V180" s="2">
+      <c r="V181" s="2">
         <f t="shared" si="31"/>
         <v>7.7719672469552057</v>
       </c>
-      <c r="W180" s="2">
-        <f t="shared" si="32"/>
-        <v>32.18949975916879</v>
-      </c>
-      <c r="X180" s="2">
-        <f t="shared" si="33"/>
-        <v>2.4647354297116908</v>
-      </c>
-      <c r="Y180" s="2">
-        <f t="shared" si="34"/>
-        <v>4.5840500928920394</v>
-      </c>
-      <c r="Z180" s="2">
-        <f t="shared" si="35"/>
-        <v>56.258312816594504</v>
-      </c>
-      <c r="AA180" s="2">
-        <f t="shared" si="36"/>
-        <v>7.9067266604408974</v>
-      </c>
-      <c r="AB180" s="2">
-        <f t="shared" si="37"/>
-        <v>32.881965079095565</v>
-      </c>
-      <c r="AC180" s="2">
-        <f t="shared" si="38"/>
-        <v>1.5720066785522255</v>
-      </c>
-      <c r="AD180" s="2">
-        <f t="shared" si="39"/>
-        <v>1.3809887653168067</v>
-      </c>
-      <c r="AE180" s="2">
-        <f t="shared" si="40"/>
-        <v>49.895520788684102</v>
-      </c>
-      <c r="AF180" s="2">
-        <f t="shared" si="41"/>
-        <v>7.6443956279468495</v>
-      </c>
-      <c r="AG180" s="2">
-        <f t="shared" si="42"/>
-        <v>31.533969138448349</v>
-      </c>
-      <c r="AH180" s="2">
-        <f t="shared" si="43"/>
-        <v>3.309847835405058</v>
-      </c>
-      <c r="AI180" s="2">
-        <f t="shared" si="44"/>
-        <v>7.6162666095156455</v>
-      </c>
-    </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="W181" s="2">
+        <f>E182/B182*100</f>
+        <v>31.527445610643667</v>
+      </c>
+      <c r="X181" s="2">
+        <f>F182/B182*100</f>
+        <v>2.4630623262576568</v>
+      </c>
+      <c r="Y181" s="2">
+        <f>G182/B182*100</f>
+        <v>3.9203294547226939</v>
+      </c>
+      <c r="Z181" s="2">
+        <f>I182/H182*100</f>
+        <v>55.054851155283579</v>
+      </c>
+      <c r="AA181" s="2">
+        <f>J182/H182*100</f>
+        <v>9.9664247058925071</v>
+      </c>
+      <c r="AB181" s="2">
+        <f>K182/H182*100</f>
+        <v>32.482586592323429</v>
+      </c>
+      <c r="AC181" s="2">
+        <f>L182/H182*100</f>
+        <v>1.4086087399338851</v>
+      </c>
+      <c r="AD181" s="2">
+        <f>M182/H182*100</f>
+        <v>1.0875288065666024</v>
+      </c>
+      <c r="AE181" s="2">
+        <f>O182/N182*100</f>
+        <v>50.008713699519959</v>
+      </c>
+      <c r="AF181" s="2">
+        <f>P182/N182*100</f>
+        <v>9.3894073100017437</v>
+      </c>
+      <c r="AG181" s="2">
+        <f>Q182/N182*100</f>
+        <v>30.650834138690406</v>
+      </c>
+      <c r="AH181" s="2">
+        <f>R182/N182*100</f>
+        <v>3.4308211473565802</v>
+      </c>
+      <c r="AI181" s="2">
+        <f>S182/N182*100</f>
+        <v>6.5202237044313121</v>
+      </c>
+    </row>
+    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>616</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B182" s="1">
         <v>242097</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C182" s="1">
         <v>126916</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D182" s="1">
         <v>23400</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E182" s="1">
         <v>76327</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F182" s="1">
         <v>5963</v>
       </c>
-      <c r="G181" s="1">
+      <c r="G182" s="1">
         <v>9491</v>
       </c>
-      <c r="H181" s="1">
+      <c r="H182" s="1">
         <v>115859</v>
       </c>
-      <c r="I181" s="1">
+      <c r="I182" s="1">
         <v>63786</v>
       </c>
-      <c r="J181" s="1">
+      <c r="J182" s="1">
         <v>11547</v>
       </c>
-      <c r="K181" s="1">
+      <c r="K182" s="1">
         <v>37634</v>
       </c>
-      <c r="L181" s="1">
+      <c r="L182" s="1">
         <v>1632</v>
       </c>
-      <c r="M181" s="1">
+      <c r="M182" s="1">
         <v>1260</v>
       </c>
-      <c r="N181" s="1">
+      <c r="N182" s="1">
         <v>126238</v>
       </c>
-      <c r="O181" s="1">
+      <c r="O182" s="1">
         <v>63130</v>
       </c>
-      <c r="P181" s="1">
+      <c r="P182" s="1">
         <v>11853</v>
       </c>
-      <c r="Q181" s="1">
+      <c r="Q182" s="1">
         <v>38693</v>
       </c>
-      <c r="R181" s="1">
+      <c r="R182" s="1">
         <v>4331</v>
       </c>
-      <c r="S181" s="1">
+      <c r="S182" s="1">
         <v>8231</v>
       </c>
-      <c r="U181" s="2">
+      <c r="U182" s="2">
         <f t="shared" si="30"/>
         <v>52.423615327740535</v>
       </c>
-      <c r="V181" s="2">
+      <c r="V182" s="2">
         <f t="shared" si="31"/>
         <v>9.6655472806354474</v>
       </c>
-      <c r="W181" s="2">
-        <f t="shared" si="32"/>
-        <v>31.527445610643667</v>
-      </c>
-      <c r="X181" s="2">
-        <f t="shared" si="33"/>
-        <v>2.4630623262576568</v>
-      </c>
-      <c r="Y181" s="2">
-        <f t="shared" si="34"/>
-        <v>3.9203294547226939</v>
-      </c>
-      <c r="Z181" s="2">
-        <f t="shared" si="35"/>
-        <v>55.054851155283579</v>
-      </c>
-      <c r="AA181" s="2">
-        <f t="shared" si="36"/>
-        <v>9.9664247058925071</v>
-      </c>
-      <c r="AB181" s="2">
-        <f t="shared" si="37"/>
-        <v>32.482586592323429</v>
-      </c>
-      <c r="AC181" s="2">
-        <f t="shared" si="38"/>
-        <v>1.4086087399338851</v>
-      </c>
-      <c r="AD181" s="2">
-        <f t="shared" si="39"/>
-        <v>1.0875288065666024</v>
-      </c>
-      <c r="AE181" s="2">
-        <f t="shared" si="40"/>
-        <v>50.008713699519959</v>
-      </c>
-      <c r="AF181" s="2">
-        <f t="shared" si="41"/>
-        <v>9.3894073100017437</v>
-      </c>
-      <c r="AG181" s="2">
-        <f t="shared" si="42"/>
-        <v>30.650834138690406</v>
-      </c>
-      <c r="AH181" s="2">
-        <f t="shared" si="43"/>
-        <v>3.4308211473565802</v>
-      </c>
-      <c r="AI181" s="2">
-        <f t="shared" si="44"/>
-        <v>6.5202237044313121</v>
-      </c>
-    </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="W182" s="2">
+        <f>E183/B183*100</f>
+        <v>31.100715974389825</v>
+      </c>
+      <c r="X182" s="2">
+        <f>F183/B183*100</f>
+        <v>2.0835611943563381</v>
+      </c>
+      <c r="Y182" s="2">
+        <f>G183/B183*100</f>
+        <v>3.441893335801244</v>
+      </c>
+      <c r="Z182" s="2">
+        <f>I183/H183*100</f>
+        <v>55.463490879380473</v>
+      </c>
+      <c r="AA182" s="2">
+        <f>J183/H183*100</f>
+        <v>10.068204827622955</v>
+      </c>
+      <c r="AB182" s="2">
+        <f>K183/H183*100</f>
+        <v>32.263192483259623</v>
+      </c>
+      <c r="AC182" s="2">
+        <f>L183/H183*100</f>
+        <v>1.260190760377258</v>
+      </c>
+      <c r="AD182" s="2">
+        <f>M183/H183*100</f>
+        <v>0.94492104935969168</v>
+      </c>
+      <c r="AE182" s="2">
+        <f>O183/N183*100</f>
+        <v>52.026919019150228</v>
+      </c>
+      <c r="AF182" s="2">
+        <f>P183/N183*100</f>
+        <v>9.4048722785255272</v>
+      </c>
+      <c r="AG182" s="2">
+        <f>Q183/N183*100</f>
+        <v>30.054509415262636</v>
+      </c>
+      <c r="AH182" s="2">
+        <f>R183/N183*100</f>
+        <v>2.8245787908820614</v>
+      </c>
+      <c r="AI182" s="2">
+        <f>S183/N183*100</f>
+        <v>5.6891204961795454</v>
+      </c>
+    </row>
+    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>617</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B183" s="1">
         <v>237718</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C183" s="1">
         <v>127547</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D183" s="1">
         <v>23104</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E183" s="1">
         <v>73932</v>
       </c>
-      <c r="F182" s="1">
+      <c r="F183" s="1">
         <v>4953</v>
       </c>
-      <c r="G182" s="1">
+      <c r="G183" s="1">
         <v>8182</v>
       </c>
-      <c r="H182" s="1">
+      <c r="H183" s="1">
         <v>112602</v>
       </c>
-      <c r="I182" s="1">
+      <c r="I183" s="1">
         <v>62453</v>
       </c>
-      <c r="J182" s="1">
+      <c r="J183" s="1">
         <v>11337</v>
       </c>
-      <c r="K182" s="1">
+      <c r="K183" s="1">
         <v>36329</v>
       </c>
-      <c r="L182" s="1">
+      <c r="L183" s="1">
         <v>1419</v>
       </c>
-      <c r="M182" s="1">
+      <c r="M183" s="1">
         <v>1064</v>
       </c>
-      <c r="N182" s="1">
+      <c r="N183" s="1">
         <v>125116</v>
       </c>
-      <c r="O182" s="1">
+      <c r="O183" s="1">
         <v>65094</v>
       </c>
-      <c r="P182" s="1">
+      <c r="P183" s="1">
         <v>11767</v>
       </c>
-      <c r="Q182" s="1">
+      <c r="Q183" s="1">
         <v>37603</v>
       </c>
-      <c r="R182" s="1">
+      <c r="R183" s="1">
         <v>3534</v>
       </c>
-      <c r="S182" s="1">
+      <c r="S183" s="1">
         <v>7118</v>
       </c>
-      <c r="U182" s="2">
+      <c r="U183" s="2">
         <f t="shared" si="30"/>
         <v>53.65475058682977</v>
       </c>
-      <c r="V182" s="2">
+      <c r="V183" s="2">
         <f t="shared" si="31"/>
         <v>9.7190789086228211</v>
       </c>
-      <c r="W182" s="2">
-        <f t="shared" si="32"/>
-        <v>31.100715974389825</v>
-      </c>
-      <c r="X182" s="2">
-        <f t="shared" si="33"/>
-        <v>2.0835611943563381</v>
-      </c>
-      <c r="Y182" s="2">
-        <f t="shared" si="34"/>
-        <v>3.441893335801244</v>
-      </c>
-      <c r="Z182" s="2">
-        <f t="shared" si="35"/>
-        <v>55.463490879380473</v>
-      </c>
-      <c r="AA182" s="2">
-        <f t="shared" si="36"/>
-        <v>10.068204827622955</v>
-      </c>
-      <c r="AB182" s="2">
-        <f t="shared" si="37"/>
-        <v>32.263192483259623</v>
-      </c>
-      <c r="AC182" s="2">
-        <f t="shared" si="38"/>
-        <v>1.260190760377258</v>
-      </c>
-      <c r="AD182" s="2">
-        <f t="shared" si="39"/>
-        <v>0.94492104935969168</v>
-      </c>
-      <c r="AE182" s="2">
-        <f t="shared" si="40"/>
-        <v>52.026919019150228</v>
-      </c>
-      <c r="AF182" s="2">
-        <f t="shared" si="41"/>
-        <v>9.4048722785255272</v>
-      </c>
-      <c r="AG182" s="2">
-        <f t="shared" si="42"/>
-        <v>30.054509415262636</v>
-      </c>
-      <c r="AH182" s="2">
-        <f t="shared" si="43"/>
-        <v>2.8245787908820614</v>
-      </c>
-      <c r="AI182" s="2">
-        <f t="shared" si="44"/>
-        <v>5.6891204961795454</v>
-      </c>
-    </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="W183" s="2">
+        <f>E184/B184*100</f>
+        <v>34.945759368836292</v>
+      </c>
+      <c r="X183" s="2">
+        <f>F184/B184*100</f>
+        <v>1.7159763313609466</v>
+      </c>
+      <c r="Y183" s="2">
+        <f>G184/B184*100</f>
+        <v>4.1568047337278102</v>
+      </c>
+      <c r="Z183" s="2">
+        <f>I184/H184*100</f>
+        <v>54.967899724854789</v>
+      </c>
+      <c r="AA183" s="2">
+        <f>J184/H184*100</f>
+        <v>7.0824416590237442</v>
+      </c>
+      <c r="AB183" s="2">
+        <f>K184/H184*100</f>
+        <v>35.646591256496485</v>
+      </c>
+      <c r="AC183" s="2">
+        <f>L184/H184*100</f>
+        <v>1.0190563538163662</v>
+      </c>
+      <c r="AD183" s="2">
+        <f>M184/H184*100</f>
+        <v>1.2840110058086214</v>
+      </c>
+      <c r="AE183" s="2">
+        <f>O184/N184*100</f>
+        <v>49.813700200630549</v>
+      </c>
+      <c r="AF183" s="2">
+        <f>P184/N184*100</f>
+        <v>6.6781312697047861</v>
+      </c>
+      <c r="AG183" s="2">
+        <f>Q184/N184*100</f>
+        <v>34.288716919843317</v>
+      </c>
+      <c r="AH183" s="2">
+        <f>R184/N184*100</f>
+        <v>2.3693512945447597</v>
+      </c>
+      <c r="AI183" s="2">
+        <f>S184/N184*100</f>
+        <v>6.8501003152765829</v>
+      </c>
+    </row>
+    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>618</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B184" s="1">
         <v>20280</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C184" s="1">
         <v>10608</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D184" s="1">
         <v>1394</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E184" s="1">
         <v>7087</v>
       </c>
-      <c r="F183" s="1">
+      <c r="F184" s="1">
         <v>348</v>
       </c>
-      <c r="G183" s="1">
+      <c r="G184" s="1">
         <v>843</v>
       </c>
-      <c r="H183" s="1">
+      <c r="H184" s="1">
         <v>9813</v>
       </c>
-      <c r="I183" s="1">
+      <c r="I184" s="1">
         <v>5394</v>
       </c>
-      <c r="J183" s="1">
+      <c r="J184" s="1">
         <v>695</v>
       </c>
-      <c r="K183" s="1">
+      <c r="K184" s="1">
         <v>3498</v>
       </c>
-      <c r="L183" s="1">
+      <c r="L184" s="1">
         <v>100</v>
       </c>
-      <c r="M183" s="1">
+      <c r="M184" s="1">
         <v>126</v>
       </c>
-      <c r="N183" s="1">
+      <c r="N184" s="1">
         <v>10467</v>
       </c>
-      <c r="O183" s="1">
+      <c r="O184" s="1">
         <v>5214</v>
       </c>
-      <c r="P183" s="1">
+      <c r="P184" s="1">
         <v>699</v>
       </c>
-      <c r="Q183" s="1">
+      <c r="Q184" s="1">
         <v>3589</v>
       </c>
-      <c r="R183" s="1">
+      <c r="R184" s="1">
         <v>248</v>
       </c>
-      <c r="S183" s="1">
+      <c r="S184" s="1">
         <v>717</v>
       </c>
-      <c r="U183" s="2">
+      <c r="U184" s="2">
         <f t="shared" si="30"/>
         <v>52.307692307692314</v>
       </c>
-      <c r="V183" s="2">
+      <c r="V184" s="2">
         <f t="shared" si="31"/>
         <v>6.8737672583826432</v>
       </c>
-      <c r="W183" s="2">
-        <f t="shared" si="32"/>
-        <v>34.945759368836292</v>
-      </c>
-      <c r="X183" s="2">
-        <f t="shared" si="33"/>
-        <v>1.7159763313609466</v>
-      </c>
-      <c r="Y183" s="2">
-        <f t="shared" si="34"/>
-        <v>4.1568047337278102</v>
-      </c>
-      <c r="Z183" s="2">
-        <f t="shared" si="35"/>
-        <v>54.967899724854789</v>
-      </c>
-      <c r="AA183" s="2">
-        <f t="shared" si="36"/>
-        <v>7.0824416590237442</v>
-      </c>
-      <c r="AB183" s="2">
-        <f t="shared" si="37"/>
-        <v>35.646591256496485</v>
-      </c>
-      <c r="AC183" s="2">
-        <f t="shared" si="38"/>
-        <v>1.0190563538163662</v>
-      </c>
-      <c r="AD183" s="2">
-        <f t="shared" si="39"/>
-        <v>1.2840110058086214</v>
-      </c>
-      <c r="AE183" s="2">
-        <f t="shared" si="40"/>
-        <v>49.813700200630549</v>
-      </c>
-      <c r="AF183" s="2">
-        <f t="shared" si="41"/>
-        <v>6.6781312697047861</v>
-      </c>
-      <c r="AG183" s="2">
-        <f t="shared" si="42"/>
-        <v>34.288716919843317</v>
-      </c>
-      <c r="AH183" s="2">
-        <f t="shared" si="43"/>
-        <v>2.3693512945447597</v>
-      </c>
-      <c r="AI183" s="2">
-        <f t="shared" si="44"/>
-        <v>6.8501003152765829</v>
-      </c>
-    </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="W184" s="2">
+        <f>E185/B185*100</f>
+        <v>41.469944025310298</v>
+      </c>
+      <c r="X184" s="2">
+        <f>F185/B185*100</f>
+        <v>4.6970065709418352</v>
+      </c>
+      <c r="Y184" s="2">
+        <f>G185/B185*100</f>
+        <v>7.5687515210513503</v>
+      </c>
+      <c r="Z184" s="2">
+        <f>I185/H185*100</f>
+        <v>53.010204081632651</v>
+      </c>
+      <c r="AA184" s="2">
+        <f>J185/H185*100</f>
+        <v>2.6020408163265305</v>
+      </c>
+      <c r="AB184" s="2">
+        <f>K185/H185*100</f>
+        <v>40.102040816326529</v>
+      </c>
+      <c r="AC184" s="2">
+        <f>L185/H185*100</f>
+        <v>2.5510204081632653</v>
+      </c>
+      <c r="AD184" s="2">
+        <f>M185/H185*100</f>
+        <v>1.7346938775510203</v>
+      </c>
+      <c r="AE184" s="2">
+        <f>O185/N185*100</f>
+        <v>35.272219637040486</v>
+      </c>
+      <c r="AF184" s="2">
+        <f>P185/N185*100</f>
+        <v>2.4662633783154959</v>
+      </c>
+      <c r="AG184" s="2">
+        <f>Q185/N185*100</f>
+        <v>42.717543043275938</v>
+      </c>
+      <c r="AH184" s="2">
+        <f>R185/N185*100</f>
+        <v>6.6542577943229402</v>
+      </c>
+      <c r="AI184" s="2">
+        <f>S185/N185*100</f>
+        <v>12.889716147045139</v>
+      </c>
+    </row>
+    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>619</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B185" s="1">
         <v>4109</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C185" s="1">
         <v>1797</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D185" s="1">
         <v>104</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E185" s="1">
         <v>1704</v>
       </c>
-      <c r="F184" s="1">
+      <c r="F185" s="1">
         <v>193</v>
       </c>
-      <c r="G184" s="1">
+      <c r="G185" s="1">
         <v>311</v>
       </c>
-      <c r="H184" s="1">
+      <c r="H185" s="1">
         <v>1960</v>
       </c>
-      <c r="I184" s="1">
+      <c r="I185" s="1">
         <v>1039</v>
       </c>
-      <c r="J184" s="1">
+      <c r="J185" s="1">
         <v>51</v>
       </c>
-      <c r="K184" s="1">
+      <c r="K185" s="1">
         <v>786</v>
       </c>
-      <c r="L184" s="1">
+      <c r="L185" s="1">
         <v>50</v>
       </c>
-      <c r="M184" s="1">
+      <c r="M185" s="1">
         <v>34</v>
       </c>
-      <c r="N184" s="1">
+      <c r="N185" s="1">
         <v>2149</v>
       </c>
-      <c r="O184" s="1">
+      <c r="O185" s="1">
         <v>758</v>
       </c>
-      <c r="P184" s="1">
+      <c r="P185" s="1">
         <v>53</v>
       </c>
-      <c r="Q184" s="1">
+      <c r="Q185" s="1">
         <v>918</v>
       </c>
-      <c r="R184" s="1">
+      <c r="R185" s="1">
         <v>143</v>
       </c>
-      <c r="S184" s="1">
+      <c r="S185" s="1">
         <v>277</v>
       </c>
-      <c r="U184" s="2">
+      <c r="U185" s="2">
         <f t="shared" si="30"/>
         <v>43.733268435142371</v>
       </c>
-      <c r="V184" s="2">
+      <c r="V185" s="2">
         <f t="shared" si="31"/>
         <v>2.5310294475541495</v>
-      </c>
-      <c r="W184" s="2">
-        <f t="shared" si="32"/>
-        <v>41.469944025310298</v>
-      </c>
-      <c r="X184" s="2">
-        <f t="shared" si="33"/>
-        <v>4.6970065709418352</v>
-      </c>
-      <c r="Y184" s="2">
-        <f t="shared" si="34"/>
-        <v>7.5687515210513503</v>
-      </c>
-      <c r="Z184" s="2">
-        <f t="shared" si="35"/>
-        <v>53.010204081632651</v>
-      </c>
-      <c r="AA184" s="2">
-        <f t="shared" si="36"/>
-        <v>2.6020408163265305</v>
-      </c>
-      <c r="AB184" s="2">
-        <f t="shared" si="37"/>
-        <v>40.102040816326529</v>
-      </c>
-      <c r="AC184" s="2">
-        <f t="shared" si="38"/>
-        <v>2.5510204081632653</v>
-      </c>
-      <c r="AD184" s="2">
-        <f t="shared" si="39"/>
-        <v>1.7346938775510203</v>
-      </c>
-      <c r="AE184" s="2">
-        <f t="shared" si="40"/>
-        <v>35.272219637040486</v>
-      </c>
-      <c r="AF184" s="2">
-        <f t="shared" si="41"/>
-        <v>2.4662633783154959</v>
-      </c>
-      <c r="AG184" s="2">
-        <f t="shared" si="42"/>
-        <v>42.717543043275938</v>
-      </c>
-      <c r="AH184" s="2">
-        <f t="shared" si="43"/>
-        <v>6.6542577943229402</v>
-      </c>
-      <c r="AI184" s="2">
-        <f t="shared" si="44"/>
-        <v>12.889716147045139</v>
       </c>
     </row>
   </sheetData>
